--- a/raw_data/20200818_saline/20200818_Sensor0_Test_53.xlsx
+++ b/raw_data/20200818_saline/20200818_Sensor0_Test_53.xlsx
@@ -1,493 +1,909 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <workbookPr date1904="true"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <workbookPr date1904="1" defaultThemeVersion="166925"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox (GaTech)\Lab files\code\Impedance_fit\raw_data\20200818_saline\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92D44ED4-64EA-490D-A6CD-B1878A1FAF52}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <bookViews>
+    <workbookView xWindow="2240" yWindow="2240" windowWidth="28800" windowHeight="15460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+  </bookViews>
   <sheets>
     <sheet name="sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <si>
-    <t>Inf</t>
-  </si>
-  <si>
-    <t>-Inf</t>
-  </si>
-  <si>
-    <t>#NV</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="85">
+  <si>
+    <t>Untitled</t>
+  </si>
+  <si>
+    <t>Untitled 1</t>
+  </si>
+  <si>
+    <t>Untitled 2</t>
+  </si>
+  <si>
+    <t>Untitled 3</t>
+  </si>
+  <si>
+    <t>Untitled 4</t>
+  </si>
+  <si>
+    <t>Untitled 5</t>
+  </si>
+  <si>
+    <t>Untitled 6</t>
+  </si>
+  <si>
+    <t>Untitled 7</t>
+  </si>
+  <si>
+    <t>Untitled 8</t>
+  </si>
+  <si>
+    <t>Untitled 9</t>
+  </si>
+  <si>
+    <t>Untitled 10</t>
+  </si>
+  <si>
+    <t>Untitled 11</t>
+  </si>
+  <si>
+    <t>Untitled 12</t>
+  </si>
+  <si>
+    <t>Untitled 13</t>
+  </si>
+  <si>
+    <t>Untitled 14</t>
+  </si>
+  <si>
+    <t>Untitled 15</t>
+  </si>
+  <si>
+    <t>Untitled 16</t>
+  </si>
+  <si>
+    <t>Untitled 17</t>
+  </si>
+  <si>
+    <t>Untitled 18</t>
+  </si>
+  <si>
+    <t>Untitled 19</t>
+  </si>
+  <si>
+    <t>Untitled 20</t>
+  </si>
+  <si>
+    <t>Untitled 21</t>
+  </si>
+  <si>
+    <t>Untitled 22</t>
+  </si>
+  <si>
+    <t>Untitled 23</t>
+  </si>
+  <si>
+    <t>Untitled 24</t>
+  </si>
+  <si>
+    <t>Untitled 25</t>
+  </si>
+  <si>
+    <t>Untitled 26</t>
+  </si>
+  <si>
+    <t>Untitled 27</t>
+  </si>
+  <si>
+    <t>Untitled 28</t>
+  </si>
+  <si>
+    <t>Untitled 29</t>
+  </si>
+  <si>
+    <t>Untitled 30</t>
+  </si>
+  <si>
+    <t>Untitled 31</t>
+  </si>
+  <si>
+    <t>Untitled 32</t>
+  </si>
+  <si>
+    <t>Untitled 33</t>
+  </si>
+  <si>
+    <t>Untitled 34</t>
+  </si>
+  <si>
+    <t>Untitled 35</t>
+  </si>
+  <si>
+    <t>Untitled 36</t>
+  </si>
+  <si>
+    <t>Untitled 37</t>
+  </si>
+  <si>
+    <t>Untitled 38</t>
+  </si>
+  <si>
+    <t>Untitled 39</t>
+  </si>
+  <si>
+    <t>Untitled 40</t>
+  </si>
+  <si>
+    <t>Untitled 41</t>
+  </si>
+  <si>
+    <t>Untitled 42</t>
+  </si>
+  <si>
+    <t>Untitled 43</t>
+  </si>
+  <si>
+    <t>Untitled 44</t>
+  </si>
+  <si>
+    <t>Untitled 45</t>
+  </si>
+  <si>
+    <t>Untitled 46</t>
+  </si>
+  <si>
+    <t>Untitled 47</t>
+  </si>
+  <si>
+    <t>Untitled 48</t>
+  </si>
+  <si>
+    <t>Untitled 49</t>
+  </si>
+  <si>
+    <t>Untitled 50</t>
+  </si>
+  <si>
+    <t>Untitled 51</t>
+  </si>
+  <si>
+    <t>Untitled 52</t>
+  </si>
+  <si>
+    <t>Untitled 53</t>
+  </si>
+  <si>
+    <t>Untitled 54</t>
+  </si>
+  <si>
+    <t>Untitled 55</t>
+  </si>
+  <si>
+    <t>Untitled 56</t>
+  </si>
+  <si>
+    <t>Untitled 57</t>
+  </si>
+  <si>
+    <t>Untitled 58</t>
+  </si>
+  <si>
+    <t>Untitled 59</t>
+  </si>
+  <si>
+    <t>Untitled 60</t>
+  </si>
+  <si>
+    <t>Untitled 61</t>
+  </si>
+  <si>
+    <t>Untitled 62</t>
+  </si>
+  <si>
+    <t>Untitled 63</t>
+  </si>
+  <si>
+    <t>Untitled 64</t>
+  </si>
+  <si>
+    <t>Untitled 65</t>
+  </si>
+  <si>
+    <t>Untitled 66</t>
+  </si>
+  <si>
+    <t>Untitled 67</t>
+  </si>
+  <si>
+    <t>Untitled 68</t>
+  </si>
+  <si>
+    <t>Untitled 69</t>
+  </si>
+  <si>
+    <t>Untitled 70</t>
+  </si>
+  <si>
+    <t>Untitled 71</t>
+  </si>
+  <si>
+    <t>Untitled 72</t>
+  </si>
+  <si>
+    <t>Untitled 73</t>
+  </si>
+  <si>
+    <t>Untitled 74</t>
+  </si>
+  <si>
+    <t>Untitled 75</t>
+  </si>
+  <si>
+    <t>Untitled 76</t>
+  </si>
+  <si>
+    <t>Untitled 77</t>
+  </si>
+  <si>
+    <t>Untitled 78</t>
+  </si>
+  <si>
+    <t>Untitled 79</t>
+  </si>
+  <si>
+    <t>Untitled 80</t>
+  </si>
+  <si>
+    <t>Untitled 81</t>
+  </si>
+  <si>
+    <t>Untitled 82</t>
+  </si>
+  <si>
+    <t>Untitled 83</t>
+  </si>
+  <si>
+    <t>Untitled 84</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"> </numFmts>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="1">
-    <font/>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+    </font>
   </fonts>
-  <fills count="1">
-    <fill/>
+  <fills count="2">
+    <fill>
+      <patternFill patternType="none"/>
+    </fill>
+    <fill>
+      <patternFill patternType="gray125"/>
+    </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
+  <cellStyleXfs count="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+  </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0"/>
-    <xf numFmtId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
+  <cellStyles count="1">
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+  </cellStyles>
+  <dxfs count="0"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="44546A"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="E7E6E6"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4472C4"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="ED7D31"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="A5A5A5"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="FFC000"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="5B9BD5"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="70AD47"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0563C1"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="954F72"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック Light"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线 Light"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="游ゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="等线"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="110000"/>
+                <a:satMod val="105000"/>
+                <a:tint val="67000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="103000"/>
+                <a:tint val="73000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="105000"/>
+                <a:satMod val="109000"/>
+                <a:tint val="81000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:satMod val="103000"/>
+                <a:lumMod val="102000"/>
+                <a:tint val="94000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:satMod val="110000"/>
+                <a:lumMod val="100000"/>
+                <a:shade val="100000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:lumMod val="99000"/>
+                <a:satMod val="120000"/>
+                <a:shade val="78000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="63000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr">
+            <a:tint val="95000"/>
+            <a:satMod val="170000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="93000"/>
+                <a:satMod val="150000"/>
+                <a:shade val="98000"/>
+                <a:lumMod val="102000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="50000">
+              <a:schemeClr val="phClr">
+                <a:tint val="98000"/>
+                <a:satMod val="130000"/>
+                <a:shade val="90000"/>
+                <a:lumMod val="103000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="63000"/>
+                <a:satMod val="120000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="5400000" scaled="0"/>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+  <a:extLst>
+    <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+    </a:ext>
+  </a:extLst>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:CG26"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>Untitled</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>Untitled 1</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>Untitled 2</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>Untitled 3</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>Untitled 4</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>Untitled 5</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>Untitled 6</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>Untitled 7</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>Untitled 8</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>Untitled 9</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>Untitled 10</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>Untitled 11</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>Untitled 12</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>Untitled 13</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>Untitled 14</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>Untitled 15</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>Untitled 16</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
-          <t>Untitled 17</t>
-        </is>
-      </c>
-      <c r="S1" t="inlineStr">
-        <is>
-          <t>Untitled 18</t>
-        </is>
-      </c>
-      <c r="T1" t="inlineStr">
-        <is>
-          <t>Untitled 19</t>
-        </is>
-      </c>
-      <c r="U1" t="inlineStr">
-        <is>
-          <t>Untitled 20</t>
-        </is>
-      </c>
-      <c r="V1" t="inlineStr">
-        <is>
-          <t>Untitled 21</t>
-        </is>
-      </c>
-      <c r="W1" t="inlineStr">
-        <is>
-          <t>Untitled 22</t>
-        </is>
-      </c>
-      <c r="X1" t="inlineStr">
-        <is>
-          <t>Untitled 23</t>
-        </is>
-      </c>
-      <c r="Y1" t="inlineStr">
-        <is>
-          <t>Untitled 24</t>
-        </is>
-      </c>
-      <c r="Z1" t="inlineStr">
-        <is>
-          <t>Untitled 25</t>
-        </is>
-      </c>
-      <c r="AA1" t="inlineStr">
-        <is>
-          <t>Untitled 26</t>
-        </is>
-      </c>
-      <c r="AB1" t="inlineStr">
-        <is>
-          <t>Untitled 27</t>
-        </is>
-      </c>
-      <c r="AC1" t="inlineStr">
-        <is>
-          <t>Untitled 28</t>
-        </is>
-      </c>
-      <c r="AD1" t="inlineStr">
-        <is>
-          <t>Untitled 29</t>
-        </is>
-      </c>
-      <c r="AE1" t="inlineStr">
-        <is>
-          <t>Untitled 30</t>
-        </is>
-      </c>
-      <c r="AF1" t="inlineStr">
-        <is>
-          <t>Untitled 31</t>
-        </is>
-      </c>
-      <c r="AG1" t="inlineStr">
-        <is>
-          <t>Untitled 32</t>
-        </is>
-      </c>
-      <c r="AH1" t="inlineStr">
-        <is>
-          <t>Untitled 33</t>
-        </is>
-      </c>
-      <c r="AI1" t="inlineStr">
-        <is>
-          <t>Untitled 34</t>
-        </is>
-      </c>
-      <c r="AJ1" t="inlineStr">
-        <is>
-          <t>Untitled 35</t>
-        </is>
-      </c>
-      <c r="AK1" t="inlineStr">
-        <is>
-          <t>Untitled 36</t>
-        </is>
-      </c>
-      <c r="AL1" t="inlineStr">
-        <is>
-          <t>Untitled 37</t>
-        </is>
-      </c>
-      <c r="AM1" t="inlineStr">
-        <is>
-          <t>Untitled 38</t>
-        </is>
-      </c>
-      <c r="AN1" t="inlineStr">
-        <is>
-          <t>Untitled 39</t>
-        </is>
-      </c>
-      <c r="AO1" t="inlineStr">
-        <is>
-          <t>Untitled 40</t>
-        </is>
-      </c>
-      <c r="AP1" t="inlineStr">
-        <is>
-          <t>Untitled 41</t>
-        </is>
-      </c>
-      <c r="AQ1" t="inlineStr">
-        <is>
-          <t>Untitled 42</t>
-        </is>
-      </c>
-      <c r="AR1" t="inlineStr">
-        <is>
-          <t>Untitled 43</t>
-        </is>
-      </c>
-      <c r="AS1" t="inlineStr">
-        <is>
-          <t>Untitled 44</t>
-        </is>
-      </c>
-      <c r="AT1" t="inlineStr">
-        <is>
-          <t>Untitled 45</t>
-        </is>
-      </c>
-      <c r="AU1" t="inlineStr">
-        <is>
-          <t>Untitled 46</t>
-        </is>
-      </c>
-      <c r="AV1" t="inlineStr">
-        <is>
-          <t>Untitled 47</t>
-        </is>
-      </c>
-      <c r="AW1" t="inlineStr">
-        <is>
-          <t>Untitled 48</t>
-        </is>
-      </c>
-      <c r="AX1" t="inlineStr">
-        <is>
-          <t>Untitled 49</t>
-        </is>
-      </c>
-      <c r="AY1" t="inlineStr">
-        <is>
-          <t>Untitled 50</t>
-        </is>
-      </c>
-      <c r="AZ1" t="inlineStr">
-        <is>
-          <t>Untitled 51</t>
-        </is>
-      </c>
-      <c r="BA1" t="inlineStr">
-        <is>
-          <t>Untitled 52</t>
-        </is>
-      </c>
-      <c r="BB1" t="inlineStr">
-        <is>
-          <t>Untitled 53</t>
-        </is>
-      </c>
-      <c r="BC1" t="inlineStr">
-        <is>
-          <t>Untitled 54</t>
-        </is>
-      </c>
-      <c r="BD1" t="inlineStr">
-        <is>
-          <t>Untitled 55</t>
-        </is>
-      </c>
-      <c r="BE1" t="inlineStr">
-        <is>
-          <t>Untitled 56</t>
-        </is>
-      </c>
-      <c r="BF1" t="inlineStr">
-        <is>
-          <t>Untitled 57</t>
-        </is>
-      </c>
-      <c r="BG1" t="inlineStr">
-        <is>
-          <t>Untitled 58</t>
-        </is>
-      </c>
-      <c r="BH1" t="inlineStr">
-        <is>
-          <t>Untitled 59</t>
-        </is>
-      </c>
-      <c r="BI1" t="inlineStr">
-        <is>
-          <t>Untitled 60</t>
-        </is>
-      </c>
-      <c r="BJ1" t="inlineStr">
-        <is>
-          <t>Untitled 61</t>
-        </is>
-      </c>
-      <c r="BK1" t="inlineStr">
-        <is>
-          <t>Untitled 62</t>
-        </is>
-      </c>
-      <c r="BL1" t="inlineStr">
-        <is>
-          <t>Untitled 63</t>
-        </is>
-      </c>
-      <c r="BM1" t="inlineStr">
-        <is>
-          <t>Untitled 64</t>
-        </is>
-      </c>
-      <c r="BN1" t="inlineStr">
-        <is>
-          <t>Untitled 65</t>
-        </is>
-      </c>
-      <c r="BO1" t="inlineStr">
-        <is>
-          <t>Untitled 66</t>
-        </is>
-      </c>
-      <c r="BP1" t="inlineStr">
-        <is>
-          <t>Untitled 67</t>
-        </is>
-      </c>
-      <c r="BQ1" t="inlineStr">
-        <is>
-          <t>Untitled 68</t>
-        </is>
-      </c>
-      <c r="BR1" t="inlineStr">
-        <is>
-          <t>Untitled 69</t>
-        </is>
-      </c>
-      <c r="BS1" t="inlineStr">
-        <is>
-          <t>Untitled 70</t>
-        </is>
-      </c>
-      <c r="BT1" t="inlineStr">
-        <is>
-          <t>Untitled 71</t>
-        </is>
-      </c>
-      <c r="BU1" t="inlineStr">
-        <is>
-          <t>Untitled 72</t>
-        </is>
-      </c>
-      <c r="BV1" t="inlineStr">
-        <is>
-          <t>Untitled 73</t>
-        </is>
-      </c>
-      <c r="BW1" t="inlineStr">
-        <is>
-          <t>Untitled 74</t>
-        </is>
-      </c>
-      <c r="BX1" t="inlineStr">
-        <is>
-          <t>Untitled 75</t>
-        </is>
-      </c>
-      <c r="BY1" t="inlineStr">
-        <is>
-          <t>Untitled 76</t>
-        </is>
-      </c>
-      <c r="BZ1" t="inlineStr">
-        <is>
-          <t>Untitled 77</t>
-        </is>
-      </c>
-      <c r="CA1" t="inlineStr">
-        <is>
-          <t>Untitled 78</t>
-        </is>
-      </c>
-      <c r="CB1" t="inlineStr">
-        <is>
-          <t>Untitled 79</t>
-        </is>
-      </c>
-      <c r="CC1" t="inlineStr">
-        <is>
-          <t>Untitled 80</t>
-        </is>
-      </c>
-      <c r="CD1" t="inlineStr">
-        <is>
-          <t>Untitled 81</t>
-        </is>
-      </c>
-      <c r="CE1" t="inlineStr">
-        <is>
-          <t>Untitled 82</t>
-        </is>
-      </c>
-      <c r="CF1" t="inlineStr">
-        <is>
-          <t>Untitled 83</t>
-        </is>
-      </c>
-      <c r="CG1" t="inlineStr">
-        <is>
-          <t>Untitled 84</t>
-        </is>
+    <row r="1" spans="1:85">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" t="s">
+        <v>10</v>
+      </c>
+      <c r="L1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" t="s">
+        <v>14</v>
+      </c>
+      <c r="P1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>16</v>
+      </c>
+      <c r="R1" t="s">
+        <v>17</v>
+      </c>
+      <c r="S1" t="s">
+        <v>18</v>
+      </c>
+      <c r="T1" t="s">
+        <v>19</v>
+      </c>
+      <c r="U1" t="s">
+        <v>20</v>
+      </c>
+      <c r="V1" t="s">
+        <v>21</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>23</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>24</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>25</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>26</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>27</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>28</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>29</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>30</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>31</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>32</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>33</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>34</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>35</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>36</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>37</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>38</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>39</v>
+      </c>
+      <c r="AO1" t="s">
+        <v>40</v>
+      </c>
+      <c r="AP1" t="s">
+        <v>41</v>
+      </c>
+      <c r="AQ1" t="s">
+        <v>42</v>
+      </c>
+      <c r="AR1" t="s">
+        <v>43</v>
+      </c>
+      <c r="AS1" t="s">
+        <v>44</v>
+      </c>
+      <c r="AT1" t="s">
+        <v>45</v>
+      </c>
+      <c r="AU1" t="s">
+        <v>46</v>
+      </c>
+      <c r="AV1" t="s">
+        <v>47</v>
+      </c>
+      <c r="AW1" t="s">
+        <v>48</v>
+      </c>
+      <c r="AX1" t="s">
+        <v>49</v>
+      </c>
+      <c r="AY1" t="s">
+        <v>50</v>
+      </c>
+      <c r="AZ1" t="s">
+        <v>51</v>
+      </c>
+      <c r="BA1" t="s">
+        <v>52</v>
+      </c>
+      <c r="BB1" t="s">
+        <v>53</v>
+      </c>
+      <c r="BC1" t="s">
+        <v>54</v>
+      </c>
+      <c r="BD1" t="s">
+        <v>55</v>
+      </c>
+      <c r="BE1" t="s">
+        <v>56</v>
+      </c>
+      <c r="BF1" t="s">
+        <v>57</v>
+      </c>
+      <c r="BG1" t="s">
+        <v>58</v>
+      </c>
+      <c r="BH1" t="s">
+        <v>59</v>
+      </c>
+      <c r="BI1" t="s">
+        <v>60</v>
+      </c>
+      <c r="BJ1" t="s">
+        <v>61</v>
+      </c>
+      <c r="BK1" t="s">
+        <v>62</v>
+      </c>
+      <c r="BL1" t="s">
+        <v>63</v>
+      </c>
+      <c r="BM1" t="s">
+        <v>64</v>
+      </c>
+      <c r="BN1" t="s">
+        <v>65</v>
+      </c>
+      <c r="BO1" t="s">
+        <v>66</v>
+      </c>
+      <c r="BP1" t="s">
+        <v>67</v>
+      </c>
+      <c r="BQ1" t="s">
+        <v>68</v>
+      </c>
+      <c r="BR1" t="s">
+        <v>69</v>
+      </c>
+      <c r="BS1" t="s">
+        <v>70</v>
+      </c>
+      <c r="BT1" t="s">
+        <v>71</v>
+      </c>
+      <c r="BU1" t="s">
+        <v>72</v>
+      </c>
+      <c r="BV1" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW1" t="s">
+        <v>74</v>
+      </c>
+      <c r="BX1" t="s">
+        <v>75</v>
+      </c>
+      <c r="BY1" t="s">
+        <v>76</v>
+      </c>
+      <c r="BZ1" t="s">
+        <v>77</v>
+      </c>
+      <c r="CA1" t="s">
+        <v>78</v>
+      </c>
+      <c r="CB1" t="s">
+        <v>79</v>
+      </c>
+      <c r="CC1" t="s">
+        <v>80</v>
+      </c>
+      <c r="CD1" t="s">
+        <v>81</v>
+      </c>
+      <c r="CE1" t="s">
+        <v>82</v>
+      </c>
+      <c r="CF1" t="s">
+        <v>83</v>
+      </c>
+      <c r="CG1" t="s">
+        <v>84</v>
       </c>
     </row>
-    <row r="2">
+    <row r="2" spans="1:85">
       <c r="A2" s="1">
-        <v>46803.211322</v>
+        <v>46803.211322000003</v>
       </c>
       <c r="B2" s="1">
         <v>13.000892</v>
       </c>
       <c r="C2" s="1">
-        <v>902.005000</v>
+        <v>902.005</v>
       </c>
       <c r="D2" s="1">
-        <v>-179.887000</v>
+        <v>-179.887</v>
       </c>
       <c r="E2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F2" s="1">
         <v>46813.618853</v>
@@ -496,73 +912,73 @@
         <v>13.003783</v>
       </c>
       <c r="H2" s="1">
-        <v>917.688000</v>
+        <v>917.68799999999999</v>
       </c>
       <c r="I2" s="1">
-        <v>-155.373000</v>
+        <v>-155.37299999999999</v>
       </c>
       <c r="J2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K2" s="1">
-        <v>46824.083943</v>
+        <v>46824.083942999998</v>
       </c>
       <c r="L2" s="1">
-        <v>13.006690</v>
+        <v>13.006690000000001</v>
       </c>
       <c r="M2" s="1">
-        <v>941.037000</v>
+        <v>941.03700000000003</v>
       </c>
       <c r="N2" s="1">
-        <v>-115.069000</v>
+        <v>-115.069</v>
       </c>
       <c r="O2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P2" s="1">
-        <v>46834.575819</v>
+        <v>46834.575818999998</v>
       </c>
       <c r="Q2" s="1">
         <v>13.009604</v>
       </c>
       <c r="R2" s="1">
-        <v>948.372000</v>
+        <v>948.37199999999996</v>
       </c>
       <c r="S2" s="1">
-        <v>-101.435000</v>
+        <v>-101.435</v>
       </c>
       <c r="T2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U2" s="1">
-        <v>46845.132173</v>
+        <v>46845.132172999998</v>
       </c>
       <c r="V2" s="1">
         <v>13.012537</v>
       </c>
       <c r="W2" s="1">
-        <v>955.989000</v>
+        <v>955.98900000000003</v>
       </c>
       <c r="X2" s="1">
-        <v>-88.832500</v>
+        <v>-88.832499999999996</v>
       </c>
       <c r="Y2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z2" s="1">
-        <v>46855.575470</v>
+        <v>46855.575470000003</v>
       </c>
       <c r="AA2" s="1">
         <v>13.015438</v>
       </c>
       <c r="AB2" s="1">
-        <v>964.141000</v>
+        <v>964.14099999999996</v>
       </c>
       <c r="AC2" s="1">
-        <v>-80.270200</v>
+        <v>-80.270200000000003</v>
       </c>
       <c r="AD2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE2" s="1">
         <v>46866.800895</v>
@@ -571,103 +987,103 @@
         <v>13.018556</v>
       </c>
       <c r="AG2" s="1">
-        <v>969.565000</v>
+        <v>969.56500000000005</v>
       </c>
       <c r="AH2" s="1">
-        <v>-80.112200</v>
+        <v>-80.112200000000001</v>
       </c>
       <c r="AI2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ2" s="1">
-        <v>46877.224353</v>
+        <v>46877.224352999998</v>
       </c>
       <c r="AK2" s="1">
-        <v>13.021451</v>
+        <v>13.021451000000001</v>
       </c>
       <c r="AL2" s="1">
-        <v>977.837000</v>
+        <v>977.83699999999999</v>
       </c>
       <c r="AM2" s="1">
-        <v>-88.194500</v>
+        <v>-88.194500000000005</v>
       </c>
       <c r="AN2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO2" s="1">
-        <v>46887.790136</v>
+        <v>46887.790136000003</v>
       </c>
       <c r="AP2" s="1">
         <v>13.024386</v>
       </c>
       <c r="AQ2" s="1">
-        <v>987.179000</v>
+        <v>987.17899999999997</v>
       </c>
       <c r="AR2" s="1">
-        <v>-103.288000</v>
+        <v>-103.288</v>
       </c>
       <c r="AS2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT2" s="1">
-        <v>46898.784421</v>
+        <v>46898.784420999997</v>
       </c>
       <c r="AU2" s="1">
-        <v>13.027440</v>
+        <v>13.02744</v>
       </c>
       <c r="AV2" s="1">
-        <v>998.705000</v>
+        <v>998.70500000000004</v>
       </c>
       <c r="AW2" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="AX2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY2" s="1">
-        <v>46909.885913</v>
+        <v>46909.885912999998</v>
       </c>
       <c r="AZ2" s="1">
         <v>13.030524</v>
       </c>
       <c r="BA2" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB2" s="1">
-        <v>-143.973000</v>
+        <v>-143.97300000000001</v>
       </c>
       <c r="BC2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD2" s="1">
-        <v>46920.849449</v>
+        <v>46920.849449000001</v>
       </c>
       <c r="BE2" s="1">
         <v>13.033569</v>
       </c>
       <c r="BF2" s="1">
-        <v>1053.890000</v>
+        <v>1053.8900000000001</v>
       </c>
       <c r="BG2" s="1">
-        <v>-229.529000</v>
+        <v>-229.529</v>
       </c>
       <c r="BH2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI2" s="1">
-        <v>46931.274362</v>
+        <v>46931.274361999996</v>
       </c>
       <c r="BJ2" s="1">
         <v>13.036465</v>
       </c>
       <c r="BK2" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL2" s="1">
-        <v>-367.017000</v>
+        <v>-367.017</v>
       </c>
       <c r="BM2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN2" s="1">
         <v>46942.731452</v>
@@ -676,13 +1092,13 @@
         <v>13.039648</v>
       </c>
       <c r="BP2" s="1">
-        <v>1265.540000</v>
+        <v>1265.54</v>
       </c>
       <c r="BQ2" s="1">
-        <v>-580.040000</v>
+        <v>-580.04</v>
       </c>
       <c r="BR2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS2" s="1">
         <v>46953.077502</v>
@@ -691,285 +1107,285 @@
         <v>13.042522</v>
       </c>
       <c r="BU2" s="1">
-        <v>1414.340000</v>
+        <v>1414.34</v>
       </c>
       <c r="BV2" s="1">
-        <v>-808.144000</v>
+        <v>-808.14400000000001</v>
       </c>
       <c r="BW2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX2" s="1">
-        <v>46964.271216</v>
+        <v>46964.271216000001</v>
       </c>
       <c r="BY2" s="1">
         <v>13.045631</v>
       </c>
       <c r="BZ2" s="1">
-        <v>1577.240000</v>
+        <v>1577.24</v>
       </c>
       <c r="CA2" s="1">
-        <v>-1046.630000</v>
+        <v>-1046.6300000000001</v>
       </c>
       <c r="CB2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC2" s="1">
-        <v>46975.627615</v>
+        <v>46975.627614999998</v>
       </c>
       <c r="CD2" s="1">
-        <v>13.048785</v>
+        <v>13.048785000000001</v>
       </c>
       <c r="CE2" s="1">
-        <v>1990.220000</v>
+        <v>1990.22</v>
       </c>
       <c r="CF2" s="1">
-        <v>-1603.590000</v>
+        <v>-1603.59</v>
       </c>
       <c r="CG2" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="3">
+    <row r="3" spans="1:85">
       <c r="A3" s="1">
-        <v>46803.592722</v>
+        <v>46803.592722000001</v>
       </c>
       <c r="B3" s="1">
-        <v>13.000998</v>
+        <v>13.000997999999999</v>
       </c>
       <c r="C3" s="1">
-        <v>901.966000</v>
+        <v>901.96600000000001</v>
       </c>
       <c r="D3" s="1">
-        <v>-179.877000</v>
+        <v>-179.87700000000001</v>
       </c>
       <c r="E3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F3" s="1">
-        <v>46813.991846</v>
+        <v>46813.991845999997</v>
       </c>
       <c r="G3" s="1">
-        <v>13.003887</v>
+        <v>13.003887000000001</v>
       </c>
       <c r="H3" s="1">
-        <v>917.938000</v>
+        <v>917.93799999999999</v>
       </c>
       <c r="I3" s="1">
-        <v>-155.364000</v>
+        <v>-155.364</v>
       </c>
       <c r="J3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K3" s="1">
-        <v>46824.441100</v>
+        <v>46824.441099999996</v>
       </c>
       <c r="L3" s="1">
-        <v>13.006789</v>
+        <v>13.006788999999999</v>
       </c>
       <c r="M3" s="1">
-        <v>940.879000</v>
+        <v>940.87900000000002</v>
       </c>
       <c r="N3" s="1">
-        <v>-115.043000</v>
+        <v>-115.04300000000001</v>
       </c>
       <c r="O3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P3" s="1">
-        <v>46834.945338</v>
+        <v>46834.945337999998</v>
       </c>
       <c r="Q3" s="1">
-        <v>13.009707</v>
+        <v>13.009707000000001</v>
       </c>
       <c r="R3" s="1">
-        <v>948.344000</v>
+        <v>948.34400000000005</v>
       </c>
       <c r="S3" s="1">
-        <v>-101.389000</v>
+        <v>-101.389</v>
       </c>
       <c r="T3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U3" s="1">
-        <v>46845.843436</v>
+        <v>46845.843436000003</v>
       </c>
       <c r="V3" s="1">
         <v>13.012734</v>
       </c>
       <c r="W3" s="1">
-        <v>956.034000</v>
+        <v>956.03399999999999</v>
       </c>
       <c r="X3" s="1">
-        <v>-88.930200</v>
+        <v>-88.930199999999999</v>
       </c>
       <c r="Y3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z3" s="1">
-        <v>46856.310510</v>
+        <v>46856.310510000003</v>
       </c>
       <c r="AA3" s="1">
         <v>13.015642</v>
       </c>
       <c r="AB3" s="1">
-        <v>964.166000</v>
+        <v>964.16600000000005</v>
       </c>
       <c r="AC3" s="1">
-        <v>-80.282400</v>
+        <v>-80.282399999999996</v>
       </c>
       <c r="AD3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE3" s="1">
-        <v>46867.149583</v>
+        <v>46867.149582999999</v>
       </c>
       <c r="AF3" s="1">
         <v>13.018653</v>
       </c>
       <c r="AG3" s="1">
-        <v>969.532000</v>
+        <v>969.53200000000004</v>
       </c>
       <c r="AH3" s="1">
-        <v>-80.190800</v>
+        <v>-80.190799999999996</v>
       </c>
       <c r="AI3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ3" s="1">
-        <v>46877.600289</v>
+        <v>46877.600289000002</v>
       </c>
       <c r="AK3" s="1">
         <v>13.021556</v>
       </c>
       <c r="AL3" s="1">
-        <v>977.837000</v>
+        <v>977.83699999999999</v>
       </c>
       <c r="AM3" s="1">
-        <v>-88.187300</v>
+        <v>-88.187299999999993</v>
       </c>
       <c r="AN3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO3" s="1">
-        <v>46888.154691</v>
+        <v>46888.154691000003</v>
       </c>
       <c r="AP3" s="1">
-        <v>13.024487</v>
+        <v>13.024487000000001</v>
       </c>
       <c r="AQ3" s="1">
-        <v>987.155000</v>
+        <v>987.15499999999997</v>
       </c>
       <c r="AR3" s="1">
-        <v>-103.286000</v>
+        <v>-103.286</v>
       </c>
       <c r="AS3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT3" s="1">
-        <v>46899.485268</v>
+        <v>46899.485267999997</v>
       </c>
       <c r="AU3" s="1">
         <v>13.027635</v>
       </c>
       <c r="AV3" s="1">
-        <v>998.706000</v>
+        <v>998.70600000000002</v>
       </c>
       <c r="AW3" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="AX3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY3" s="1">
-        <v>46910.320406</v>
+        <v>46910.320405999999</v>
       </c>
       <c r="AZ3" s="1">
         <v>13.030645</v>
       </c>
       <c r="BA3" s="1">
-        <v>1008.390000</v>
+        <v>1008.39</v>
       </c>
       <c r="BB3" s="1">
-        <v>-143.984000</v>
+        <v>-143.98400000000001</v>
       </c>
       <c r="BC3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD3" s="1">
-        <v>46921.295352</v>
+        <v>46921.295352000001</v>
       </c>
       <c r="BE3" s="1">
         <v>13.033693</v>
       </c>
       <c r="BF3" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG3" s="1">
-        <v>-229.541000</v>
+        <v>-229.541</v>
       </c>
       <c r="BH3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI3" s="1">
-        <v>46931.664251</v>
+        <v>46931.664251000002</v>
       </c>
       <c r="BJ3" s="1">
-        <v>13.036573</v>
+        <v>13.036573000000001</v>
       </c>
       <c r="BK3" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL3" s="1">
-        <v>-367.059000</v>
+        <v>-367.05900000000003</v>
       </c>
       <c r="BM3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN3" s="1">
-        <v>46943.159996</v>
+        <v>46943.159996000002</v>
       </c>
       <c r="BO3" s="1">
-        <v>13.039767</v>
+        <v>13.039766999999999</v>
       </c>
       <c r="BP3" s="1">
-        <v>1265.560000</v>
+        <v>1265.56</v>
       </c>
       <c r="BQ3" s="1">
-        <v>-580.110000</v>
+        <v>-580.11</v>
       </c>
       <c r="BR3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS3" s="1">
         <v>46953.538321</v>
       </c>
       <c r="BT3" s="1">
-        <v>13.042650</v>
+        <v>13.04265</v>
       </c>
       <c r="BU3" s="1">
-        <v>1414.350000</v>
+        <v>1414.35</v>
       </c>
       <c r="BV3" s="1">
-        <v>-808.098000</v>
+        <v>-808.09799999999996</v>
       </c>
       <c r="BW3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX3" s="1">
-        <v>46964.735997</v>
+        <v>46964.735997000003</v>
       </c>
       <c r="BY3" s="1">
-        <v>13.045760</v>
+        <v>13.04576</v>
       </c>
       <c r="BZ3" s="1">
-        <v>1577.140000</v>
+        <v>1577.14</v>
       </c>
       <c r="CA3" s="1">
-        <v>-1046.770000</v>
+        <v>-1046.77</v>
       </c>
       <c r="CB3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC3" s="1">
         <v>46975.910335</v>
@@ -978,210 +1394,210 @@
         <v>13.048864</v>
       </c>
       <c r="CE3" s="1">
-        <v>1989.360000</v>
+        <v>1989.36</v>
       </c>
       <c r="CF3" s="1">
-        <v>-1604.880000</v>
+        <v>-1604.88</v>
       </c>
       <c r="CG3" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="4">
+    <row r="4" spans="1:85">
       <c r="A4" s="1">
-        <v>46803.935987</v>
+        <v>46803.935986999997</v>
       </c>
       <c r="B4" s="1">
-        <v>13.001093</v>
+        <v>13.001092999999999</v>
       </c>
       <c r="C4" s="1">
-        <v>901.792000</v>
+        <v>901.79200000000003</v>
       </c>
       <c r="D4" s="1">
-        <v>-180.079000</v>
+        <v>-180.07900000000001</v>
       </c>
       <c r="E4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F4" s="1">
-        <v>46814.340036</v>
+        <v>46814.340036000001</v>
       </c>
       <c r="G4" s="1">
         <v>13.003983</v>
       </c>
       <c r="H4" s="1">
-        <v>917.642000</v>
+        <v>917.64200000000005</v>
       </c>
       <c r="I4" s="1">
-        <v>-154.915000</v>
+        <v>-154.91499999999999</v>
       </c>
       <c r="J4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K4" s="1">
-        <v>46824.788759</v>
+        <v>46824.788759000003</v>
       </c>
       <c r="L4" s="1">
         <v>13.006886</v>
       </c>
       <c r="M4" s="1">
-        <v>940.816000</v>
+        <v>940.81600000000003</v>
       </c>
       <c r="N4" s="1">
-        <v>-115.175000</v>
+        <v>-115.175</v>
       </c>
       <c r="O4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P4" s="1">
-        <v>46835.644698</v>
+        <v>46835.644697999996</v>
       </c>
       <c r="Q4" s="1">
-        <v>13.009901</v>
+        <v>13.009900999999999</v>
       </c>
       <c r="R4" s="1">
-        <v>948.357000</v>
+        <v>948.35699999999997</v>
       </c>
       <c r="S4" s="1">
-        <v>-101.386000</v>
+        <v>-101.386</v>
       </c>
       <c r="T4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U4" s="1">
-        <v>46846.187195</v>
+        <v>46846.187194999999</v>
       </c>
       <c r="V4" s="1">
-        <v>13.012830</v>
+        <v>13.012829999999999</v>
       </c>
       <c r="W4" s="1">
-        <v>955.905000</v>
+        <v>955.90499999999997</v>
       </c>
       <c r="X4" s="1">
-        <v>-88.888500</v>
+        <v>-88.888499999999993</v>
       </c>
       <c r="Y4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z4" s="1">
-        <v>46856.661677</v>
+        <v>46856.661676999996</v>
       </c>
       <c r="AA4" s="1">
         <v>13.015739</v>
       </c>
       <c r="AB4" s="1">
-        <v>964.202000</v>
+        <v>964.202</v>
       </c>
       <c r="AC4" s="1">
-        <v>-80.334800</v>
+        <v>-80.334800000000001</v>
       </c>
       <c r="AD4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE4" s="1">
-        <v>46867.492814</v>
+        <v>46867.492813999997</v>
       </c>
       <c r="AF4" s="1">
         <v>13.018748</v>
       </c>
       <c r="AG4" s="1">
-        <v>969.549000</v>
+        <v>969.54899999999998</v>
       </c>
       <c r="AH4" s="1">
-        <v>-80.173200</v>
+        <v>-80.173199999999994</v>
       </c>
       <c r="AI4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ4" s="1">
-        <v>46878.264432</v>
+        <v>46878.264432000004</v>
       </c>
       <c r="AK4" s="1">
-        <v>13.021740</v>
+        <v>13.021739999999999</v>
       </c>
       <c r="AL4" s="1">
-        <v>977.810000</v>
+        <v>977.81</v>
       </c>
       <c r="AM4" s="1">
-        <v>-88.218800</v>
+        <v>-88.218800000000002</v>
       </c>
       <c r="AN4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO4" s="1">
-        <v>46888.820471</v>
+        <v>46888.820470999999</v>
       </c>
       <c r="AP4" s="1">
-        <v>13.024672</v>
+        <v>13.024672000000001</v>
       </c>
       <c r="AQ4" s="1">
-        <v>987.175000</v>
+        <v>987.17499999999995</v>
       </c>
       <c r="AR4" s="1">
-        <v>-103.289000</v>
+        <v>-103.289</v>
       </c>
       <c r="AS4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT4" s="1">
-        <v>46899.914835</v>
+        <v>46899.914835000003</v>
       </c>
       <c r="AU4" s="1">
         <v>13.027754</v>
       </c>
       <c r="AV4" s="1">
-        <v>998.696000</v>
+        <v>998.69600000000003</v>
       </c>
       <c r="AW4" s="1">
-        <v>-125.036000</v>
+        <v>-125.036</v>
       </c>
       <c r="AX4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY4" s="1">
-        <v>46910.677989</v>
+        <v>46910.677989000003</v>
       </c>
       <c r="AZ4" s="1">
         <v>13.030744</v>
       </c>
       <c r="BA4" s="1">
-        <v>1008.370000</v>
+        <v>1008.37</v>
       </c>
       <c r="BB4" s="1">
-        <v>-143.976000</v>
+        <v>-143.976</v>
       </c>
       <c r="BC4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD4" s="1">
-        <v>46921.655942</v>
+        <v>46921.655941999998</v>
       </c>
       <c r="BE4" s="1">
-        <v>13.033793</v>
+        <v>13.033792999999999</v>
       </c>
       <c r="BF4" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG4" s="1">
-        <v>-229.516000</v>
+        <v>-229.51599999999999</v>
       </c>
       <c r="BH4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI4" s="1">
-        <v>46932.053614</v>
+        <v>46932.053613999997</v>
       </c>
       <c r="BJ4" s="1">
-        <v>13.036682</v>
+        <v>13.036682000000001</v>
       </c>
       <c r="BK4" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL4" s="1">
-        <v>-367.034000</v>
+        <v>-367.03399999999999</v>
       </c>
       <c r="BM4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN4" s="1">
         <v>46943.579113</v>
@@ -1190,482 +1606,482 @@
         <v>13.039883</v>
       </c>
       <c r="BP4" s="1">
-        <v>1265.580000</v>
+        <v>1265.58</v>
       </c>
       <c r="BQ4" s="1">
-        <v>-580.124000</v>
+        <v>-580.12400000000002</v>
       </c>
       <c r="BR4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS4" s="1">
-        <v>46953.970300</v>
+        <v>46953.970300000001</v>
       </c>
       <c r="BT4" s="1">
-        <v>13.042770</v>
+        <v>13.042770000000001</v>
       </c>
       <c r="BU4" s="1">
-        <v>1414.330000</v>
+        <v>1414.33</v>
       </c>
       <c r="BV4" s="1">
-        <v>-808.027000</v>
+        <v>-808.02700000000004</v>
       </c>
       <c r="BW4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX4" s="1">
-        <v>46965.185837</v>
+        <v>46965.185836999997</v>
       </c>
       <c r="BY4" s="1">
         <v>13.045885</v>
       </c>
       <c r="BZ4" s="1">
-        <v>1577.060000</v>
+        <v>1577.06</v>
       </c>
       <c r="CA4" s="1">
-        <v>-1046.710000</v>
+        <v>-1046.71</v>
       </c>
       <c r="CB4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC4" s="1">
-        <v>46976.428656</v>
+        <v>46976.428655999996</v>
       </c>
       <c r="CD4" s="1">
-        <v>13.049008</v>
+        <v>13.049008000000001</v>
       </c>
       <c r="CE4" s="1">
-        <v>1990.790000</v>
+        <v>1990.79</v>
       </c>
       <c r="CF4" s="1">
-        <v>-1605.640000</v>
+        <v>-1605.64</v>
       </c>
       <c r="CG4" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="5">
+    <row r="5" spans="1:85">
       <c r="A5" s="1">
-        <v>46804.280214</v>
+        <v>46804.280213999999</v>
       </c>
       <c r="B5" s="1">
         <v>13.001189</v>
       </c>
       <c r="C5" s="1">
-        <v>901.936000</v>
+        <v>901.93600000000004</v>
       </c>
       <c r="D5" s="1">
-        <v>-179.825000</v>
+        <v>-179.82499999999999</v>
       </c>
       <c r="E5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F5" s="1">
-        <v>46815.029011</v>
+        <v>46815.029010999999</v>
       </c>
       <c r="G5" s="1">
         <v>13.004175</v>
       </c>
       <c r="H5" s="1">
-        <v>917.573000</v>
+        <v>917.57299999999998</v>
       </c>
       <c r="I5" s="1">
-        <v>-155.329000</v>
+        <v>-155.32900000000001</v>
       </c>
       <c r="J5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K5" s="1">
-        <v>46825.477703</v>
+        <v>46825.477702999997</v>
       </c>
       <c r="L5" s="1">
-        <v>13.007077</v>
+        <v>13.007077000000001</v>
       </c>
       <c r="M5" s="1">
-        <v>941.011000</v>
+        <v>941.01099999999997</v>
       </c>
       <c r="N5" s="1">
-        <v>-115.121000</v>
+        <v>-115.121</v>
       </c>
       <c r="O5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P5" s="1">
-        <v>46835.991633</v>
+        <v>46835.991632999998</v>
       </c>
       <c r="Q5" s="1">
         <v>13.009998</v>
       </c>
       <c r="R5" s="1">
-        <v>948.398000</v>
+        <v>948.39800000000002</v>
       </c>
       <c r="S5" s="1">
-        <v>-101.449000</v>
+        <v>-101.449</v>
       </c>
       <c r="T5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U5" s="1">
-        <v>46846.530890</v>
+        <v>46846.530890000002</v>
       </c>
       <c r="V5" s="1">
-        <v>13.012925</v>
+        <v>13.012924999999999</v>
       </c>
       <c r="W5" s="1">
-        <v>955.974000</v>
+        <v>955.97400000000005</v>
       </c>
       <c r="X5" s="1">
-        <v>-88.906000</v>
+        <v>-88.906000000000006</v>
       </c>
       <c r="Y5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z5" s="1">
-        <v>46857.007390</v>
+        <v>46857.007389999999</v>
       </c>
       <c r="AA5" s="1">
-        <v>13.015835</v>
+        <v>13.015834999999999</v>
       </c>
       <c r="AB5" s="1">
-        <v>964.214000</v>
+        <v>964.21400000000006</v>
       </c>
       <c r="AC5" s="1">
-        <v>-80.264800</v>
+        <v>-80.264799999999994</v>
       </c>
       <c r="AD5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE5" s="1">
-        <v>46868.147533</v>
+        <v>46868.147533000003</v>
       </c>
       <c r="AF5" s="1">
-        <v>13.018930</v>
+        <v>13.018929999999999</v>
       </c>
       <c r="AG5" s="1">
-        <v>969.547000</v>
+        <v>969.54700000000003</v>
       </c>
       <c r="AH5" s="1">
-        <v>-80.164100</v>
+        <v>-80.164100000000005</v>
       </c>
       <c r="AI5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ5" s="1">
         <v>46878.642881</v>
       </c>
       <c r="AK5" s="1">
-        <v>13.021845</v>
+        <v>13.021845000000001</v>
       </c>
       <c r="AL5" s="1">
-        <v>977.818000</v>
+        <v>977.81799999999998</v>
       </c>
       <c r="AM5" s="1">
-        <v>-88.167700</v>
+        <v>-88.167699999999996</v>
       </c>
       <c r="AN5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO5" s="1">
-        <v>46889.234947</v>
+        <v>46889.234946999997</v>
       </c>
       <c r="AP5" s="1">
         <v>13.024787</v>
       </c>
       <c r="AQ5" s="1">
-        <v>987.182000</v>
+        <v>987.18200000000002</v>
       </c>
       <c r="AR5" s="1">
-        <v>-103.289000</v>
+        <v>-103.289</v>
       </c>
       <c r="AS5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT5" s="1">
-        <v>46900.298707</v>
+        <v>46900.298707000002</v>
       </c>
       <c r="AU5" s="1">
         <v>13.027861</v>
       </c>
       <c r="AV5" s="1">
-        <v>998.704000</v>
+        <v>998.70399999999995</v>
       </c>
       <c r="AW5" s="1">
-        <v>-125.045000</v>
+        <v>-125.045</v>
       </c>
       <c r="AX5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY5" s="1">
-        <v>46911.039113</v>
+        <v>46911.039112999999</v>
       </c>
       <c r="AZ5" s="1">
         <v>13.030844</v>
       </c>
       <c r="BA5" s="1">
-        <v>1008.390000</v>
+        <v>1008.39</v>
       </c>
       <c r="BB5" s="1">
-        <v>-143.965000</v>
+        <v>-143.965</v>
       </c>
       <c r="BC5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD5" s="1">
-        <v>46922.016069</v>
+        <v>46922.016068999998</v>
       </c>
       <c r="BE5" s="1">
-        <v>13.033893</v>
+        <v>13.033893000000001</v>
       </c>
       <c r="BF5" s="1">
-        <v>1053.890000</v>
+        <v>1053.8900000000001</v>
       </c>
       <c r="BG5" s="1">
-        <v>-229.515000</v>
+        <v>-229.51499999999999</v>
       </c>
       <c r="BH5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI5" s="1">
-        <v>46932.472242</v>
+        <v>46932.472242000003</v>
       </c>
       <c r="BJ5" s="1">
-        <v>13.036798</v>
+        <v>13.036797999999999</v>
       </c>
       <c r="BK5" s="1">
-        <v>1133.610000</v>
+        <v>1133.6099999999999</v>
       </c>
       <c r="BL5" s="1">
-        <v>-367.026000</v>
+        <v>-367.02600000000001</v>
       </c>
       <c r="BM5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN5" s="1">
-        <v>46943.976905</v>
+        <v>46943.976905000003</v>
       </c>
       <c r="BO5" s="1">
         <v>13.039994</v>
       </c>
       <c r="BP5" s="1">
-        <v>1265.570000</v>
+        <v>1265.57</v>
       </c>
       <c r="BQ5" s="1">
-        <v>-580.072000</v>
+        <v>-580.072</v>
       </c>
       <c r="BR5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS5" s="1">
-        <v>46954.382017</v>
+        <v>46954.382017000004</v>
       </c>
       <c r="BT5" s="1">
-        <v>13.042884</v>
+        <v>13.042884000000001</v>
       </c>
       <c r="BU5" s="1">
-        <v>1414.290000</v>
+        <v>1414.29</v>
       </c>
       <c r="BV5" s="1">
-        <v>-808.078000</v>
+        <v>-808.07799999999997</v>
       </c>
       <c r="BW5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX5" s="1">
-        <v>46965.615411</v>
+        <v>46965.615410999999</v>
       </c>
       <c r="BY5" s="1">
         <v>13.046004</v>
       </c>
       <c r="BZ5" s="1">
-        <v>1577.100000</v>
+        <v>1577.1</v>
       </c>
       <c r="CA5" s="1">
-        <v>-1046.820000</v>
+        <v>-1046.82</v>
       </c>
       <c r="CB5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC5" s="1">
         <v>46976.945754</v>
       </c>
       <c r="CD5" s="1">
-        <v>13.049152</v>
+        <v>13.049151999999999</v>
       </c>
       <c r="CE5" s="1">
-        <v>1990.230000</v>
+        <v>1990.23</v>
       </c>
       <c r="CF5" s="1">
-        <v>-1605.600000</v>
+        <v>-1605.6</v>
       </c>
       <c r="CG5" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="6">
+    <row r="6" spans="1:85">
       <c r="A6" s="1">
         <v>46804.961186</v>
       </c>
       <c r="B6" s="1">
-        <v>13.001378</v>
+        <v>13.001378000000001</v>
       </c>
       <c r="C6" s="1">
-        <v>901.947000</v>
+        <v>901.947</v>
       </c>
       <c r="D6" s="1">
-        <v>-179.935000</v>
+        <v>-179.935</v>
       </c>
       <c r="E6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F6" s="1">
-        <v>46815.370759</v>
+        <v>46815.370758999998</v>
       </c>
       <c r="G6" s="1">
-        <v>13.004270</v>
+        <v>13.00427</v>
       </c>
       <c r="H6" s="1">
-        <v>918.182000</v>
+        <v>918.18200000000002</v>
       </c>
       <c r="I6" s="1">
-        <v>-155.336000</v>
+        <v>-155.33600000000001</v>
       </c>
       <c r="J6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K6" s="1">
-        <v>46825.825893</v>
+        <v>46825.825893000001</v>
       </c>
       <c r="L6" s="1">
-        <v>13.007174</v>
+        <v>13.007173999999999</v>
       </c>
       <c r="M6" s="1">
-        <v>940.969000</v>
+        <v>940.96900000000005</v>
       </c>
       <c r="N6" s="1">
-        <v>-115.071000</v>
+        <v>-115.071</v>
       </c>
       <c r="O6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P6" s="1">
-        <v>46836.341087</v>
+        <v>46836.341087000001</v>
       </c>
       <c r="Q6" s="1">
         <v>13.010095</v>
       </c>
       <c r="R6" s="1">
-        <v>948.440000</v>
+        <v>948.44</v>
       </c>
       <c r="S6" s="1">
-        <v>-101.381000</v>
+        <v>-101.381</v>
       </c>
       <c r="T6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U6" s="1">
-        <v>46847.188089</v>
+        <v>46847.188089000003</v>
       </c>
       <c r="V6" s="1">
-        <v>13.013108</v>
+        <v>13.013108000000001</v>
       </c>
       <c r="W6" s="1">
-        <v>956.036000</v>
+        <v>956.03599999999994</v>
       </c>
       <c r="X6" s="1">
-        <v>-89.054500</v>
+        <v>-89.054500000000004</v>
       </c>
       <c r="Y6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z6" s="1">
-        <v>46857.669051</v>
+        <v>46857.669050999997</v>
       </c>
       <c r="AA6" s="1">
         <v>13.016019</v>
       </c>
       <c r="AB6" s="1">
-        <v>964.125000</v>
+        <v>964.125</v>
       </c>
       <c r="AC6" s="1">
-        <v>-80.354900</v>
+        <v>-80.354900000000001</v>
       </c>
       <c r="AD6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE6" s="1">
-        <v>46868.523006</v>
+        <v>46868.523006000003</v>
       </c>
       <c r="AF6" s="1">
         <v>13.019034</v>
       </c>
       <c r="AG6" s="1">
-        <v>969.552000</v>
+        <v>969.55200000000002</v>
       </c>
       <c r="AH6" s="1">
-        <v>-80.112000</v>
+        <v>-80.111999999999995</v>
       </c>
       <c r="AI6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ6" s="1">
         <v>46878.989619</v>
       </c>
       <c r="AK6" s="1">
-        <v>13.021942</v>
+        <v>13.021941999999999</v>
       </c>
       <c r="AL6" s="1">
-        <v>977.817000</v>
+        <v>977.81700000000001</v>
       </c>
       <c r="AM6" s="1">
-        <v>-88.181300</v>
+        <v>-88.181299999999993</v>
       </c>
       <c r="AN6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO6" s="1">
-        <v>46889.621366</v>
+        <v>46889.621365999999</v>
       </c>
       <c r="AP6" s="1">
-        <v>13.024895</v>
+        <v>13.024895000000001</v>
       </c>
       <c r="AQ6" s="1">
-        <v>987.199000</v>
+        <v>987.19899999999996</v>
       </c>
       <c r="AR6" s="1">
-        <v>-103.297000</v>
+        <v>-103.297</v>
       </c>
       <c r="AS6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT6" s="1">
-        <v>46900.661778</v>
+        <v>46900.661778000002</v>
       </c>
       <c r="AU6" s="1">
         <v>13.027962</v>
       </c>
       <c r="AV6" s="1">
-        <v>998.708000</v>
+        <v>998.70799999999997</v>
       </c>
       <c r="AW6" s="1">
-        <v>-125.037000</v>
+        <v>-125.03700000000001</v>
       </c>
       <c r="AX6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY6" s="1">
-        <v>46911.475557</v>
+        <v>46911.475556999998</v>
       </c>
       <c r="AZ6" s="1">
         <v>13.030965</v>
       </c>
       <c r="BA6" s="1">
-        <v>1008.380000</v>
+        <v>1008.38</v>
       </c>
       <c r="BB6" s="1">
-        <v>-143.965000</v>
+        <v>-143.965</v>
       </c>
       <c r="BC6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD6" s="1">
         <v>46922.445086</v>
@@ -1674,377 +2090,377 @@
         <v>13.034013</v>
       </c>
       <c r="BF6" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG6" s="1">
-        <v>-229.535000</v>
+        <v>-229.535</v>
       </c>
       <c r="BH6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI6" s="1">
         <v>46932.806009</v>
       </c>
       <c r="BJ6" s="1">
-        <v>13.036891</v>
+        <v>13.036891000000001</v>
       </c>
       <c r="BK6" s="1">
-        <v>1133.610000</v>
+        <v>1133.6099999999999</v>
       </c>
       <c r="BL6" s="1">
-        <v>-367.048000</v>
+        <v>-367.048</v>
       </c>
       <c r="BM6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN6" s="1">
-        <v>46944.398010</v>
+        <v>46944.398009999997</v>
       </c>
       <c r="BO6" s="1">
         <v>13.040111</v>
       </c>
       <c r="BP6" s="1">
-        <v>1265.530000</v>
+        <v>1265.53</v>
       </c>
       <c r="BQ6" s="1">
-        <v>-580.098000</v>
+        <v>-580.09799999999996</v>
       </c>
       <c r="BR6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS6" s="1">
-        <v>46954.813498</v>
+        <v>46954.813498000003</v>
       </c>
       <c r="BT6" s="1">
         <v>13.043004</v>
       </c>
       <c r="BU6" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="BV6" s="1">
-        <v>-808.040000</v>
+        <v>-808.04</v>
       </c>
       <c r="BW6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX6" s="1">
         <v>46966.035484</v>
       </c>
       <c r="BY6" s="1">
-        <v>13.046121</v>
+        <v>13.046120999999999</v>
       </c>
       <c r="BZ6" s="1">
-        <v>1577.110000</v>
+        <v>1577.11</v>
       </c>
       <c r="CA6" s="1">
-        <v>-1046.730000</v>
+        <v>-1046.73</v>
       </c>
       <c r="CB6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC6" s="1">
-        <v>46977.476733</v>
+        <v>46977.476733000003</v>
       </c>
       <c r="CD6" s="1">
         <v>13.049299</v>
       </c>
       <c r="CE6" s="1">
-        <v>1991.590000</v>
+        <v>1991.59</v>
       </c>
       <c r="CF6" s="1">
-        <v>-1604.820000</v>
+        <v>-1604.82</v>
       </c>
       <c r="CG6" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="7">
+    <row r="7" spans="1:85">
       <c r="A7" s="1">
-        <v>46805.302928</v>
+        <v>46805.302927999997</v>
       </c>
       <c r="B7" s="1">
-        <v>13.001473</v>
+        <v>13.001473000000001</v>
       </c>
       <c r="C7" s="1">
-        <v>901.994000</v>
+        <v>901.99400000000003</v>
       </c>
       <c r="D7" s="1">
-        <v>-180.003000</v>
+        <v>-180.00299999999999</v>
       </c>
       <c r="E7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F7" s="1">
         <v>46815.717955</v>
       </c>
       <c r="G7" s="1">
-        <v>13.004366</v>
+        <v>13.004365999999999</v>
       </c>
       <c r="H7" s="1">
-        <v>917.564000</v>
+        <v>917.56399999999996</v>
       </c>
       <c r="I7" s="1">
-        <v>-155.725000</v>
+        <v>-155.72499999999999</v>
       </c>
       <c r="J7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K7" s="1">
-        <v>46826.481637</v>
+        <v>46826.481636999997</v>
       </c>
       <c r="L7" s="1">
         <v>13.007356</v>
       </c>
       <c r="M7" s="1">
-        <v>940.970000</v>
+        <v>940.97</v>
       </c>
       <c r="N7" s="1">
-        <v>-115.101000</v>
+        <v>-115.101</v>
       </c>
       <c r="O7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P7" s="1">
-        <v>46836.996790</v>
+        <v>46836.996789999997</v>
       </c>
       <c r="Q7" s="1">
         <v>13.010277</v>
       </c>
       <c r="R7" s="1">
-        <v>948.426000</v>
+        <v>948.42600000000004</v>
       </c>
       <c r="S7" s="1">
-        <v>-101.423000</v>
+        <v>-101.423</v>
       </c>
       <c r="T7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U7" s="1">
-        <v>46847.565086</v>
+        <v>46847.565086000002</v>
       </c>
       <c r="V7" s="1">
         <v>13.013213</v>
       </c>
       <c r="W7" s="1">
-        <v>956.006000</v>
+        <v>956.00599999999997</v>
       </c>
       <c r="X7" s="1">
-        <v>-88.967100</v>
+        <v>-88.967100000000002</v>
       </c>
       <c r="Y7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z7" s="1">
-        <v>46858.053987</v>
+        <v>46858.053986999999</v>
       </c>
       <c r="AA7" s="1">
         <v>13.016126</v>
       </c>
       <c r="AB7" s="1">
-        <v>964.155000</v>
+        <v>964.15499999999997</v>
       </c>
       <c r="AC7" s="1">
-        <v>-80.266700</v>
+        <v>-80.2667</v>
       </c>
       <c r="AD7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE7" s="1">
-        <v>46868.867245</v>
+        <v>46868.867245000001</v>
       </c>
       <c r="AF7" s="1">
-        <v>13.019130</v>
+        <v>13.019130000000001</v>
       </c>
       <c r="AG7" s="1">
-        <v>969.490000</v>
+        <v>969.49</v>
       </c>
       <c r="AH7" s="1">
-        <v>-80.171300</v>
+        <v>-80.171300000000002</v>
       </c>
       <c r="AI7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ7" s="1">
-        <v>46879.340750</v>
+        <v>46879.340750000003</v>
       </c>
       <c r="AK7" s="1">
-        <v>13.022039</v>
+        <v>13.022038999999999</v>
       </c>
       <c r="AL7" s="1">
-        <v>977.837000</v>
+        <v>977.83699999999999</v>
       </c>
       <c r="AM7" s="1">
-        <v>-88.193900</v>
+        <v>-88.193899999999999</v>
       </c>
       <c r="AN7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO7" s="1">
-        <v>46889.980929</v>
+        <v>46889.980928999998</v>
       </c>
       <c r="AP7" s="1">
-        <v>13.024995</v>
+        <v>13.024995000000001</v>
       </c>
       <c r="AQ7" s="1">
-        <v>987.176000</v>
+        <v>987.17600000000004</v>
       </c>
       <c r="AR7" s="1">
-        <v>-103.310000</v>
+        <v>-103.31</v>
       </c>
       <c r="AS7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT7" s="1">
-        <v>46901.078450</v>
+        <v>46901.078450000001</v>
       </c>
       <c r="AU7" s="1">
         <v>13.028077</v>
       </c>
       <c r="AV7" s="1">
-        <v>998.702000</v>
+        <v>998.702</v>
       </c>
       <c r="AW7" s="1">
-        <v>-125.046000</v>
+        <v>-125.04600000000001</v>
       </c>
       <c r="AX7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY7" s="1">
-        <v>46911.755332</v>
+        <v>46911.755332000001</v>
       </c>
       <c r="AZ7" s="1">
         <v>13.031043</v>
       </c>
       <c r="BA7" s="1">
-        <v>1008.380000</v>
+        <v>1008.38</v>
       </c>
       <c r="BB7" s="1">
-        <v>-143.963000</v>
+        <v>-143.96299999999999</v>
       </c>
       <c r="BC7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD7" s="1">
-        <v>46922.737719</v>
+        <v>46922.737718999997</v>
       </c>
       <c r="BE7" s="1">
         <v>13.034094</v>
       </c>
       <c r="BF7" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG7" s="1">
-        <v>-229.545000</v>
+        <v>-229.54499999999999</v>
       </c>
       <c r="BH7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI7" s="1">
-        <v>46933.179992</v>
+        <v>46933.179991999998</v>
       </c>
       <c r="BJ7" s="1">
         <v>13.036994</v>
       </c>
       <c r="BK7" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL7" s="1">
-        <v>-367.023000</v>
+        <v>-367.02300000000002</v>
       </c>
       <c r="BM7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN7" s="1">
-        <v>46944.794809</v>
+        <v>46944.794808999999</v>
       </c>
       <c r="BO7" s="1">
-        <v>13.040221</v>
+        <v>13.040221000000001</v>
       </c>
       <c r="BP7" s="1">
-        <v>1265.510000</v>
+        <v>1265.51</v>
       </c>
       <c r="BQ7" s="1">
-        <v>-580.106000</v>
+        <v>-580.10599999999999</v>
       </c>
       <c r="BR7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS7" s="1">
-        <v>46955.242074</v>
+        <v>46955.242074000002</v>
       </c>
       <c r="BT7" s="1">
         <v>13.043123</v>
       </c>
       <c r="BU7" s="1">
-        <v>1414.250000</v>
+        <v>1414.25</v>
       </c>
       <c r="BV7" s="1">
-        <v>-808.042000</v>
+        <v>-808.04200000000003</v>
       </c>
       <c r="BW7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX7" s="1">
-        <v>46966.466544</v>
+        <v>46966.466544000003</v>
       </c>
       <c r="BY7" s="1">
         <v>13.046241</v>
       </c>
       <c r="BZ7" s="1">
-        <v>1577.130000</v>
+        <v>1577.13</v>
       </c>
       <c r="CA7" s="1">
-        <v>-1046.700000</v>
+        <v>-1046.7</v>
       </c>
       <c r="CB7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC7" s="1">
-        <v>46977.997004</v>
+        <v>46977.997003999997</v>
       </c>
       <c r="CD7" s="1">
-        <v>13.049444</v>
+        <v>13.049443999999999</v>
       </c>
       <c r="CE7" s="1">
-        <v>1991.290000</v>
+        <v>1991.29</v>
       </c>
       <c r="CF7" s="1">
-        <v>-1605.600000</v>
+        <v>-1605.6</v>
       </c>
       <c r="CG7" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="8">
+    <row r="8" spans="1:85">
       <c r="A8" s="1">
-        <v>46805.648176</v>
+        <v>46805.648176000002</v>
       </c>
       <c r="B8" s="1">
         <v>13.001569</v>
       </c>
       <c r="C8" s="1">
-        <v>901.860000</v>
+        <v>901.86</v>
       </c>
       <c r="D8" s="1">
-        <v>-180.083000</v>
+        <v>-180.083</v>
       </c>
       <c r="E8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F8" s="1">
-        <v>46816.367682</v>
+        <v>46816.367681999996</v>
       </c>
       <c r="G8" s="1">
-        <v>13.004547</v>
+        <v>13.004547000000001</v>
       </c>
       <c r="H8" s="1">
-        <v>917.605000</v>
+        <v>917.60500000000002</v>
       </c>
       <c r="I8" s="1">
-        <v>-155.348000</v>
+        <v>-155.34800000000001</v>
       </c>
       <c r="J8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K8" s="1">
         <v>46826.863029</v>
@@ -2053,58 +2469,58 @@
         <v>13.007462</v>
       </c>
       <c r="M8" s="1">
-        <v>940.794000</v>
+        <v>940.79399999999998</v>
       </c>
       <c r="N8" s="1">
-        <v>-115.088000</v>
+        <v>-115.08799999999999</v>
       </c>
       <c r="O8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P8" s="1">
         <v>46837.387142</v>
       </c>
       <c r="Q8" s="1">
-        <v>13.010385</v>
+        <v>13.010384999999999</v>
       </c>
       <c r="R8" s="1">
-        <v>948.383000</v>
+        <v>948.38300000000004</v>
       </c>
       <c r="S8" s="1">
-        <v>-101.340000</v>
+        <v>-101.34</v>
       </c>
       <c r="T8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U8" s="1">
-        <v>46847.913241</v>
+        <v>46847.913241000002</v>
       </c>
       <c r="V8" s="1">
         <v>13.013309</v>
       </c>
       <c r="W8" s="1">
-        <v>956.014000</v>
+        <v>956.01400000000001</v>
       </c>
       <c r="X8" s="1">
-        <v>-88.899000</v>
+        <v>-88.899000000000001</v>
       </c>
       <c r="Y8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z8" s="1">
-        <v>46858.402171</v>
+        <v>46858.402171000002</v>
       </c>
       <c r="AA8" s="1">
         <v>13.016223</v>
       </c>
       <c r="AB8" s="1">
-        <v>964.103000</v>
+        <v>964.10299999999995</v>
       </c>
       <c r="AC8" s="1">
-        <v>-80.288300</v>
+        <v>-80.288300000000007</v>
       </c>
       <c r="AD8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE8" s="1">
         <v>46869.208972</v>
@@ -2113,195 +2529,195 @@
         <v>13.019225</v>
       </c>
       <c r="AG8" s="1">
-        <v>969.507000</v>
+        <v>969.50699999999995</v>
       </c>
       <c r="AH8" s="1">
-        <v>-80.137600</v>
+        <v>-80.137600000000006</v>
       </c>
       <c r="AI8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ8" s="1">
-        <v>46879.771774</v>
+        <v>46879.771774000001</v>
       </c>
       <c r="AK8" s="1">
         <v>13.022159</v>
       </c>
       <c r="AL8" s="1">
-        <v>977.839000</v>
+        <v>977.83900000000006</v>
       </c>
       <c r="AM8" s="1">
-        <v>-88.187500</v>
+        <v>-88.1875</v>
       </c>
       <c r="AN8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO8" s="1">
-        <v>46890.403524</v>
+        <v>46890.403524000001</v>
       </c>
       <c r="AP8" s="1">
         <v>13.025112</v>
       </c>
       <c r="AQ8" s="1">
-        <v>987.172000</v>
+        <v>987.17200000000003</v>
       </c>
       <c r="AR8" s="1">
-        <v>-103.302000</v>
+        <v>-103.30200000000001</v>
       </c>
       <c r="AS8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT8" s="1">
-        <v>46901.391891</v>
+        <v>46901.391890999999</v>
       </c>
       <c r="AU8" s="1">
         <v>13.028164</v>
       </c>
       <c r="AV8" s="1">
-        <v>998.705000</v>
+        <v>998.70500000000004</v>
       </c>
       <c r="AW8" s="1">
-        <v>-125.044000</v>
+        <v>-125.044</v>
       </c>
       <c r="AX8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY8" s="1">
-        <v>46912.113443</v>
+        <v>46912.113443000002</v>
       </c>
       <c r="AZ8" s="1">
         <v>13.031143</v>
       </c>
       <c r="BA8" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB8" s="1">
-        <v>-143.970000</v>
+        <v>-143.97</v>
       </c>
       <c r="BC8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD8" s="1">
-        <v>46923.101285</v>
+        <v>46923.101284999997</v>
       </c>
       <c r="BE8" s="1">
         <v>13.034195</v>
       </c>
       <c r="BF8" s="1">
-        <v>1053.900000</v>
+        <v>1053.9000000000001</v>
       </c>
       <c r="BG8" s="1">
-        <v>-229.515000</v>
+        <v>-229.51499999999999</v>
       </c>
       <c r="BH8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI8" s="1">
-        <v>46933.555501</v>
+        <v>46933.555501000003</v>
       </c>
       <c r="BJ8" s="1">
         <v>13.037099</v>
       </c>
       <c r="BK8" s="1">
-        <v>1133.620000</v>
+        <v>1133.6199999999999</v>
       </c>
       <c r="BL8" s="1">
-        <v>-367.030000</v>
+        <v>-367.03</v>
       </c>
       <c r="BM8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN8" s="1">
-        <v>46945.216905</v>
+        <v>46945.216905000001</v>
       </c>
       <c r="BO8" s="1">
         <v>13.040338</v>
       </c>
       <c r="BP8" s="1">
-        <v>1265.580000</v>
+        <v>1265.58</v>
       </c>
       <c r="BQ8" s="1">
-        <v>-580.117000</v>
+        <v>-580.11699999999996</v>
       </c>
       <c r="BR8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS8" s="1">
-        <v>46955.661163</v>
+        <v>46955.661162999997</v>
       </c>
       <c r="BT8" s="1">
         <v>13.043239</v>
       </c>
       <c r="BU8" s="1">
-        <v>1414.180000</v>
+        <v>1414.18</v>
       </c>
       <c r="BV8" s="1">
-        <v>-808.019000</v>
+        <v>-808.01900000000001</v>
       </c>
       <c r="BW8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX8" s="1">
-        <v>46966.883675</v>
+        <v>46966.883674999997</v>
       </c>
       <c r="BY8" s="1">
         <v>13.046357</v>
       </c>
       <c r="BZ8" s="1">
-        <v>1577.090000</v>
+        <v>1577.09</v>
       </c>
       <c r="CA8" s="1">
-        <v>-1046.660000</v>
+        <v>-1046.6600000000001</v>
       </c>
       <c r="CB8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC8" s="1">
-        <v>46978.545087</v>
+        <v>46978.545086999999</v>
       </c>
       <c r="CD8" s="1">
-        <v>13.049596</v>
+        <v>13.049595999999999</v>
       </c>
       <c r="CE8" s="1">
-        <v>1990.390000</v>
+        <v>1990.39</v>
       </c>
       <c r="CF8" s="1">
-        <v>-1605.850000</v>
+        <v>-1605.85</v>
       </c>
       <c r="CG8" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="9">
+    <row r="9" spans="1:85">
       <c r="A9" s="1">
-        <v>46806.306348</v>
+        <v>46806.306347999998</v>
       </c>
       <c r="B9" s="1">
         <v>13.001752</v>
       </c>
       <c r="C9" s="1">
-        <v>901.779000</v>
+        <v>901.779</v>
       </c>
       <c r="D9" s="1">
-        <v>-179.929000</v>
+        <v>-179.929</v>
       </c>
       <c r="E9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F9" s="1">
-        <v>46816.750099</v>
+        <v>46816.750098999997</v>
       </c>
       <c r="G9" s="1">
-        <v>13.004653</v>
+        <v>13.004652999999999</v>
       </c>
       <c r="H9" s="1">
-        <v>916.968000</v>
+        <v>916.96799999999996</v>
       </c>
       <c r="I9" s="1">
-        <v>-154.990000</v>
+        <v>-154.99</v>
       </c>
       <c r="J9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K9" s="1">
         <v>46827.204308</v>
@@ -2310,208 +2726,208 @@
         <v>13.007557</v>
       </c>
       <c r="M9" s="1">
-        <v>940.911000</v>
+        <v>940.91099999999994</v>
       </c>
       <c r="N9" s="1">
-        <v>-115.072000</v>
+        <v>-115.072</v>
       </c>
       <c r="O9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P9" s="1">
-        <v>46837.736359</v>
+        <v>46837.736359000002</v>
       </c>
       <c r="Q9" s="1">
         <v>13.010482</v>
       </c>
       <c r="R9" s="1">
-        <v>948.427000</v>
+        <v>948.42700000000002</v>
       </c>
       <c r="S9" s="1">
-        <v>-101.363000</v>
+        <v>-101.363</v>
       </c>
       <c r="T9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U9" s="1">
         <v>46848.257478</v>
       </c>
       <c r="V9" s="1">
-        <v>13.013405</v>
+        <v>13.013405000000001</v>
       </c>
       <c r="W9" s="1">
-        <v>955.991000</v>
+        <v>955.99099999999999</v>
       </c>
       <c r="X9" s="1">
-        <v>-88.941900</v>
+        <v>-88.941900000000004</v>
       </c>
       <c r="Y9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z9" s="1">
-        <v>46858.751830</v>
+        <v>46858.751830000001</v>
       </c>
       <c r="AA9" s="1">
-        <v>13.016320</v>
+        <v>13.01632</v>
       </c>
       <c r="AB9" s="1">
-        <v>964.155000</v>
+        <v>964.15499999999997</v>
       </c>
       <c r="AC9" s="1">
-        <v>-80.316000</v>
+        <v>-80.316000000000003</v>
       </c>
       <c r="AD9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE9" s="1">
-        <v>46869.628132</v>
+        <v>46869.628131999998</v>
       </c>
       <c r="AF9" s="1">
-        <v>13.019341</v>
+        <v>13.019341000000001</v>
       </c>
       <c r="AG9" s="1">
-        <v>969.485000</v>
+        <v>969.48500000000001</v>
       </c>
       <c r="AH9" s="1">
-        <v>-80.189100</v>
+        <v>-80.189099999999996</v>
       </c>
       <c r="AI9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ9" s="1">
-        <v>46880.038655</v>
+        <v>46880.038654999997</v>
       </c>
       <c r="AK9" s="1">
         <v>13.022233</v>
       </c>
       <c r="AL9" s="1">
-        <v>977.831000</v>
+        <v>977.83100000000002</v>
       </c>
       <c r="AM9" s="1">
-        <v>-88.187700</v>
+        <v>-88.187700000000007</v>
       </c>
       <c r="AN9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO9" s="1">
-        <v>46890.700624</v>
+        <v>46890.700623999997</v>
       </c>
       <c r="AP9" s="1">
         <v>13.025195</v>
       </c>
       <c r="AQ9" s="1">
-        <v>987.215000</v>
+        <v>987.21500000000003</v>
       </c>
       <c r="AR9" s="1">
-        <v>-103.291000</v>
+        <v>-103.291</v>
       </c>
       <c r="AS9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT9" s="1">
-        <v>46901.758434</v>
+        <v>46901.758434000003</v>
       </c>
       <c r="AU9" s="1">
         <v>13.028266</v>
       </c>
       <c r="AV9" s="1">
-        <v>998.715000</v>
+        <v>998.71500000000003</v>
       </c>
       <c r="AW9" s="1">
-        <v>-125.047000</v>
+        <v>-125.047</v>
       </c>
       <c r="AX9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY9" s="1">
-        <v>46912.473507</v>
+        <v>46912.473507000002</v>
       </c>
       <c r="AZ9" s="1">
         <v>13.031243</v>
       </c>
       <c r="BA9" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB9" s="1">
-        <v>-143.998000</v>
+        <v>-143.99799999999999</v>
       </c>
       <c r="BC9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD9" s="1">
-        <v>46923.461876</v>
+        <v>46923.461876000001</v>
       </c>
       <c r="BE9" s="1">
         <v>13.034295</v>
       </c>
       <c r="BF9" s="1">
-        <v>1053.890000</v>
+        <v>1053.8900000000001</v>
       </c>
       <c r="BG9" s="1">
-        <v>-229.526000</v>
+        <v>-229.52600000000001</v>
       </c>
       <c r="BH9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI9" s="1">
-        <v>46934.331207</v>
+        <v>46934.331207000003</v>
       </c>
       <c r="BJ9" s="1">
         <v>13.037314</v>
       </c>
       <c r="BK9" s="1">
-        <v>1133.600000</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="BL9" s="1">
-        <v>-367.038000</v>
+        <v>-367.03800000000001</v>
       </c>
       <c r="BM9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN9" s="1">
-        <v>46945.612743</v>
+        <v>46945.612742999998</v>
       </c>
       <c r="BO9" s="1">
         <v>13.040448</v>
       </c>
       <c r="BP9" s="1">
-        <v>1265.550000</v>
+        <v>1265.55</v>
       </c>
       <c r="BQ9" s="1">
-        <v>-580.098000</v>
+        <v>-580.09799999999996</v>
       </c>
       <c r="BR9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS9" s="1">
-        <v>46956.086729</v>
+        <v>46956.086729000002</v>
       </c>
       <c r="BT9" s="1">
         <v>13.043357</v>
       </c>
       <c r="BU9" s="1">
-        <v>1414.170000</v>
+        <v>1414.17</v>
       </c>
       <c r="BV9" s="1">
-        <v>-807.926000</v>
+        <v>-807.92600000000004</v>
       </c>
       <c r="BW9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX9" s="1">
-        <v>46967.301276</v>
+        <v>46967.301275999998</v>
       </c>
       <c r="BY9" s="1">
-        <v>13.046473</v>
+        <v>13.046473000000001</v>
       </c>
       <c r="BZ9" s="1">
-        <v>1577.050000</v>
+        <v>1577.05</v>
       </c>
       <c r="CA9" s="1">
-        <v>-1046.800000</v>
+        <v>-1046.8</v>
       </c>
       <c r="CB9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC9" s="1">
         <v>46979.394731</v>
@@ -2520,497 +2936,497 @@
         <v>13.049832</v>
       </c>
       <c r="CE9" s="1">
-        <v>1991.850000</v>
+        <v>1991.85</v>
       </c>
       <c r="CF9" s="1">
-        <v>-1604.780000</v>
+        <v>-1604.78</v>
       </c>
       <c r="CG9" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="10">
+    <row r="10" spans="1:85">
       <c r="A10" s="1">
-        <v>46806.679327</v>
+        <v>46806.679326999998</v>
       </c>
       <c r="B10" s="1">
-        <v>13.001855</v>
+        <v>13.001855000000001</v>
       </c>
       <c r="C10" s="1">
-        <v>901.741000</v>
+        <v>901.74099999999999</v>
       </c>
       <c r="D10" s="1">
-        <v>-179.985000</v>
+        <v>-179.98500000000001</v>
       </c>
       <c r="E10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F10" s="1">
-        <v>46817.094323</v>
+        <v>46817.094322999998</v>
       </c>
       <c r="G10" s="1">
-        <v>13.004748</v>
+        <v>13.004747999999999</v>
       </c>
       <c r="H10" s="1">
-        <v>917.366000</v>
+        <v>917.36599999999999</v>
       </c>
       <c r="I10" s="1">
-        <v>-155.671000</v>
+        <v>-155.67099999999999</v>
       </c>
       <c r="J10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K10" s="1">
         <v>46827.551475</v>
       </c>
       <c r="L10" s="1">
-        <v>13.007653</v>
+        <v>13.007652999999999</v>
       </c>
       <c r="M10" s="1">
-        <v>940.818000</v>
+        <v>940.81799999999998</v>
       </c>
       <c r="N10" s="1">
-        <v>-115.058000</v>
+        <v>-115.05800000000001</v>
       </c>
       <c r="O10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P10" s="1">
-        <v>46838.084517</v>
+        <v>46838.084517000003</v>
       </c>
       <c r="Q10" s="1">
         <v>13.010579</v>
       </c>
       <c r="R10" s="1">
-        <v>948.440000</v>
+        <v>948.44</v>
       </c>
       <c r="S10" s="1">
-        <v>-101.372000</v>
+        <v>-101.372</v>
       </c>
       <c r="T10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U10" s="1">
-        <v>46848.677079</v>
+        <v>46848.677079000001</v>
       </c>
       <c r="V10" s="1">
-        <v>13.013521</v>
+        <v>13.013521000000001</v>
       </c>
       <c r="W10" s="1">
-        <v>955.921000</v>
+        <v>955.92100000000005</v>
       </c>
       <c r="X10" s="1">
-        <v>-88.869800</v>
+        <v>-88.869799999999998</v>
       </c>
       <c r="Y10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z10" s="1">
-        <v>46859.445722</v>
+        <v>46859.445721999997</v>
       </c>
       <c r="AA10" s="1">
         <v>13.016513</v>
       </c>
       <c r="AB10" s="1">
-        <v>964.121000</v>
+        <v>964.12099999999998</v>
       </c>
       <c r="AC10" s="1">
-        <v>-80.326500</v>
+        <v>-80.326499999999996</v>
       </c>
       <c r="AD10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE10" s="1">
-        <v>46869.904859</v>
+        <v>46869.904859000002</v>
       </c>
       <c r="AF10" s="1">
         <v>13.019418</v>
       </c>
       <c r="AG10" s="1">
-        <v>969.570000</v>
+        <v>969.57</v>
       </c>
       <c r="AH10" s="1">
-        <v>-80.125000</v>
+        <v>-80.125</v>
       </c>
       <c r="AI10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ10" s="1">
         <v>46880.388797</v>
       </c>
       <c r="AK10" s="1">
-        <v>13.022330</v>
+        <v>13.02233</v>
       </c>
       <c r="AL10" s="1">
-        <v>977.816000</v>
+        <v>977.81600000000003</v>
       </c>
       <c r="AM10" s="1">
-        <v>-88.181200</v>
+        <v>-88.181200000000004</v>
       </c>
       <c r="AN10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO10" s="1">
-        <v>46891.061711</v>
+        <v>46891.061711000002</v>
       </c>
       <c r="AP10" s="1">
         <v>13.025295</v>
       </c>
       <c r="AQ10" s="1">
-        <v>987.215000</v>
+        <v>987.21500000000003</v>
       </c>
       <c r="AR10" s="1">
-        <v>-103.302000</v>
+        <v>-103.30200000000001</v>
       </c>
       <c r="AS10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT10" s="1">
-        <v>46902.122535</v>
+        <v>46902.122535000002</v>
       </c>
       <c r="AU10" s="1">
-        <v>13.028367</v>
+        <v>13.028366999999999</v>
       </c>
       <c r="AV10" s="1">
-        <v>998.694000</v>
+        <v>998.69399999999996</v>
       </c>
       <c r="AW10" s="1">
-        <v>-125.048000</v>
+        <v>-125.048</v>
       </c>
       <c r="AX10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY10" s="1">
-        <v>46913.189730</v>
+        <v>46913.189729999998</v>
       </c>
       <c r="AZ10" s="1">
         <v>13.031442</v>
       </c>
       <c r="BA10" s="1">
-        <v>1008.390000</v>
+        <v>1008.39</v>
       </c>
       <c r="BB10" s="1">
-        <v>-143.988000</v>
+        <v>-143.988</v>
       </c>
       <c r="BC10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD10" s="1">
-        <v>46924.186073</v>
+        <v>46924.186072999997</v>
       </c>
       <c r="BE10" s="1">
-        <v>13.034496</v>
+        <v>13.034496000000001</v>
       </c>
       <c r="BF10" s="1">
-        <v>1053.900000</v>
+        <v>1053.9000000000001</v>
       </c>
       <c r="BG10" s="1">
-        <v>-229.545000</v>
+        <v>-229.54499999999999</v>
       </c>
       <c r="BH10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI10" s="1">
-        <v>46934.704197</v>
+        <v>46934.704196999999</v>
       </c>
       <c r="BJ10" s="1">
-        <v>13.037418</v>
+        <v>13.037418000000001</v>
       </c>
       <c r="BK10" s="1">
-        <v>1133.620000</v>
+        <v>1133.6199999999999</v>
       </c>
       <c r="BL10" s="1">
-        <v>-367.044000</v>
+        <v>-367.04399999999998</v>
       </c>
       <c r="BM10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN10" s="1">
         <v>46946.034838</v>
       </c>
       <c r="BO10" s="1">
-        <v>13.040565</v>
+        <v>13.040565000000001</v>
       </c>
       <c r="BP10" s="1">
-        <v>1265.560000</v>
+        <v>1265.56</v>
       </c>
       <c r="BQ10" s="1">
-        <v>-580.106000</v>
+        <v>-580.10599999999999</v>
       </c>
       <c r="BR10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS10" s="1">
-        <v>46956.514778</v>
+        <v>46956.514777999997</v>
       </c>
       <c r="BT10" s="1">
         <v>13.043476</v>
       </c>
       <c r="BU10" s="1">
-        <v>1414.150000</v>
+        <v>1414.15</v>
       </c>
       <c r="BV10" s="1">
-        <v>-807.867000</v>
+        <v>-807.86699999999996</v>
       </c>
       <c r="BW10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX10" s="1">
-        <v>46968.054234</v>
+        <v>46968.054234000003</v>
       </c>
       <c r="BY10" s="1">
-        <v>13.046682</v>
+        <v>13.046682000000001</v>
       </c>
       <c r="BZ10" s="1">
-        <v>1577.190000</v>
+        <v>1577.19</v>
       </c>
       <c r="CA10" s="1">
-        <v>-1046.770000</v>
+        <v>-1046.77</v>
       </c>
       <c r="CB10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC10" s="1">
-        <v>46979.627851</v>
+        <v>46979.627850999997</v>
       </c>
       <c r="CD10" s="1">
         <v>13.049897</v>
       </c>
       <c r="CE10" s="1">
-        <v>1989.680000</v>
+        <v>1989.68</v>
       </c>
       <c r="CF10" s="1">
-        <v>-1603.740000</v>
+        <v>-1603.74</v>
       </c>
       <c r="CG10" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="11">
+    <row r="11" spans="1:85">
       <c r="A11" s="1">
-        <v>46807.022558</v>
+        <v>46807.022557999997</v>
       </c>
       <c r="B11" s="1">
         <v>13.001951</v>
       </c>
       <c r="C11" s="1">
-        <v>901.796000</v>
+        <v>901.79600000000005</v>
       </c>
       <c r="D11" s="1">
-        <v>-179.898000</v>
+        <v>-179.898</v>
       </c>
       <c r="E11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F11" s="1">
-        <v>46817.439538</v>
+        <v>46817.439537999999</v>
       </c>
       <c r="G11" s="1">
         <v>13.004844</v>
       </c>
       <c r="H11" s="1">
-        <v>917.603000</v>
+        <v>917.60299999999995</v>
       </c>
       <c r="I11" s="1">
-        <v>-155.025000</v>
+        <v>-155.02500000000001</v>
       </c>
       <c r="J11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K11" s="1">
-        <v>46827.975905</v>
+        <v>46827.975904999999</v>
       </c>
       <c r="L11" s="1">
         <v>13.007771</v>
       </c>
       <c r="M11" s="1">
-        <v>940.935000</v>
+        <v>940.93499999999995</v>
       </c>
       <c r="N11" s="1">
-        <v>-115.130000</v>
+        <v>-115.13</v>
       </c>
       <c r="O11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P11" s="1">
-        <v>46838.512105</v>
+        <v>46838.512105000002</v>
       </c>
       <c r="Q11" s="1">
         <v>13.010698</v>
       </c>
       <c r="R11" s="1">
-        <v>948.445000</v>
+        <v>948.44500000000005</v>
       </c>
       <c r="S11" s="1">
-        <v>-101.411000</v>
+        <v>-101.411</v>
       </c>
       <c r="T11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U11" s="1">
-        <v>46848.955831</v>
+        <v>46848.955830999999</v>
       </c>
       <c r="V11" s="1">
-        <v>13.013599</v>
+        <v>13.013598999999999</v>
       </c>
       <c r="W11" s="1">
-        <v>955.926000</v>
+        <v>955.92600000000004</v>
       </c>
       <c r="X11" s="1">
-        <v>-88.879200</v>
+        <v>-88.879199999999997</v>
       </c>
       <c r="Y11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z11" s="1">
-        <v>46859.796890</v>
+        <v>46859.796889999998</v>
       </c>
       <c r="AA11" s="1">
-        <v>13.016610</v>
+        <v>13.01661</v>
       </c>
       <c r="AB11" s="1">
-        <v>964.197000</v>
+        <v>964.197</v>
       </c>
       <c r="AC11" s="1">
-        <v>-80.313600</v>
+        <v>-80.313599999999994</v>
       </c>
       <c r="AD11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE11" s="1">
-        <v>46870.246139</v>
+        <v>46870.246139000003</v>
       </c>
       <c r="AF11" s="1">
         <v>13.019513</v>
       </c>
       <c r="AG11" s="1">
-        <v>969.543000</v>
+        <v>969.54300000000001</v>
       </c>
       <c r="AH11" s="1">
-        <v>-80.132200</v>
+        <v>-80.132199999999997</v>
       </c>
       <c r="AI11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ11" s="1">
-        <v>46880.737493</v>
+        <v>46880.737493000001</v>
       </c>
       <c r="AK11" s="1">
         <v>13.022427</v>
       </c>
       <c r="AL11" s="1">
-        <v>977.845000</v>
+        <v>977.84500000000003</v>
       </c>
       <c r="AM11" s="1">
-        <v>-88.188300</v>
+        <v>-88.188299999999998</v>
       </c>
       <c r="AN11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO11" s="1">
-        <v>46891.421808</v>
+        <v>46891.421807999999</v>
       </c>
       <c r="AP11" s="1">
         <v>13.025395</v>
       </c>
       <c r="AQ11" s="1">
-        <v>987.204000</v>
+        <v>987.20399999999995</v>
       </c>
       <c r="AR11" s="1">
-        <v>-103.298000</v>
+        <v>-103.298</v>
       </c>
       <c r="AS11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT11" s="1">
-        <v>46902.864543</v>
+        <v>46902.864543000003</v>
       </c>
       <c r="AU11" s="1">
         <v>13.028573</v>
       </c>
       <c r="AV11" s="1">
-        <v>998.685000</v>
+        <v>998.68499999999995</v>
       </c>
       <c r="AW11" s="1">
-        <v>-125.068000</v>
+        <v>-125.068</v>
       </c>
       <c r="AX11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY11" s="1">
-        <v>46913.548368</v>
+        <v>46913.548368000003</v>
       </c>
       <c r="AZ11" s="1">
-        <v>13.031541</v>
+        <v>13.031541000000001</v>
       </c>
       <c r="BA11" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB11" s="1">
-        <v>-143.975000</v>
+        <v>-143.97499999999999</v>
       </c>
       <c r="BC11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD11" s="1">
-        <v>46924.576884</v>
+        <v>46924.576884000002</v>
       </c>
       <c r="BE11" s="1">
-        <v>13.034605</v>
+        <v>13.034605000000001</v>
       </c>
       <c r="BF11" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG11" s="1">
-        <v>-229.532000</v>
+        <v>-229.53200000000001</v>
       </c>
       <c r="BH11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI11" s="1">
-        <v>46935.082162</v>
+        <v>46935.082161999999</v>
       </c>
       <c r="BJ11" s="1">
         <v>13.037523</v>
       </c>
       <c r="BK11" s="1">
-        <v>1133.600000</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="BL11" s="1">
-        <v>-367.021000</v>
+        <v>-367.02100000000002</v>
       </c>
       <c r="BM11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN11" s="1">
         <v>46946.741638</v>
       </c>
       <c r="BO11" s="1">
-        <v>13.040762</v>
+        <v>13.040762000000001</v>
       </c>
       <c r="BP11" s="1">
-        <v>1265.560000</v>
+        <v>1265.56</v>
       </c>
       <c r="BQ11" s="1">
-        <v>-580.105000</v>
+        <v>-580.10500000000002</v>
       </c>
       <c r="BR11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS11" s="1">
-        <v>46957.258779</v>
+        <v>46957.258779000003</v>
       </c>
       <c r="BT11" s="1">
         <v>13.043683</v>
       </c>
       <c r="BU11" s="1">
-        <v>1414.040000</v>
+        <v>1414.04</v>
       </c>
       <c r="BV11" s="1">
-        <v>-807.905000</v>
+        <v>-807.90499999999997</v>
       </c>
       <c r="BW11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX11" s="1">
         <v>46968.195561</v>
@@ -3019,240 +3435,240 @@
         <v>13.046721</v>
       </c>
       <c r="BZ11" s="1">
-        <v>1577.100000</v>
+        <v>1577.1</v>
       </c>
       <c r="CA11" s="1">
-        <v>-1046.640000</v>
+        <v>-1046.6400000000001</v>
       </c>
       <c r="CB11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC11" s="1">
-        <v>46980.160058</v>
+        <v>46980.160058000001</v>
       </c>
       <c r="CD11" s="1">
         <v>13.050044</v>
       </c>
       <c r="CE11" s="1">
-        <v>1990.730000</v>
+        <v>1990.73</v>
       </c>
       <c r="CF11" s="1">
-        <v>-1605.850000</v>
+        <v>-1605.85</v>
       </c>
       <c r="CG11" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="12">
+    <row r="12" spans="1:85">
       <c r="A12" s="1">
-        <v>46807.366813</v>
+        <v>46807.366813000001</v>
       </c>
       <c r="B12" s="1">
         <v>13.002046</v>
       </c>
       <c r="C12" s="1">
-        <v>901.714000</v>
+        <v>901.71400000000006</v>
       </c>
       <c r="D12" s="1">
-        <v>-179.973000</v>
+        <v>-179.97300000000001</v>
       </c>
       <c r="E12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F12" s="1">
-        <v>46817.858197</v>
+        <v>46817.858197000001</v>
       </c>
       <c r="G12" s="1">
         <v>13.004961</v>
       </c>
       <c r="H12" s="1">
-        <v>917.966000</v>
+        <v>917.96600000000001</v>
       </c>
       <c r="I12" s="1">
-        <v>-154.827000</v>
+        <v>-154.827</v>
       </c>
       <c r="J12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K12" s="1">
         <v>46828.258276</v>
       </c>
       <c r="L12" s="1">
-        <v>13.007850</v>
+        <v>13.007849999999999</v>
       </c>
       <c r="M12" s="1">
-        <v>941.006000</v>
+        <v>941.00599999999997</v>
       </c>
       <c r="N12" s="1">
-        <v>-115.207000</v>
+        <v>-115.20699999999999</v>
       </c>
       <c r="O12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P12" s="1">
         <v>46838.788836</v>
       </c>
       <c r="Q12" s="1">
-        <v>13.010775</v>
+        <v>13.010775000000001</v>
       </c>
       <c r="R12" s="1">
-        <v>948.405000</v>
+        <v>948.40499999999997</v>
       </c>
       <c r="S12" s="1">
-        <v>-101.433000</v>
+        <v>-101.43300000000001</v>
       </c>
       <c r="T12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U12" s="1">
-        <v>46849.298566</v>
+        <v>46849.298565999998</v>
       </c>
       <c r="V12" s="1">
-        <v>13.013694</v>
+        <v>13.013693999999999</v>
       </c>
       <c r="W12" s="1">
-        <v>955.963000</v>
+        <v>955.96299999999997</v>
       </c>
       <c r="X12" s="1">
-        <v>-88.918800</v>
+        <v>-88.918800000000005</v>
       </c>
       <c r="Y12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z12" s="1">
-        <v>46860.146071</v>
+        <v>46860.146071000003</v>
       </c>
       <c r="AA12" s="1">
         <v>13.016707</v>
       </c>
       <c r="AB12" s="1">
-        <v>964.206000</v>
+        <v>964.20600000000002</v>
       </c>
       <c r="AC12" s="1">
-        <v>-80.334200</v>
+        <v>-80.334199999999996</v>
       </c>
       <c r="AD12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE12" s="1">
-        <v>46870.590362</v>
+        <v>46870.590362000003</v>
       </c>
       <c r="AF12" s="1">
         <v>13.019608</v>
       </c>
       <c r="AG12" s="1">
-        <v>969.539000</v>
+        <v>969.53899999999999</v>
       </c>
       <c r="AH12" s="1">
-        <v>-80.199400</v>
+        <v>-80.199399999999997</v>
       </c>
       <c r="AI12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ12" s="1">
-        <v>46881.433894</v>
+        <v>46881.433894000002</v>
       </c>
       <c r="AK12" s="1">
-        <v>13.022621</v>
+        <v>13.022620999999999</v>
       </c>
       <c r="AL12" s="1">
-        <v>977.830000</v>
+        <v>977.83</v>
       </c>
       <c r="AM12" s="1">
-        <v>-88.204000</v>
+        <v>-88.203999999999994</v>
       </c>
       <c r="AN12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO12" s="1">
-        <v>46892.142010</v>
+        <v>46892.142010000003</v>
       </c>
       <c r="AP12" s="1">
-        <v>13.025595</v>
+        <v>13.025594999999999</v>
       </c>
       <c r="AQ12" s="1">
-        <v>987.231000</v>
+        <v>987.23099999999999</v>
       </c>
       <c r="AR12" s="1">
-        <v>-103.304000</v>
+        <v>-103.304</v>
       </c>
       <c r="AS12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT12" s="1">
-        <v>46903.242464</v>
+        <v>46903.242464000003</v>
       </c>
       <c r="AU12" s="1">
-        <v>13.028678</v>
+        <v>13.028677999999999</v>
       </c>
       <c r="AV12" s="1">
-        <v>998.712000</v>
+        <v>998.71199999999999</v>
       </c>
       <c r="AW12" s="1">
-        <v>-125.032000</v>
+        <v>-125.032</v>
       </c>
       <c r="AX12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY12" s="1">
-        <v>46913.906482</v>
+        <v>46913.906481999999</v>
       </c>
       <c r="AZ12" s="1">
         <v>13.031641</v>
       </c>
       <c r="BA12" s="1">
-        <v>1008.380000</v>
+        <v>1008.38</v>
       </c>
       <c r="BB12" s="1">
-        <v>-143.976000</v>
+        <v>-143.976</v>
       </c>
       <c r="BC12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD12" s="1">
-        <v>46924.935492</v>
+        <v>46924.935491999997</v>
       </c>
       <c r="BE12" s="1">
         <v>13.034704</v>
       </c>
       <c r="BF12" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG12" s="1">
-        <v>-229.544000</v>
+        <v>-229.54400000000001</v>
       </c>
       <c r="BH12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI12" s="1">
-        <v>46935.793015</v>
+        <v>46935.793015000003</v>
       </c>
       <c r="BJ12" s="1">
-        <v>13.037720</v>
+        <v>13.03772</v>
       </c>
       <c r="BK12" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL12" s="1">
-        <v>-367.034000</v>
+        <v>-367.03399999999999</v>
       </c>
       <c r="BM12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN12" s="1">
-        <v>46946.851758</v>
+        <v>46946.851757999997</v>
       </c>
       <c r="BO12" s="1">
         <v>13.040792</v>
       </c>
       <c r="BP12" s="1">
-        <v>1265.550000</v>
+        <v>1265.55</v>
       </c>
       <c r="BQ12" s="1">
-        <v>-580.099000</v>
+        <v>-580.09900000000005</v>
       </c>
       <c r="BR12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS12" s="1">
         <v>46957.377816</v>
@@ -3261,28 +3677,28 @@
         <v>13.043716</v>
       </c>
       <c r="BU12" s="1">
-        <v>1414.050000</v>
+        <v>1414.05</v>
       </c>
       <c r="BV12" s="1">
-        <v>-807.919000</v>
+        <v>-807.91899999999998</v>
       </c>
       <c r="BW12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX12" s="1">
-        <v>46968.622120</v>
+        <v>46968.62212</v>
       </c>
       <c r="BY12" s="1">
         <v>13.046839</v>
       </c>
       <c r="BZ12" s="1">
-        <v>1577.040000</v>
+        <v>1577.04</v>
       </c>
       <c r="CA12" s="1">
-        <v>-1046.650000</v>
+        <v>-1046.6500000000001</v>
       </c>
       <c r="CB12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC12" s="1">
         <v>46980.700696</v>
@@ -3291,120 +3707,120 @@
         <v>13.050195</v>
       </c>
       <c r="CE12" s="1">
-        <v>1990.880000</v>
+        <v>1990.88</v>
       </c>
       <c r="CF12" s="1">
-        <v>-1604.030000</v>
+        <v>-1604.03</v>
       </c>
       <c r="CG12" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="13">
+    <row r="13" spans="1:85">
       <c r="A13" s="1">
-        <v>46807.787921</v>
+        <v>46807.787921000003</v>
       </c>
       <c r="B13" s="1">
-        <v>13.002163</v>
+        <v>13.002162999999999</v>
       </c>
       <c r="C13" s="1">
-        <v>901.771000</v>
+        <v>901.77099999999996</v>
       </c>
       <c r="D13" s="1">
-        <v>-180.018000</v>
+        <v>-180.018</v>
       </c>
       <c r="E13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F13" s="1">
-        <v>46818.147823</v>
+        <v>46818.147822999999</v>
       </c>
       <c r="G13" s="1">
         <v>13.005041</v>
       </c>
       <c r="H13" s="1">
-        <v>917.665000</v>
+        <v>917.66499999999996</v>
       </c>
       <c r="I13" s="1">
-        <v>-155.520000</v>
+        <v>-155.52000000000001</v>
       </c>
       <c r="J13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K13" s="1">
         <v>46828.602993</v>
       </c>
       <c r="L13" s="1">
-        <v>13.007945</v>
+        <v>13.007944999999999</v>
       </c>
       <c r="M13" s="1">
-        <v>941.040000</v>
+        <v>941.04</v>
       </c>
       <c r="N13" s="1">
-        <v>-115.125000</v>
+        <v>-115.125</v>
       </c>
       <c r="O13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P13" s="1">
         <v>46839.132564</v>
       </c>
       <c r="Q13" s="1">
-        <v>13.010870</v>
+        <v>13.010870000000001</v>
       </c>
       <c r="R13" s="1">
-        <v>948.432000</v>
+        <v>948.43200000000002</v>
       </c>
       <c r="S13" s="1">
-        <v>-101.402000</v>
+        <v>-101.402</v>
       </c>
       <c r="T13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U13" s="1">
-        <v>46849.642295</v>
+        <v>46849.642294999998</v>
       </c>
       <c r="V13" s="1">
-        <v>13.013790</v>
+        <v>13.01379</v>
       </c>
       <c r="W13" s="1">
-        <v>955.961000</v>
+        <v>955.96100000000001</v>
       </c>
       <c r="X13" s="1">
-        <v>-89.034100</v>
+        <v>-89.034099999999995</v>
       </c>
       <c r="Y13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z13" s="1">
-        <v>46860.841464</v>
+        <v>46860.841463999997</v>
       </c>
       <c r="AA13" s="1">
-        <v>13.016900</v>
+        <v>13.0169</v>
       </c>
       <c r="AB13" s="1">
-        <v>964.136000</v>
+        <v>964.13599999999997</v>
       </c>
       <c r="AC13" s="1">
-        <v>-80.347000</v>
+        <v>-80.346999999999994</v>
       </c>
       <c r="AD13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE13" s="1">
-        <v>46871.274849</v>
+        <v>46871.274849000001</v>
       </c>
       <c r="AF13" s="1">
-        <v>13.019799</v>
+        <v>13.019799000000001</v>
       </c>
       <c r="AG13" s="1">
-        <v>969.560000</v>
+        <v>969.56</v>
       </c>
       <c r="AH13" s="1">
-        <v>-80.162200</v>
+        <v>-80.162199999999999</v>
       </c>
       <c r="AI13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ13" s="1">
         <v>46881.780606</v>
@@ -3413,195 +3829,195 @@
         <v>13.022717</v>
       </c>
       <c r="AL13" s="1">
-        <v>977.847000</v>
+        <v>977.84699999999998</v>
       </c>
       <c r="AM13" s="1">
-        <v>-88.190000</v>
+        <v>-88.19</v>
       </c>
       <c r="AN13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO13" s="1">
-        <v>46892.504078</v>
+        <v>46892.504077999998</v>
       </c>
       <c r="AP13" s="1">
         <v>13.025696</v>
       </c>
       <c r="AQ13" s="1">
-        <v>987.217000</v>
+        <v>987.21699999999998</v>
       </c>
       <c r="AR13" s="1">
-        <v>-103.328000</v>
+        <v>-103.328</v>
       </c>
       <c r="AS13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT13" s="1">
-        <v>46903.610526</v>
+        <v>46903.610525999997</v>
       </c>
       <c r="AU13" s="1">
         <v>13.028781</v>
       </c>
       <c r="AV13" s="1">
-        <v>998.687000</v>
+        <v>998.68700000000001</v>
       </c>
       <c r="AW13" s="1">
-        <v>-125.033000</v>
+        <v>-125.033</v>
       </c>
       <c r="AX13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY13" s="1">
-        <v>46914.578528</v>
+        <v>46914.578527999998</v>
       </c>
       <c r="AZ13" s="1">
         <v>13.031827</v>
       </c>
       <c r="BA13" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB13" s="1">
-        <v>-143.978000</v>
+        <v>-143.97800000000001</v>
       </c>
       <c r="BC13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD13" s="1">
-        <v>46925.481091</v>
+        <v>46925.481091000001</v>
       </c>
       <c r="BE13" s="1">
         <v>13.034856</v>
       </c>
       <c r="BF13" s="1">
-        <v>1053.910000</v>
+        <v>1053.9100000000001</v>
       </c>
       <c r="BG13" s="1">
-        <v>-229.526000</v>
+        <v>-229.52600000000001</v>
       </c>
       <c r="BH13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI13" s="1">
-        <v>46936.233373</v>
+        <v>46936.233373000003</v>
       </c>
       <c r="BJ13" s="1">
-        <v>13.037843</v>
+        <v>13.037843000000001</v>
       </c>
       <c r="BK13" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL13" s="1">
-        <v>-367.025000</v>
+        <v>-367.02499999999998</v>
       </c>
       <c r="BM13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN13" s="1">
-        <v>46947.271860</v>
+        <v>46947.271860000001</v>
       </c>
       <c r="BO13" s="1">
-        <v>13.040909</v>
+        <v>13.040908999999999</v>
       </c>
       <c r="BP13" s="1">
-        <v>1265.520000</v>
+        <v>1265.52</v>
       </c>
       <c r="BQ13" s="1">
-        <v>-580.155000</v>
+        <v>-580.15499999999997</v>
       </c>
       <c r="BR13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS13" s="1">
-        <v>46957.833680</v>
+        <v>46957.833680000003</v>
       </c>
       <c r="BT13" s="1">
-        <v>13.043843</v>
+        <v>13.043843000000001</v>
       </c>
       <c r="BU13" s="1">
-        <v>1413.900000</v>
+        <v>1413.9</v>
       </c>
       <c r="BV13" s="1">
-        <v>-807.894000</v>
+        <v>-807.89400000000001</v>
       </c>
       <c r="BW13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX13" s="1">
-        <v>46969.036806</v>
+        <v>46969.036805999996</v>
       </c>
       <c r="BY13" s="1">
-        <v>13.046955</v>
+        <v>13.046955000000001</v>
       </c>
       <c r="BZ13" s="1">
-        <v>1577.100000</v>
+        <v>1577.1</v>
       </c>
       <c r="CA13" s="1">
-        <v>-1046.780000</v>
+        <v>-1046.78</v>
       </c>
       <c r="CB13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC13" s="1">
-        <v>46981.239353</v>
+        <v>46981.239352999997</v>
       </c>
       <c r="CD13" s="1">
-        <v>13.050344</v>
+        <v>13.050344000000001</v>
       </c>
       <c r="CE13" s="1">
-        <v>1989.680000</v>
+        <v>1989.68</v>
       </c>
       <c r="CF13" s="1">
-        <v>-1605.250000</v>
+        <v>-1605.25</v>
       </c>
       <c r="CG13" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="14">
+    <row r="14" spans="1:85">
       <c r="A14" s="1">
-        <v>46808.064157</v>
+        <v>46808.064157000001</v>
       </c>
       <c r="B14" s="1">
-        <v>13.002240</v>
+        <v>13.00224</v>
       </c>
       <c r="C14" s="1">
-        <v>901.861000</v>
+        <v>901.86099999999999</v>
       </c>
       <c r="D14" s="1">
-        <v>-179.940000</v>
+        <v>-179.94</v>
       </c>
       <c r="E14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F14" s="1">
-        <v>46818.492544</v>
+        <v>46818.492544000001</v>
       </c>
       <c r="G14" s="1">
         <v>13.005137</v>
       </c>
       <c r="H14" s="1">
-        <v>918.062000</v>
+        <v>918.06200000000001</v>
       </c>
       <c r="I14" s="1">
-        <v>-155.302000</v>
+        <v>-155.30199999999999</v>
       </c>
       <c r="J14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K14" s="1">
-        <v>46828.949698</v>
+        <v>46828.949697999997</v>
       </c>
       <c r="L14" s="1">
         <v>13.008042</v>
       </c>
       <c r="M14" s="1">
-        <v>940.857000</v>
+        <v>940.85699999999997</v>
       </c>
       <c r="N14" s="1">
-        <v>-115.195000</v>
+        <v>-115.19499999999999</v>
       </c>
       <c r="O14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P14" s="1">
         <v>46839.483235</v>
@@ -3610,769 +4026,769 @@
         <v>13.010968</v>
       </c>
       <c r="R14" s="1">
-        <v>948.412000</v>
+        <v>948.41200000000003</v>
       </c>
       <c r="S14" s="1">
-        <v>-101.396000</v>
+        <v>-101.396</v>
       </c>
       <c r="T14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U14" s="1">
-        <v>46850.329786</v>
+        <v>46850.329786000002</v>
       </c>
       <c r="V14" s="1">
-        <v>13.013980</v>
+        <v>13.01398</v>
       </c>
       <c r="W14" s="1">
-        <v>956.017000</v>
+        <v>956.01700000000005</v>
       </c>
       <c r="X14" s="1">
-        <v>-88.943300</v>
+        <v>-88.943299999999994</v>
       </c>
       <c r="Y14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z14" s="1">
-        <v>46861.191144</v>
+        <v>46861.191143999997</v>
       </c>
       <c r="AA14" s="1">
-        <v>13.016998</v>
+        <v>13.016997999999999</v>
       </c>
       <c r="AB14" s="1">
-        <v>964.192000</v>
+        <v>964.19200000000001</v>
       </c>
       <c r="AC14" s="1">
-        <v>-80.344100</v>
+        <v>-80.344099999999997</v>
       </c>
       <c r="AD14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE14" s="1">
-        <v>46871.618042</v>
+        <v>46871.618042000002</v>
       </c>
       <c r="AF14" s="1">
-        <v>13.019894</v>
+        <v>13.019894000000001</v>
       </c>
       <c r="AG14" s="1">
-        <v>969.516000</v>
+        <v>969.51599999999996</v>
       </c>
       <c r="AH14" s="1">
-        <v>-80.176400</v>
+        <v>-80.176400000000001</v>
       </c>
       <c r="AI14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ14" s="1">
-        <v>46882.117852</v>
+        <v>46882.117852000003</v>
       </c>
       <c r="AK14" s="1">
-        <v>13.022811</v>
+        <v>13.022811000000001</v>
       </c>
       <c r="AL14" s="1">
-        <v>977.869000</v>
+        <v>977.86900000000003</v>
       </c>
       <c r="AM14" s="1">
-        <v>-88.190000</v>
+        <v>-88.19</v>
       </c>
       <c r="AN14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO14" s="1">
-        <v>46893.169223</v>
+        <v>46893.169222999997</v>
       </c>
       <c r="AP14" s="1">
-        <v>13.025880</v>
+        <v>13.025880000000001</v>
       </c>
       <c r="AQ14" s="1">
-        <v>987.222000</v>
+        <v>987.22199999999998</v>
       </c>
       <c r="AR14" s="1">
-        <v>-103.314000</v>
+        <v>-103.31399999999999</v>
       </c>
       <c r="AS14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT14" s="1">
-        <v>46904.288031</v>
+        <v>46904.288030999996</v>
       </c>
       <c r="AU14" s="1">
         <v>13.028969</v>
       </c>
       <c r="AV14" s="1">
-        <v>998.706000</v>
+        <v>998.70600000000002</v>
       </c>
       <c r="AW14" s="1">
-        <v>-125.068000</v>
+        <v>-125.068</v>
       </c>
       <c r="AX14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY14" s="1">
-        <v>46914.982800</v>
+        <v>46914.982799999998</v>
       </c>
       <c r="AZ14" s="1">
-        <v>13.031940</v>
+        <v>13.031940000000001</v>
       </c>
       <c r="BA14" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB14" s="1">
-        <v>-143.961000</v>
+        <v>-143.96100000000001</v>
       </c>
       <c r="BC14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD14" s="1">
-        <v>46925.659191</v>
+        <v>46925.659190999999</v>
       </c>
       <c r="BE14" s="1">
         <v>13.034905</v>
       </c>
       <c r="BF14" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG14" s="1">
-        <v>-229.521000</v>
+        <v>-229.52099999999999</v>
       </c>
       <c r="BH14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI14" s="1">
-        <v>46936.633635</v>
+        <v>46936.633634999998</v>
       </c>
       <c r="BJ14" s="1">
-        <v>13.037954</v>
+        <v>13.037953999999999</v>
       </c>
       <c r="BK14" s="1">
-        <v>1133.620000</v>
+        <v>1133.6199999999999</v>
       </c>
       <c r="BL14" s="1">
-        <v>-367.028000</v>
+        <v>-367.02800000000002</v>
       </c>
       <c r="BM14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN14" s="1">
-        <v>46947.661685</v>
+        <v>46947.661684999999</v>
       </c>
       <c r="BO14" s="1">
         <v>13.041017</v>
       </c>
       <c r="BP14" s="1">
-        <v>1265.500000</v>
+        <v>1265.5</v>
       </c>
       <c r="BQ14" s="1">
-        <v>-580.129000</v>
+        <v>-580.12900000000002</v>
       </c>
       <c r="BR14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS14" s="1">
-        <v>46958.222027</v>
+        <v>46958.222027000003</v>
       </c>
       <c r="BT14" s="1">
         <v>13.043951</v>
       </c>
       <c r="BU14" s="1">
-        <v>1413.810000</v>
+        <v>1413.81</v>
       </c>
       <c r="BV14" s="1">
-        <v>-807.915000</v>
+        <v>-807.91499999999996</v>
       </c>
       <c r="BW14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX14" s="1">
-        <v>46969.492618</v>
+        <v>46969.492617999997</v>
       </c>
       <c r="BY14" s="1">
         <v>13.047081</v>
       </c>
       <c r="BZ14" s="1">
-        <v>1577.180000</v>
+        <v>1577.18</v>
       </c>
       <c r="CA14" s="1">
-        <v>-1046.680000</v>
+        <v>-1046.68</v>
       </c>
       <c r="CB14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC14" s="1">
-        <v>46981.781511</v>
+        <v>46981.781511000001</v>
       </c>
       <c r="CD14" s="1">
         <v>13.050495</v>
       </c>
       <c r="CE14" s="1">
-        <v>1991.500000</v>
+        <v>1991.5</v>
       </c>
       <c r="CF14" s="1">
-        <v>-1604.940000</v>
+        <v>-1604.94</v>
       </c>
       <c r="CG14" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="15">
+    <row r="15" spans="1:85">
       <c r="A15" s="1">
-        <v>46808.408876</v>
+        <v>46808.408876000001</v>
       </c>
       <c r="B15" s="1">
         <v>13.002336</v>
       </c>
       <c r="C15" s="1">
-        <v>901.867000</v>
+        <v>901.86699999999996</v>
       </c>
       <c r="D15" s="1">
-        <v>-180.141000</v>
+        <v>-180.14099999999999</v>
       </c>
       <c r="E15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F15" s="1">
-        <v>46818.839742</v>
+        <v>46818.839741999996</v>
       </c>
       <c r="G15" s="1">
         <v>13.005233</v>
       </c>
       <c r="H15" s="1">
-        <v>917.674000</v>
+        <v>917.67399999999998</v>
       </c>
       <c r="I15" s="1">
-        <v>-154.930000</v>
+        <v>-154.93</v>
       </c>
       <c r="J15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K15" s="1">
-        <v>46829.642334</v>
+        <v>46829.642333999996</v>
       </c>
       <c r="L15" s="1">
         <v>13.008234</v>
       </c>
       <c r="M15" s="1">
-        <v>940.899000</v>
+        <v>940.899</v>
       </c>
       <c r="N15" s="1">
-        <v>-115.148000</v>
+        <v>-115.148</v>
       </c>
       <c r="O15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P15" s="1">
-        <v>46840.179155</v>
+        <v>46840.179154999998</v>
       </c>
       <c r="Q15" s="1">
         <v>13.011161</v>
       </c>
       <c r="R15" s="1">
-        <v>948.434000</v>
+        <v>948.43399999999997</v>
       </c>
       <c r="S15" s="1">
-        <v>-101.362000</v>
+        <v>-101.36199999999999</v>
       </c>
       <c r="T15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U15" s="1">
-        <v>46850.671988</v>
+        <v>46850.671988000002</v>
       </c>
       <c r="V15" s="1">
-        <v>13.014076</v>
+        <v>13.014075999999999</v>
       </c>
       <c r="W15" s="1">
-        <v>956.048000</v>
+        <v>956.048</v>
       </c>
       <c r="X15" s="1">
-        <v>-89.105300</v>
+        <v>-89.1053</v>
       </c>
       <c r="Y15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z15" s="1">
-        <v>46861.539402</v>
+        <v>46861.539402000002</v>
       </c>
       <c r="AA15" s="1">
         <v>13.017094</v>
       </c>
       <c r="AB15" s="1">
-        <v>964.163000</v>
+        <v>964.16300000000001</v>
       </c>
       <c r="AC15" s="1">
-        <v>-80.301300</v>
+        <v>-80.301299999999998</v>
       </c>
       <c r="AD15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE15" s="1">
-        <v>46871.962264</v>
+        <v>46871.962264000002</v>
       </c>
       <c r="AF15" s="1">
-        <v>13.019990</v>
+        <v>13.01999</v>
       </c>
       <c r="AG15" s="1">
-        <v>969.482000</v>
+        <v>969.48199999999997</v>
       </c>
       <c r="AH15" s="1">
-        <v>-80.159800</v>
+        <v>-80.159800000000004</v>
       </c>
       <c r="AI15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ15" s="1">
-        <v>46882.791451</v>
+        <v>46882.791450999997</v>
       </c>
       <c r="AK15" s="1">
-        <v>13.022998</v>
+        <v>13.022997999999999</v>
       </c>
       <c r="AL15" s="1">
-        <v>977.831000</v>
+        <v>977.83100000000002</v>
       </c>
       <c r="AM15" s="1">
-        <v>-88.186100</v>
+        <v>-88.186099999999996</v>
       </c>
       <c r="AN15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO15" s="1">
-        <v>46893.609164</v>
+        <v>46893.609164000001</v>
       </c>
       <c r="AP15" s="1">
-        <v>13.026003</v>
+        <v>13.026002999999999</v>
       </c>
       <c r="AQ15" s="1">
-        <v>987.217000</v>
+        <v>987.21699999999998</v>
       </c>
       <c r="AR15" s="1">
-        <v>-103.312000</v>
+        <v>-103.312</v>
       </c>
       <c r="AS15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT15" s="1">
-        <v>46904.738397</v>
+        <v>46904.738397000001</v>
       </c>
       <c r="AU15" s="1">
-        <v>13.029094</v>
+        <v>13.029094000000001</v>
       </c>
       <c r="AV15" s="1">
-        <v>998.700000</v>
+        <v>998.7</v>
       </c>
       <c r="AW15" s="1">
-        <v>-125.076000</v>
+        <v>-125.07599999999999</v>
       </c>
       <c r="AX15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY15" s="1">
-        <v>46915.367169</v>
+        <v>46915.367168999997</v>
       </c>
       <c r="AZ15" s="1">
-        <v>13.032046</v>
+        <v>13.032045999999999</v>
       </c>
       <c r="BA15" s="1">
-        <v>1008.380000</v>
+        <v>1008.38</v>
       </c>
       <c r="BB15" s="1">
-        <v>-143.989000</v>
+        <v>-143.989</v>
       </c>
       <c r="BC15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD15" s="1">
-        <v>46926.019782</v>
+        <v>46926.019782000003</v>
       </c>
       <c r="BE15" s="1">
         <v>13.035005</v>
       </c>
       <c r="BF15" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG15" s="1">
-        <v>-229.534000</v>
+        <v>-229.53399999999999</v>
       </c>
       <c r="BH15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI15" s="1">
-        <v>46937.014102</v>
+        <v>46937.014102000001</v>
       </c>
       <c r="BJ15" s="1">
-        <v>13.038059</v>
+        <v>13.038059000000001</v>
       </c>
       <c r="BK15" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL15" s="1">
-        <v>-367.050000</v>
+        <v>-367.05</v>
       </c>
       <c r="BM15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN15" s="1">
-        <v>46948.093204</v>
+        <v>46948.093203999997</v>
       </c>
       <c r="BO15" s="1">
-        <v>13.041137</v>
+        <v>13.041137000000001</v>
       </c>
       <c r="BP15" s="1">
-        <v>1265.580000</v>
+        <v>1265.58</v>
       </c>
       <c r="BQ15" s="1">
-        <v>-580.119000</v>
+        <v>-580.11900000000003</v>
       </c>
       <c r="BR15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS15" s="1">
-        <v>46959.064711</v>
+        <v>46959.064710999999</v>
       </c>
       <c r="BT15" s="1">
-        <v>13.044185</v>
+        <v>13.044185000000001</v>
       </c>
       <c r="BU15" s="1">
-        <v>1413.810000</v>
+        <v>1413.81</v>
       </c>
       <c r="BV15" s="1">
-        <v>-807.893000</v>
+        <v>-807.89300000000003</v>
       </c>
       <c r="BW15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX15" s="1">
         <v>46969.940487</v>
       </c>
       <c r="BY15" s="1">
-        <v>13.047206</v>
+        <v>13.047205999999999</v>
       </c>
       <c r="BZ15" s="1">
-        <v>1576.980000</v>
+        <v>1576.98</v>
       </c>
       <c r="CA15" s="1">
-        <v>-1046.830000</v>
+        <v>-1046.83</v>
       </c>
       <c r="CB15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC15" s="1">
-        <v>46982.319175</v>
+        <v>46982.319174999997</v>
       </c>
       <c r="CD15" s="1">
         <v>13.050644</v>
       </c>
       <c r="CE15" s="1">
-        <v>1989.810000</v>
+        <v>1989.81</v>
       </c>
       <c r="CF15" s="1">
-        <v>-1603.970000</v>
+        <v>-1603.97</v>
       </c>
       <c r="CG15" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="16">
+    <row r="16" spans="1:85">
       <c r="A16" s="1">
-        <v>46808.749132</v>
+        <v>46808.749131999997</v>
       </c>
       <c r="B16" s="1">
-        <v>13.002430</v>
+        <v>13.00243</v>
       </c>
       <c r="C16" s="1">
-        <v>901.651000</v>
+        <v>901.65099999999995</v>
       </c>
       <c r="D16" s="1">
-        <v>-180.124000</v>
+        <v>-180.124</v>
       </c>
       <c r="E16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F16" s="1">
-        <v>46819.534142</v>
+        <v>46819.534141999997</v>
       </c>
       <c r="G16" s="1">
         <v>13.005426</v>
       </c>
       <c r="H16" s="1">
-        <v>917.282000</v>
+        <v>917.28200000000004</v>
       </c>
       <c r="I16" s="1">
-        <v>-155.259000</v>
+        <v>-155.25899999999999</v>
       </c>
       <c r="J16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K16" s="1">
-        <v>46829.984352</v>
+        <v>46829.984351999999</v>
       </c>
       <c r="L16" s="1">
         <v>13.008329</v>
       </c>
       <c r="M16" s="1">
-        <v>940.985000</v>
+        <v>940.98500000000001</v>
       </c>
       <c r="N16" s="1">
-        <v>-115.163000</v>
+        <v>-115.163</v>
       </c>
       <c r="O16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P16" s="1">
-        <v>46840.528829</v>
+        <v>46840.528829000003</v>
       </c>
       <c r="Q16" s="1">
         <v>13.011258</v>
       </c>
       <c r="R16" s="1">
-        <v>948.443000</v>
+        <v>948.44299999999998</v>
       </c>
       <c r="S16" s="1">
-        <v>-101.380000</v>
+        <v>-101.38</v>
       </c>
       <c r="T16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U16" s="1">
-        <v>46851.014725</v>
+        <v>46851.014725000001</v>
       </c>
       <c r="V16" s="1">
-        <v>13.014171</v>
+        <v>13.014170999999999</v>
       </c>
       <c r="W16" s="1">
-        <v>956.143000</v>
+        <v>956.14300000000003</v>
       </c>
       <c r="X16" s="1">
-        <v>-89.053600</v>
+        <v>-89.053600000000003</v>
       </c>
       <c r="Y16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z16" s="1">
-        <v>46862.201989</v>
+        <v>46862.201989000001</v>
       </c>
       <c r="AA16" s="1">
-        <v>13.017278</v>
+        <v>13.017277999999999</v>
       </c>
       <c r="AB16" s="1">
-        <v>964.167000</v>
+        <v>964.16700000000003</v>
       </c>
       <c r="AC16" s="1">
-        <v>-80.286000</v>
+        <v>-80.286000000000001</v>
       </c>
       <c r="AD16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE16" s="1">
-        <v>46872.618472</v>
+        <v>46872.618472000002</v>
       </c>
       <c r="AF16" s="1">
-        <v>13.020172</v>
+        <v>13.020172000000001</v>
       </c>
       <c r="AG16" s="1">
-        <v>969.527000</v>
+        <v>969.52700000000004</v>
       </c>
       <c r="AH16" s="1">
-        <v>-80.156600</v>
+        <v>-80.156599999999997</v>
       </c>
       <c r="AI16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ16" s="1">
-        <v>46883.175322</v>
+        <v>46883.175322000003</v>
       </c>
       <c r="AK16" s="1">
         <v>13.023104</v>
       </c>
       <c r="AL16" s="1">
-        <v>977.840000</v>
+        <v>977.84</v>
       </c>
       <c r="AM16" s="1">
-        <v>-88.184200</v>
+        <v>-88.184200000000004</v>
       </c>
       <c r="AN16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO16" s="1">
         <v>46893.971779</v>
       </c>
       <c r="AP16" s="1">
-        <v>13.026103</v>
+        <v>13.026103000000001</v>
       </c>
       <c r="AQ16" s="1">
-        <v>987.235000</v>
+        <v>987.23500000000001</v>
       </c>
       <c r="AR16" s="1">
-        <v>-103.292000</v>
+        <v>-103.292</v>
       </c>
       <c r="AS16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT16" s="1">
-        <v>46905.100509</v>
+        <v>46905.100509000004</v>
       </c>
       <c r="AU16" s="1">
         <v>13.029195</v>
       </c>
       <c r="AV16" s="1">
-        <v>998.699000</v>
+        <v>998.69899999999996</v>
       </c>
       <c r="AW16" s="1">
-        <v>-125.089000</v>
+        <v>-125.089</v>
       </c>
       <c r="AX16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY16" s="1">
         <v>46915.726767</v>
       </c>
       <c r="AZ16" s="1">
-        <v>13.032146</v>
+        <v>13.032145999999999</v>
       </c>
       <c r="BA16" s="1">
-        <v>1008.390000</v>
+        <v>1008.39</v>
       </c>
       <c r="BB16" s="1">
-        <v>-143.981000</v>
+        <v>-143.98099999999999</v>
       </c>
       <c r="BC16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD16" s="1">
-        <v>46926.446802</v>
+        <v>46926.446801999999</v>
       </c>
       <c r="BE16" s="1">
         <v>13.035124</v>
       </c>
       <c r="BF16" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG16" s="1">
-        <v>-229.527000</v>
+        <v>-229.52699999999999</v>
       </c>
       <c r="BH16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI16" s="1">
-        <v>46937.440669</v>
+        <v>46937.440669000003</v>
       </c>
       <c r="BJ16" s="1">
         <v>13.038178</v>
       </c>
       <c r="BK16" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL16" s="1">
-        <v>-367.038000</v>
+        <v>-367.03800000000001</v>
       </c>
       <c r="BM16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN16" s="1">
-        <v>46948.490508</v>
+        <v>46948.490508000003</v>
       </c>
       <c r="BO16" s="1">
         <v>13.041247</v>
       </c>
       <c r="BP16" s="1">
-        <v>1265.530000</v>
+        <v>1265.53</v>
       </c>
       <c r="BQ16" s="1">
-        <v>-580.129000</v>
+        <v>-580.12900000000002</v>
       </c>
       <c r="BR16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS16" s="1">
-        <v>46959.498742</v>
+        <v>46959.498742000003</v>
       </c>
       <c r="BT16" s="1">
         <v>13.044305</v>
       </c>
       <c r="BU16" s="1">
-        <v>1413.710000</v>
+        <v>1413.71</v>
       </c>
       <c r="BV16" s="1">
-        <v>-807.970000</v>
+        <v>-807.97</v>
       </c>
       <c r="BW16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX16" s="1">
-        <v>46970.398294</v>
+        <v>46970.398293999999</v>
       </c>
       <c r="BY16" s="1">
         <v>13.047333</v>
       </c>
       <c r="BZ16" s="1">
-        <v>1577.190000</v>
+        <v>1577.19</v>
       </c>
       <c r="CA16" s="1">
-        <v>-1046.710000</v>
+        <v>-1046.71</v>
       </c>
       <c r="CB16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC16" s="1">
-        <v>46982.859287</v>
+        <v>46982.859286999999</v>
       </c>
       <c r="CD16" s="1">
         <v>13.050794</v>
       </c>
       <c r="CE16" s="1">
-        <v>1991.230000</v>
+        <v>1991.23</v>
       </c>
       <c r="CF16" s="1">
-        <v>-1605.700000</v>
+        <v>-1605.7</v>
       </c>
       <c r="CG16" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="17">
+    <row r="17" spans="1:85">
       <c r="A17" s="1">
-        <v>46809.434107</v>
+        <v>46809.434107000001</v>
       </c>
       <c r="B17" s="1">
         <v>13.002621</v>
       </c>
       <c r="C17" s="1">
-        <v>901.751000</v>
+        <v>901.75099999999998</v>
       </c>
       <c r="D17" s="1">
-        <v>-180.029000</v>
+        <v>-180.029</v>
       </c>
       <c r="E17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F17" s="1">
         <v>46819.877406</v>
       </c>
       <c r="G17" s="1">
-        <v>13.005522</v>
+        <v>13.005521999999999</v>
       </c>
       <c r="H17" s="1">
-        <v>917.684000</v>
+        <v>917.68399999999997</v>
       </c>
       <c r="I17" s="1">
-        <v>-155.561000</v>
+        <v>-155.56100000000001</v>
       </c>
       <c r="J17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K17" s="1">
-        <v>46830.334527</v>
+        <v>46830.334526999999</v>
       </c>
       <c r="L17" s="1">
         <v>13.008426</v>
       </c>
       <c r="M17" s="1">
-        <v>940.991000</v>
+        <v>940.99099999999999</v>
       </c>
       <c r="N17" s="1">
-        <v>-114.912000</v>
+        <v>-114.91200000000001</v>
       </c>
       <c r="O17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P17" s="1">
         <v>46840.878483</v>
@@ -4381,13 +4797,13 @@
         <v>13.011355</v>
       </c>
       <c r="R17" s="1">
-        <v>948.484000</v>
+        <v>948.48400000000004</v>
       </c>
       <c r="S17" s="1">
-        <v>-101.376000</v>
+        <v>-101.376</v>
       </c>
       <c r="T17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U17" s="1">
         <v>46851.669445</v>
@@ -4396,390 +4812,390 @@
         <v>13.014353</v>
       </c>
       <c r="W17" s="1">
-        <v>955.917000</v>
+        <v>955.91700000000003</v>
       </c>
       <c r="X17" s="1">
-        <v>-89.050100</v>
+        <v>-89.0501</v>
       </c>
       <c r="Y17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z17" s="1">
-        <v>46862.584933</v>
+        <v>46862.584932999998</v>
       </c>
       <c r="AA17" s="1">
-        <v>13.017385</v>
+        <v>13.017385000000001</v>
       </c>
       <c r="AB17" s="1">
-        <v>964.154000</v>
+        <v>964.154</v>
       </c>
       <c r="AC17" s="1">
-        <v>-80.327200</v>
+        <v>-80.327200000000005</v>
       </c>
       <c r="AD17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE17" s="1">
-        <v>46872.991006</v>
+        <v>46872.991005999997</v>
       </c>
       <c r="AF17" s="1">
         <v>13.020275</v>
       </c>
       <c r="AG17" s="1">
-        <v>969.512000</v>
+        <v>969.51199999999994</v>
       </c>
       <c r="AH17" s="1">
-        <v>-80.163500</v>
+        <v>-80.163499999999999</v>
       </c>
       <c r="AI17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ17" s="1">
-        <v>46883.524045</v>
+        <v>46883.524044999998</v>
       </c>
       <c r="AK17" s="1">
         <v>13.023201</v>
       </c>
       <c r="AL17" s="1">
-        <v>977.827000</v>
+        <v>977.827</v>
       </c>
       <c r="AM17" s="1">
-        <v>-88.186200</v>
+        <v>-88.186199999999999</v>
       </c>
       <c r="AN17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO17" s="1">
-        <v>46894.330879</v>
+        <v>46894.330879000001</v>
       </c>
       <c r="AP17" s="1">
-        <v>13.026203</v>
+        <v>13.026203000000001</v>
       </c>
       <c r="AQ17" s="1">
-        <v>987.229000</v>
+        <v>987.22900000000004</v>
       </c>
       <c r="AR17" s="1">
-        <v>-103.330000</v>
+        <v>-103.33</v>
       </c>
       <c r="AS17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT17" s="1">
-        <v>46905.467021</v>
+        <v>46905.467020999997</v>
       </c>
       <c r="AU17" s="1">
         <v>13.029296</v>
       </c>
       <c r="AV17" s="1">
-        <v>998.689000</v>
+        <v>998.68899999999996</v>
       </c>
       <c r="AW17" s="1">
-        <v>-125.039000</v>
+        <v>-125.039</v>
       </c>
       <c r="AX17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY17" s="1">
-        <v>46916.138943</v>
+        <v>46916.138942999998</v>
       </c>
       <c r="AZ17" s="1">
         <v>13.032261</v>
       </c>
       <c r="BA17" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB17" s="1">
-        <v>-143.987000</v>
+        <v>-143.98699999999999</v>
       </c>
       <c r="BC17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD17" s="1">
-        <v>46926.741920</v>
+        <v>46926.74192</v>
       </c>
       <c r="BE17" s="1">
-        <v>13.035206</v>
+        <v>13.035206000000001</v>
       </c>
       <c r="BF17" s="1">
-        <v>1053.910000</v>
+        <v>1053.9100000000001</v>
       </c>
       <c r="BG17" s="1">
-        <v>-229.550000</v>
+        <v>-229.55</v>
       </c>
       <c r="BH17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI17" s="1">
-        <v>46937.787365</v>
+        <v>46937.787364999996</v>
       </c>
       <c r="BJ17" s="1">
-        <v>13.038274</v>
+        <v>13.038273999999999</v>
       </c>
       <c r="BK17" s="1">
-        <v>1133.610000</v>
+        <v>1133.6099999999999</v>
       </c>
       <c r="BL17" s="1">
-        <v>-367.030000</v>
+        <v>-367.03</v>
       </c>
       <c r="BM17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN17" s="1">
-        <v>46948.912100</v>
+        <v>46948.912100000001</v>
       </c>
       <c r="BO17" s="1">
         <v>13.041364</v>
       </c>
       <c r="BP17" s="1">
-        <v>1265.540000</v>
+        <v>1265.54</v>
       </c>
       <c r="BQ17" s="1">
-        <v>-580.121000</v>
+        <v>-580.12099999999998</v>
       </c>
       <c r="BR17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS17" s="1">
-        <v>46959.924308</v>
+        <v>46959.924308000001</v>
       </c>
       <c r="BT17" s="1">
         <v>13.044423</v>
       </c>
       <c r="BU17" s="1">
-        <v>1413.730000</v>
+        <v>1413.73</v>
       </c>
       <c r="BV17" s="1">
-        <v>-807.974000</v>
+        <v>-807.97400000000005</v>
       </c>
       <c r="BW17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX17" s="1">
-        <v>46970.848197</v>
+        <v>46970.848196999999</v>
       </c>
       <c r="BY17" s="1">
-        <v>13.047458</v>
+        <v>13.047458000000001</v>
       </c>
       <c r="BZ17" s="1">
-        <v>1577.060000</v>
+        <v>1577.06</v>
       </c>
       <c r="CA17" s="1">
-        <v>-1046.610000</v>
+        <v>-1046.6099999999999</v>
       </c>
       <c r="CB17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC17" s="1">
-        <v>46983.399465</v>
+        <v>46983.399465000002</v>
       </c>
       <c r="CD17" s="1">
-        <v>13.050944</v>
+        <v>13.050943999999999</v>
       </c>
       <c r="CE17" s="1">
-        <v>1990.300000</v>
+        <v>1990.3</v>
       </c>
       <c r="CF17" s="1">
-        <v>-1604.030000</v>
+        <v>-1604.03</v>
       </c>
       <c r="CG17" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="18">
+    <row r="18" spans="1:85">
       <c r="A18" s="1">
-        <v>46809.774893</v>
+        <v>46809.774893000002</v>
       </c>
       <c r="B18" s="1">
         <v>13.002715</v>
       </c>
       <c r="C18" s="1">
-        <v>901.706000</v>
+        <v>901.70600000000002</v>
       </c>
       <c r="D18" s="1">
-        <v>-180.148000</v>
+        <v>-180.148</v>
       </c>
       <c r="E18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F18" s="1">
-        <v>46820.223085</v>
+        <v>46820.223084999998</v>
       </c>
       <c r="G18" s="1">
         <v>13.005618</v>
       </c>
       <c r="H18" s="1">
-        <v>917.556000</v>
+        <v>917.55600000000004</v>
       </c>
       <c r="I18" s="1">
-        <v>-155.396000</v>
+        <v>-155.39599999999999</v>
       </c>
       <c r="J18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K18" s="1">
-        <v>46830.988788</v>
+        <v>46830.988788000002</v>
       </c>
       <c r="L18" s="1">
-        <v>13.008608</v>
+        <v>13.008608000000001</v>
       </c>
       <c r="M18" s="1">
-        <v>940.953000</v>
+        <v>940.95299999999997</v>
       </c>
       <c r="N18" s="1">
-        <v>-115.209000</v>
+        <v>-115.209</v>
       </c>
       <c r="O18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P18" s="1">
-        <v>46841.547088</v>
+        <v>46841.547087999999</v>
       </c>
       <c r="Q18" s="1">
-        <v>13.011541</v>
+        <v>13.011540999999999</v>
       </c>
       <c r="R18" s="1">
-        <v>948.451000</v>
+        <v>948.45100000000002</v>
       </c>
       <c r="S18" s="1">
-        <v>-101.337000</v>
+        <v>-101.337</v>
       </c>
       <c r="T18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U18" s="1">
-        <v>46852.048883</v>
+        <v>46852.048883000003</v>
       </c>
       <c r="V18" s="1">
-        <v>13.014458</v>
+        <v>13.014457999999999</v>
       </c>
       <c r="W18" s="1">
-        <v>956.072000</v>
+        <v>956.072</v>
       </c>
       <c r="X18" s="1">
-        <v>-89.116700</v>
+        <v>-89.116699999999994</v>
       </c>
       <c r="Y18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z18" s="1">
         <v>46862.933589</v>
       </c>
       <c r="AA18" s="1">
-        <v>13.017482</v>
+        <v>13.017481999999999</v>
       </c>
       <c r="AB18" s="1">
-        <v>964.138000</v>
+        <v>964.13800000000003</v>
       </c>
       <c r="AC18" s="1">
-        <v>-80.316800</v>
+        <v>-80.316800000000001</v>
       </c>
       <c r="AD18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE18" s="1">
         <v>46873.336678</v>
       </c>
       <c r="AF18" s="1">
-        <v>13.020371</v>
+        <v>13.020371000000001</v>
       </c>
       <c r="AG18" s="1">
-        <v>969.604000</v>
+        <v>969.60400000000004</v>
       </c>
       <c r="AH18" s="1">
-        <v>-80.181900</v>
+        <v>-80.181899999999999</v>
       </c>
       <c r="AI18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ18" s="1">
-        <v>46883.875672</v>
+        <v>46883.875672000002</v>
       </c>
       <c r="AK18" s="1">
         <v>13.023299</v>
       </c>
       <c r="AL18" s="1">
-        <v>977.839000</v>
+        <v>977.83900000000006</v>
       </c>
       <c r="AM18" s="1">
-        <v>-88.212500</v>
+        <v>-88.212500000000006</v>
       </c>
       <c r="AN18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO18" s="1">
-        <v>46894.755914</v>
+        <v>46894.755914000001</v>
       </c>
       <c r="AP18" s="1">
-        <v>13.026321</v>
+        <v>13.026320999999999</v>
       </c>
       <c r="AQ18" s="1">
-        <v>987.229000</v>
+        <v>987.22900000000004</v>
       </c>
       <c r="AR18" s="1">
-        <v>-103.321000</v>
+        <v>-103.321</v>
       </c>
       <c r="AS18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT18" s="1">
-        <v>46905.891595</v>
+        <v>46905.891595000001</v>
       </c>
       <c r="AU18" s="1">
-        <v>13.029414</v>
+        <v>13.029413999999999</v>
       </c>
       <c r="AV18" s="1">
-        <v>998.700000</v>
+        <v>998.7</v>
       </c>
       <c r="AW18" s="1">
-        <v>-125.070000</v>
+        <v>-125.07</v>
       </c>
       <c r="AX18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY18" s="1">
-        <v>46916.445507</v>
+        <v>46916.445506999997</v>
       </c>
       <c r="AZ18" s="1">
         <v>13.032346</v>
       </c>
       <c r="BA18" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB18" s="1">
-        <v>-143.992000</v>
+        <v>-143.99199999999999</v>
       </c>
       <c r="BC18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD18" s="1">
-        <v>46927.100229</v>
+        <v>46927.100229000003</v>
       </c>
       <c r="BE18" s="1">
         <v>13.035306</v>
       </c>
       <c r="BF18" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG18" s="1">
-        <v>-229.530000</v>
+        <v>-229.53</v>
       </c>
       <c r="BH18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI18" s="1">
-        <v>46938.163297</v>
+        <v>46938.163296999999</v>
       </c>
       <c r="BJ18" s="1">
-        <v>13.038379</v>
+        <v>13.038379000000001</v>
       </c>
       <c r="BK18" s="1">
-        <v>1133.600000</v>
+        <v>1133.5999999999999</v>
       </c>
       <c r="BL18" s="1">
-        <v>-367.056000</v>
+        <v>-367.05599999999998</v>
       </c>
       <c r="BM18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN18" s="1">
         <v>46949.309426</v>
@@ -4788,61 +5204,61 @@
         <v>13.041475</v>
       </c>
       <c r="BP18" s="1">
-        <v>1265.530000</v>
+        <v>1265.53</v>
       </c>
       <c r="BQ18" s="1">
-        <v>-580.103000</v>
+        <v>-580.10299999999995</v>
       </c>
       <c r="BR18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS18" s="1">
-        <v>46960.341447</v>
+        <v>46960.341446999999</v>
       </c>
       <c r="BT18" s="1">
         <v>13.044539</v>
       </c>
       <c r="BU18" s="1">
-        <v>1413.660000</v>
+        <v>1413.66</v>
       </c>
       <c r="BV18" s="1">
-        <v>-808.002000</v>
+        <v>-808.00199999999995</v>
       </c>
       <c r="BW18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX18" s="1">
         <v>46971.302999</v>
       </c>
       <c r="BY18" s="1">
-        <v>13.047584</v>
+        <v>13.047584000000001</v>
       </c>
       <c r="BZ18" s="1">
-        <v>1577.070000</v>
+        <v>1577.07</v>
       </c>
       <c r="CA18" s="1">
-        <v>-1046.820000</v>
+        <v>-1046.82</v>
       </c>
       <c r="CB18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC18" s="1">
-        <v>46983.937124</v>
+        <v>46983.937123999996</v>
       </c>
       <c r="CD18" s="1">
-        <v>13.051094</v>
+        <v>13.051094000000001</v>
       </c>
       <c r="CE18" s="1">
-        <v>1989.880000</v>
+        <v>1989.88</v>
       </c>
       <c r="CF18" s="1">
-        <v>-1605.850000</v>
+        <v>-1605.85</v>
       </c>
       <c r="CG18" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="19">
+    <row r="19" spans="1:85">
       <c r="A19" s="1">
         <v>46810.426603</v>
       </c>
@@ -4850,238 +5266,238 @@
         <v>13.002896</v>
       </c>
       <c r="C19" s="1">
-        <v>901.948000</v>
+        <v>901.94799999999998</v>
       </c>
       <c r="D19" s="1">
-        <v>-180.264000</v>
+        <v>-180.26400000000001</v>
       </c>
       <c r="E19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F19" s="1">
-        <v>46820.878337</v>
+        <v>46820.878337000002</v>
       </c>
       <c r="G19" s="1">
-        <v>13.005800</v>
+        <v>13.005800000000001</v>
       </c>
       <c r="H19" s="1">
-        <v>917.544000</v>
+        <v>917.54399999999998</v>
       </c>
       <c r="I19" s="1">
-        <v>-155.165000</v>
+        <v>-155.16499999999999</v>
       </c>
       <c r="J19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K19" s="1">
-        <v>46831.371662</v>
+        <v>46831.371661999998</v>
       </c>
       <c r="L19" s="1">
-        <v>13.008714</v>
+        <v>13.008713999999999</v>
       </c>
       <c r="M19" s="1">
-        <v>940.882000</v>
+        <v>940.88199999999995</v>
       </c>
       <c r="N19" s="1">
-        <v>-115.149000</v>
+        <v>-115.149</v>
       </c>
       <c r="O19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P19" s="1">
-        <v>46841.924719</v>
+        <v>46841.924719000002</v>
       </c>
       <c r="Q19" s="1">
-        <v>13.011646</v>
+        <v>13.011646000000001</v>
       </c>
       <c r="R19" s="1">
-        <v>948.494000</v>
+        <v>948.49400000000003</v>
       </c>
       <c r="S19" s="1">
-        <v>-101.347000</v>
+        <v>-101.34699999999999</v>
       </c>
       <c r="T19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U19" s="1">
-        <v>46852.389634</v>
+        <v>46852.389633999999</v>
       </c>
       <c r="V19" s="1">
-        <v>13.014553</v>
+        <v>13.014552999999999</v>
       </c>
       <c r="W19" s="1">
-        <v>956.239000</v>
+        <v>956.23900000000003</v>
       </c>
       <c r="X19" s="1">
-        <v>-89.151000</v>
+        <v>-89.150999999999996</v>
       </c>
       <c r="Y19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z19" s="1">
-        <v>46863.284291</v>
+        <v>46863.284291000004</v>
       </c>
       <c r="AA19" s="1">
         <v>13.017579</v>
       </c>
       <c r="AB19" s="1">
-        <v>964.221000</v>
+        <v>964.221</v>
       </c>
       <c r="AC19" s="1">
-        <v>-80.381600</v>
+        <v>-80.381600000000006</v>
       </c>
       <c r="AD19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE19" s="1">
-        <v>46873.685897</v>
+        <v>46873.685897000003</v>
       </c>
       <c r="AF19" s="1">
-        <v>13.020468</v>
+        <v>13.020467999999999</v>
       </c>
       <c r="AG19" s="1">
-        <v>969.575000</v>
+        <v>969.57500000000005</v>
       </c>
       <c r="AH19" s="1">
-        <v>-80.285700</v>
+        <v>-80.285700000000006</v>
       </c>
       <c r="AI19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ19" s="1">
-        <v>46884.293834</v>
+        <v>46884.293833999996</v>
       </c>
       <c r="AK19" s="1">
         <v>13.023415</v>
       </c>
       <c r="AL19" s="1">
-        <v>977.825000</v>
+        <v>977.82500000000005</v>
       </c>
       <c r="AM19" s="1">
-        <v>-88.179800</v>
+        <v>-88.1798</v>
       </c>
       <c r="AN19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO19" s="1">
-        <v>46895.051069</v>
+        <v>46895.051069000001</v>
       </c>
       <c r="AP19" s="1">
         <v>13.026403</v>
       </c>
       <c r="AQ19" s="1">
-        <v>987.218000</v>
+        <v>987.21799999999996</v>
       </c>
       <c r="AR19" s="1">
-        <v>-103.303000</v>
+        <v>-103.303</v>
       </c>
       <c r="AS19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT19" s="1">
-        <v>46906.195643</v>
+        <v>46906.195642999999</v>
       </c>
       <c r="AU19" s="1">
-        <v>13.029499</v>
+        <v>13.029498999999999</v>
       </c>
       <c r="AV19" s="1">
-        <v>998.711000</v>
+        <v>998.71100000000001</v>
       </c>
       <c r="AW19" s="1">
-        <v>-125.083000</v>
+        <v>-125.083</v>
       </c>
       <c r="AX19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY19" s="1">
-        <v>46916.802094</v>
+        <v>46916.802093999999</v>
       </c>
       <c r="AZ19" s="1">
-        <v>13.032445</v>
+        <v>13.032444999999999</v>
       </c>
       <c r="BA19" s="1">
-        <v>1008.380000</v>
+        <v>1008.38</v>
       </c>
       <c r="BB19" s="1">
-        <v>-143.982000</v>
+        <v>-143.982</v>
       </c>
       <c r="BC19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD19" s="1">
-        <v>46927.461616</v>
+        <v>46927.461616000001</v>
       </c>
       <c r="BE19" s="1">
         <v>13.035406</v>
       </c>
       <c r="BF19" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG19" s="1">
-        <v>-229.544000</v>
+        <v>-229.54400000000001</v>
       </c>
       <c r="BH19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI19" s="1">
         <v>46938.539266</v>
       </c>
       <c r="BJ19" s="1">
-        <v>13.038483</v>
+        <v>13.038482999999999</v>
       </c>
       <c r="BK19" s="1">
-        <v>1133.580000</v>
+        <v>1133.58</v>
       </c>
       <c r="BL19" s="1">
-        <v>-367.043000</v>
+        <v>-367.04300000000001</v>
       </c>
       <c r="BM19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN19" s="1">
-        <v>46949.731699</v>
+        <v>46949.731699000004</v>
       </c>
       <c r="BO19" s="1">
         <v>13.041592</v>
       </c>
       <c r="BP19" s="1">
-        <v>1265.520000</v>
+        <v>1265.52</v>
       </c>
       <c r="BQ19" s="1">
-        <v>-580.138000</v>
+        <v>-580.13800000000003</v>
       </c>
       <c r="BR19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS19" s="1">
-        <v>46960.767475</v>
+        <v>46960.767475000001</v>
       </c>
       <c r="BT19" s="1">
         <v>13.044658</v>
       </c>
       <c r="BU19" s="1">
-        <v>1413.590000</v>
+        <v>1413.59</v>
       </c>
       <c r="BV19" s="1">
-        <v>-808.069000</v>
+        <v>-808.06899999999996</v>
       </c>
       <c r="BW19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX19" s="1">
         <v>46971.751914</v>
       </c>
       <c r="BY19" s="1">
-        <v>13.047709</v>
+        <v>13.047708999999999</v>
       </c>
       <c r="BZ19" s="1">
-        <v>1577.040000</v>
+        <v>1577.04</v>
       </c>
       <c r="CA19" s="1">
-        <v>-1046.710000</v>
+        <v>-1046.71</v>
       </c>
       <c r="CB19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC19" s="1">
         <v>46984.481732</v>
@@ -5090,30 +5506,30 @@
         <v>13.051245</v>
       </c>
       <c r="CE19" s="1">
-        <v>1991.190000</v>
+        <v>1991.19</v>
       </c>
       <c r="CF19" s="1">
-        <v>-1604.540000</v>
+        <v>-1604.54</v>
       </c>
       <c r="CG19" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="20">
+    <row r="20" spans="1:85">
       <c r="A20" s="1">
-        <v>46810.799595</v>
+        <v>46810.799594999997</v>
       </c>
       <c r="B20" s="1">
-        <v>13.003000</v>
+        <v>13.003</v>
       </c>
       <c r="C20" s="1">
-        <v>901.703000</v>
+        <v>901.70299999999997</v>
       </c>
       <c r="D20" s="1">
-        <v>-180.093000</v>
+        <v>-180.09299999999999</v>
       </c>
       <c r="E20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F20" s="1">
         <v>46821.256749</v>
@@ -5122,223 +5538,223 @@
         <v>13.005905</v>
       </c>
       <c r="H20" s="1">
-        <v>917.434000</v>
+        <v>917.43399999999997</v>
       </c>
       <c r="I20" s="1">
-        <v>-155.109000</v>
+        <v>-155.10900000000001</v>
       </c>
       <c r="J20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K20" s="1">
-        <v>46831.716877</v>
+        <v>46831.716876999999</v>
       </c>
       <c r="L20" s="1">
-        <v>13.008810</v>
+        <v>13.00881</v>
       </c>
       <c r="M20" s="1">
-        <v>940.995000</v>
+        <v>940.995</v>
       </c>
       <c r="N20" s="1">
-        <v>-114.963000</v>
+        <v>-114.96299999999999</v>
       </c>
       <c r="O20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P20" s="1">
-        <v>46842.272737</v>
+        <v>46842.272736999999</v>
       </c>
       <c r="Q20" s="1">
         <v>13.011742</v>
       </c>
       <c r="R20" s="1">
-        <v>948.483000</v>
+        <v>948.48299999999995</v>
       </c>
       <c r="S20" s="1">
-        <v>-101.411000</v>
+        <v>-101.411</v>
       </c>
       <c r="T20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U20" s="1">
-        <v>46852.738323</v>
+        <v>46852.738322999998</v>
       </c>
       <c r="V20" s="1">
-        <v>13.014650</v>
+        <v>13.01465</v>
       </c>
       <c r="W20" s="1">
-        <v>956.064000</v>
+        <v>956.06399999999996</v>
       </c>
       <c r="X20" s="1">
-        <v>-89.028700</v>
+        <v>-89.028700000000001</v>
       </c>
       <c r="Y20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z20" s="1">
-        <v>46863.705865</v>
+        <v>46863.705865000004</v>
       </c>
       <c r="AA20" s="1">
-        <v>13.017696</v>
+        <v>13.017696000000001</v>
       </c>
       <c r="AB20" s="1">
-        <v>964.174000</v>
+        <v>964.17399999999998</v>
       </c>
       <c r="AC20" s="1">
-        <v>-80.332600</v>
+        <v>-80.332599999999999</v>
       </c>
       <c r="AD20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE20" s="1">
-        <v>46874.109941</v>
+        <v>46874.109941000002</v>
       </c>
       <c r="AF20" s="1">
         <v>13.020586</v>
       </c>
       <c r="AG20" s="1">
-        <v>969.499000</v>
+        <v>969.49900000000002</v>
       </c>
       <c r="AH20" s="1">
-        <v>-80.175000</v>
+        <v>-80.174999999999997</v>
       </c>
       <c r="AI20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ20" s="1">
-        <v>46884.582968</v>
+        <v>46884.582968000002</v>
       </c>
       <c r="AK20" s="1">
         <v>13.023495</v>
       </c>
       <c r="AL20" s="1">
-        <v>977.839000</v>
+        <v>977.83900000000006</v>
       </c>
       <c r="AM20" s="1">
-        <v>-88.192700</v>
+        <v>-88.192700000000002</v>
       </c>
       <c r="AN20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO20" s="1">
-        <v>46895.407658</v>
+        <v>46895.407657999996</v>
       </c>
       <c r="AP20" s="1">
-        <v>13.026502</v>
+        <v>13.026502000000001</v>
       </c>
       <c r="AQ20" s="1">
-        <v>987.218000</v>
+        <v>987.21799999999996</v>
       </c>
       <c r="AR20" s="1">
-        <v>-103.295000</v>
+        <v>-103.295</v>
       </c>
       <c r="AS20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT20" s="1">
-        <v>46906.561195</v>
+        <v>46906.561195000002</v>
       </c>
       <c r="AU20" s="1">
-        <v>13.029600</v>
+        <v>13.0296</v>
       </c>
       <c r="AV20" s="1">
-        <v>998.702000</v>
+        <v>998.702</v>
       </c>
       <c r="AW20" s="1">
-        <v>-125.074000</v>
+        <v>-125.074</v>
       </c>
       <c r="AX20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY20" s="1">
-        <v>46917.160702</v>
+        <v>46917.160702000001</v>
       </c>
       <c r="AZ20" s="1">
-        <v>13.032545</v>
+        <v>13.032545000000001</v>
       </c>
       <c r="BA20" s="1">
-        <v>1008.410000</v>
+        <v>1008.41</v>
       </c>
       <c r="BB20" s="1">
-        <v>-143.966000</v>
+        <v>-143.96600000000001</v>
       </c>
       <c r="BC20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD20" s="1">
-        <v>46928.190238</v>
+        <v>46928.190238000003</v>
       </c>
       <c r="BE20" s="1">
         <v>13.035608</v>
       </c>
       <c r="BF20" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG20" s="1">
-        <v>-229.531000</v>
+        <v>-229.53100000000001</v>
       </c>
       <c r="BH20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI20" s="1">
-        <v>46939.287759</v>
+        <v>46939.287758999999</v>
       </c>
       <c r="BJ20" s="1">
         <v>13.038691</v>
       </c>
       <c r="BK20" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL20" s="1">
-        <v>-367.052000</v>
+        <v>-367.05200000000002</v>
       </c>
       <c r="BM20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN20" s="1">
         <v>46950.127793</v>
       </c>
       <c r="BO20" s="1">
-        <v>13.041702</v>
+        <v>13.041702000000001</v>
       </c>
       <c r="BP20" s="1">
-        <v>1265.520000</v>
+        <v>1265.52</v>
       </c>
       <c r="BQ20" s="1">
-        <v>-580.120000</v>
+        <v>-580.12</v>
       </c>
       <c r="BR20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS20" s="1">
-        <v>46961.196514</v>
+        <v>46961.196514000003</v>
       </c>
       <c r="BT20" s="1">
         <v>13.044777</v>
       </c>
       <c r="BU20" s="1">
-        <v>1413.600000</v>
+        <v>1413.6</v>
       </c>
       <c r="BV20" s="1">
-        <v>-808.094000</v>
+        <v>-808.09400000000005</v>
       </c>
       <c r="BW20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX20" s="1">
-        <v>46972.208229</v>
+        <v>46972.208229000003</v>
       </c>
       <c r="BY20" s="1">
         <v>13.047836</v>
       </c>
       <c r="BZ20" s="1">
-        <v>1577.150000</v>
+        <v>1577.15</v>
       </c>
       <c r="CA20" s="1">
-        <v>-1046.760000</v>
+        <v>-1046.76</v>
       </c>
       <c r="CB20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC20" s="1">
         <v>46985.335346</v>
@@ -5347,45 +5763,45 @@
         <v>13.051482</v>
       </c>
       <c r="CE20" s="1">
-        <v>1990.520000</v>
+        <v>1990.52</v>
       </c>
       <c r="CF20" s="1">
-        <v>-1605.910000</v>
+        <v>-1605.91</v>
       </c>
       <c r="CG20" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="21">
+    <row r="21" spans="1:85">
       <c r="A21" s="1">
-        <v>46811.148809</v>
+        <v>46811.148808999998</v>
       </c>
       <c r="B21" s="1">
         <v>13.003097</v>
       </c>
       <c r="C21" s="1">
-        <v>901.644000</v>
+        <v>901.64400000000001</v>
       </c>
       <c r="D21" s="1">
-        <v>-180.143000</v>
+        <v>-180.143</v>
       </c>
       <c r="E21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F21" s="1">
-        <v>46821.600012</v>
+        <v>46821.600012000003</v>
       </c>
       <c r="G21" s="1">
-        <v>13.006000</v>
+        <v>13.006</v>
       </c>
       <c r="H21" s="1">
-        <v>917.609000</v>
+        <v>917.60900000000004</v>
       </c>
       <c r="I21" s="1">
-        <v>-155.486000</v>
+        <v>-155.48599999999999</v>
       </c>
       <c r="J21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K21" s="1">
         <v>46832.061597</v>
@@ -5394,226 +5810,226 @@
         <v>13.008906</v>
       </c>
       <c r="M21" s="1">
-        <v>940.891000</v>
+        <v>940.89099999999996</v>
       </c>
       <c r="N21" s="1">
-        <v>-115.141000</v>
+        <v>-115.14100000000001</v>
       </c>
       <c r="O21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P21" s="1">
-        <v>46842.858512</v>
+        <v>46842.858511999999</v>
       </c>
       <c r="Q21" s="1">
         <v>13.011905</v>
       </c>
       <c r="R21" s="1">
-        <v>948.530000</v>
+        <v>948.53</v>
       </c>
       <c r="S21" s="1">
-        <v>-101.448000</v>
+        <v>-101.44799999999999</v>
       </c>
       <c r="T21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U21" s="1">
-        <v>46853.164422</v>
+        <v>46853.164422000002</v>
       </c>
       <c r="V21" s="1">
         <v>13.014768</v>
       </c>
       <c r="W21" s="1">
-        <v>956.167000</v>
+        <v>956.16700000000003</v>
       </c>
       <c r="X21" s="1">
-        <v>-89.165100</v>
+        <v>-89.165099999999995</v>
       </c>
       <c r="Y21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z21" s="1">
-        <v>46863.977172</v>
+        <v>46863.977171999999</v>
       </c>
       <c r="AA21" s="1">
         <v>13.017771</v>
       </c>
       <c r="AB21" s="1">
-        <v>964.135000</v>
+        <v>964.13499999999999</v>
       </c>
       <c r="AC21" s="1">
-        <v>-80.289400</v>
+        <v>-80.289400000000001</v>
       </c>
       <c r="AD21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE21" s="1">
-        <v>46874.392165</v>
+        <v>46874.392164999997</v>
       </c>
       <c r="AF21" s="1">
         <v>13.020664</v>
       </c>
       <c r="AG21" s="1">
-        <v>969.564000</v>
+        <v>969.56399999999996</v>
       </c>
       <c r="AH21" s="1">
-        <v>-80.203900</v>
+        <v>-80.203900000000004</v>
       </c>
       <c r="AI21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ21" s="1">
-        <v>46884.929671</v>
+        <v>46884.929670999998</v>
       </c>
       <c r="AK21" s="1">
-        <v>13.023592</v>
+        <v>13.023592000000001</v>
       </c>
       <c r="AL21" s="1">
-        <v>977.822000</v>
+        <v>977.822</v>
       </c>
       <c r="AM21" s="1">
-        <v>-88.189700</v>
+        <v>-88.189700000000002</v>
       </c>
       <c r="AN21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO21" s="1">
-        <v>46895.769738</v>
+        <v>46895.769738000003</v>
       </c>
       <c r="AP21" s="1">
         <v>13.026603</v>
       </c>
       <c r="AQ21" s="1">
-        <v>987.243000</v>
+        <v>987.24300000000005</v>
       </c>
       <c r="AR21" s="1">
-        <v>-103.324000</v>
+        <v>-103.324</v>
       </c>
       <c r="AS21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT21" s="1">
-        <v>46906.924297</v>
+        <v>46906.924296999998</v>
       </c>
       <c r="AU21" s="1">
-        <v>13.029701</v>
+        <v>13.029700999999999</v>
       </c>
       <c r="AV21" s="1">
-        <v>998.727000</v>
+        <v>998.72699999999998</v>
       </c>
       <c r="AW21" s="1">
-        <v>-125.057000</v>
+        <v>-125.057</v>
       </c>
       <c r="AX21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY21" s="1">
-        <v>46917.881389</v>
+        <v>46917.881389000002</v>
       </c>
       <c r="AZ21" s="1">
         <v>13.032745</v>
       </c>
       <c r="BA21" s="1">
-        <v>1008.410000</v>
+        <v>1008.41</v>
       </c>
       <c r="BB21" s="1">
-        <v>-143.976000</v>
+        <v>-143.976</v>
       </c>
       <c r="BC21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD21" s="1">
-        <v>46928.569709</v>
+        <v>46928.569709000003</v>
       </c>
       <c r="BE21" s="1">
         <v>13.035714</v>
       </c>
       <c r="BF21" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG21" s="1">
-        <v>-229.533000</v>
+        <v>-229.53299999999999</v>
       </c>
       <c r="BH21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI21" s="1">
-        <v>46939.663695</v>
+        <v>46939.663695000003</v>
       </c>
       <c r="BJ21" s="1">
         <v>13.038795</v>
       </c>
       <c r="BK21" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL21" s="1">
-        <v>-367.089000</v>
+        <v>-367.089</v>
       </c>
       <c r="BM21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN21" s="1">
-        <v>46950.546416</v>
+        <v>46950.546415999997</v>
       </c>
       <c r="BO21" s="1">
-        <v>13.041818</v>
+        <v>13.041817999999999</v>
       </c>
       <c r="BP21" s="1">
-        <v>1265.520000</v>
+        <v>1265.52</v>
       </c>
       <c r="BQ21" s="1">
-        <v>-580.124000</v>
+        <v>-580.12400000000002</v>
       </c>
       <c r="BR21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS21" s="1">
-        <v>46961.922661</v>
+        <v>46961.922660999997</v>
       </c>
       <c r="BT21" s="1">
         <v>13.044979</v>
       </c>
       <c r="BU21" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="BV21" s="1">
-        <v>-808.182000</v>
+        <v>-808.18200000000002</v>
       </c>
       <c r="BW21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX21" s="1">
-        <v>46972.962784</v>
+        <v>46972.962784000003</v>
       </c>
       <c r="BY21" s="1">
         <v>13.048045</v>
       </c>
       <c r="BZ21" s="1">
-        <v>1577.210000</v>
+        <v>1577.21</v>
       </c>
       <c r="CA21" s="1">
-        <v>-1046.700000</v>
+        <v>-1046.7</v>
       </c>
       <c r="CB21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC21" s="1">
-        <v>46985.558514</v>
+        <v>46985.558513999997</v>
       </c>
       <c r="CD21" s="1">
         <v>13.051544</v>
       </c>
       <c r="CE21" s="1">
-        <v>1990.320000</v>
+        <v>1990.32</v>
       </c>
       <c r="CF21" s="1">
-        <v>-1606.030000</v>
+        <v>-1606.03</v>
       </c>
       <c r="CG21" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="22">
+    <row r="22" spans="1:85">
       <c r="A22" s="1">
         <v>46811.491016</v>
       </c>
@@ -5621,163 +6037,163 @@
         <v>13.003192</v>
       </c>
       <c r="C22" s="1">
-        <v>901.835000</v>
+        <v>901.83500000000004</v>
       </c>
       <c r="D22" s="1">
-        <v>-180.133000</v>
+        <v>-180.13300000000001</v>
       </c>
       <c r="E22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F22" s="1">
-        <v>46821.944734</v>
+        <v>46821.944733999997</v>
       </c>
       <c r="G22" s="1">
-        <v>13.006096</v>
+        <v>13.006095999999999</v>
       </c>
       <c r="H22" s="1">
-        <v>917.820000</v>
+        <v>917.82</v>
       </c>
       <c r="I22" s="1">
-        <v>-155.393000</v>
+        <v>-155.393</v>
       </c>
       <c r="J22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K22" s="1">
-        <v>46832.473805</v>
+        <v>46832.473805000001</v>
       </c>
       <c r="L22" s="1">
-        <v>13.009021</v>
+        <v>13.009021000000001</v>
       </c>
       <c r="M22" s="1">
-        <v>940.846000</v>
+        <v>940.846</v>
       </c>
       <c r="N22" s="1">
-        <v>-115.085000</v>
+        <v>-115.08499999999999</v>
       </c>
       <c r="O22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P22" s="1">
-        <v>46842.970606</v>
+        <v>46842.970606000003</v>
       </c>
       <c r="Q22" s="1">
         <v>13.011936</v>
       </c>
       <c r="R22" s="1">
-        <v>948.563000</v>
+        <v>948.56299999999999</v>
       </c>
       <c r="S22" s="1">
-        <v>-101.422000</v>
+        <v>-101.422</v>
       </c>
       <c r="T22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U22" s="1">
-        <v>46853.442176</v>
+        <v>46853.442175999997</v>
       </c>
       <c r="V22" s="1">
-        <v>13.014845</v>
+        <v>13.014844999999999</v>
       </c>
       <c r="W22" s="1">
-        <v>956.064000</v>
+        <v>956.06399999999996</v>
       </c>
       <c r="X22" s="1">
-        <v>-89.075500</v>
+        <v>-89.075500000000005</v>
       </c>
       <c r="Y22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z22" s="1">
-        <v>46864.328866</v>
+        <v>46864.328866000003</v>
       </c>
       <c r="AA22" s="1">
-        <v>13.017869</v>
+        <v>13.017868999999999</v>
       </c>
       <c r="AB22" s="1">
-        <v>964.160000</v>
+        <v>964.16</v>
       </c>
       <c r="AC22" s="1">
-        <v>-80.322600</v>
+        <v>-80.322599999999994</v>
       </c>
       <c r="AD22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE22" s="1">
-        <v>46874.732422</v>
+        <v>46874.732422000001</v>
       </c>
       <c r="AF22" s="1">
         <v>13.020759</v>
       </c>
       <c r="AG22" s="1">
-        <v>969.559000</v>
+        <v>969.55899999999997</v>
       </c>
       <c r="AH22" s="1">
-        <v>-80.188500</v>
+        <v>-80.188500000000005</v>
       </c>
       <c r="AI22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ22" s="1">
         <v>46885.281336</v>
       </c>
       <c r="AK22" s="1">
-        <v>13.023689</v>
+        <v>13.023688999999999</v>
       </c>
       <c r="AL22" s="1">
-        <v>977.827000</v>
+        <v>977.827</v>
       </c>
       <c r="AM22" s="1">
-        <v>-88.193400</v>
+        <v>-88.193399999999997</v>
       </c>
       <c r="AN22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO22" s="1">
-        <v>46896.497369</v>
+        <v>46896.497368999997</v>
       </c>
       <c r="AP22" s="1">
         <v>13.026805</v>
       </c>
       <c r="AQ22" s="1">
-        <v>987.213000</v>
+        <v>987.21299999999997</v>
       </c>
       <c r="AR22" s="1">
-        <v>-103.306000</v>
+        <v>-103.306</v>
       </c>
       <c r="AS22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT22" s="1">
-        <v>46907.655408</v>
+        <v>46907.655407999999</v>
       </c>
       <c r="AU22" s="1">
         <v>13.029904</v>
       </c>
       <c r="AV22" s="1">
-        <v>998.698000</v>
+        <v>998.69799999999998</v>
       </c>
       <c r="AW22" s="1">
-        <v>-125.069000</v>
+        <v>-125.069</v>
       </c>
       <c r="AX22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY22" s="1">
-        <v>46918.257883</v>
+        <v>46918.257882999998</v>
       </c>
       <c r="AZ22" s="1">
-        <v>13.032849</v>
+        <v>13.032849000000001</v>
       </c>
       <c r="BA22" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB22" s="1">
-        <v>-143.981000</v>
+        <v>-143.98099999999999</v>
       </c>
       <c r="BC22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD22" s="1">
         <v>46928.950182</v>
@@ -5786,28 +6202,28 @@
         <v>13.035819</v>
       </c>
       <c r="BF22" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG22" s="1">
-        <v>-229.539000</v>
+        <v>-229.53899999999999</v>
       </c>
       <c r="BH22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI22" s="1">
-        <v>46940.039664</v>
+        <v>46940.039664000004</v>
       </c>
       <c r="BJ22" s="1">
-        <v>13.038900</v>
+        <v>13.0389</v>
       </c>
       <c r="BK22" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL22" s="1">
-        <v>-367.068000</v>
+        <v>-367.06799999999998</v>
       </c>
       <c r="BM22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN22" s="1">
         <v>46951.248752</v>
@@ -5816,497 +6232,497 @@
         <v>13.042014</v>
       </c>
       <c r="BP22" s="1">
-        <v>1265.520000</v>
+        <v>1265.52</v>
       </c>
       <c r="BQ22" s="1">
-        <v>-580.114000</v>
+        <v>-580.11400000000003</v>
       </c>
       <c r="BR22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS22" s="1">
-        <v>46962.039217</v>
+        <v>46962.039216999998</v>
       </c>
       <c r="BT22" s="1">
-        <v>13.045011</v>
+        <v>13.045011000000001</v>
       </c>
       <c r="BU22" s="1">
-        <v>1413.420000</v>
+        <v>1413.42</v>
       </c>
       <c r="BV22" s="1">
-        <v>-808.226000</v>
+        <v>-808.226</v>
       </c>
       <c r="BW22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX22" s="1">
-        <v>46973.101987</v>
+        <v>46973.101987000002</v>
       </c>
       <c r="BY22" s="1">
-        <v>13.048084</v>
+        <v>13.048083999999999</v>
       </c>
       <c r="BZ22" s="1">
-        <v>1577.010000</v>
+        <v>1577.01</v>
       </c>
       <c r="CA22" s="1">
-        <v>-1046.650000</v>
+        <v>-1046.6500000000001</v>
       </c>
       <c r="CB22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC22" s="1">
-        <v>46986.078819</v>
+        <v>46986.078819000002</v>
       </c>
       <c r="CD22" s="1">
         <v>13.051689</v>
       </c>
       <c r="CE22" s="1">
-        <v>1991.480000</v>
+        <v>1991.48</v>
       </c>
       <c r="CF22" s="1">
-        <v>-1604.430000</v>
+        <v>-1604.43</v>
       </c>
       <c r="CG22" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="23">
+    <row r="23" spans="1:85">
       <c r="A23" s="1">
-        <v>46811.908649</v>
+        <v>46811.908648999997</v>
       </c>
       <c r="B23" s="1">
-        <v>13.003308</v>
+        <v>13.003308000000001</v>
       </c>
       <c r="C23" s="1">
-        <v>901.748000</v>
+        <v>901.74800000000005</v>
       </c>
       <c r="D23" s="1">
-        <v>-180.139000</v>
+        <v>-180.13900000000001</v>
       </c>
       <c r="E23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F23" s="1">
-        <v>46822.358398</v>
+        <v>46822.358397999997</v>
       </c>
       <c r="G23" s="1">
         <v>13.006211</v>
       </c>
       <c r="H23" s="1">
-        <v>917.535000</v>
+        <v>917.53499999999997</v>
       </c>
       <c r="I23" s="1">
-        <v>-155.582000</v>
+        <v>-155.58199999999999</v>
       </c>
       <c r="J23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K23" s="1">
-        <v>46832.771868</v>
+        <v>46832.771868000003</v>
       </c>
       <c r="L23" s="1">
         <v>13.009103</v>
       </c>
       <c r="M23" s="1">
-        <v>940.840000</v>
+        <v>940.84</v>
       </c>
       <c r="N23" s="1">
-        <v>-115.035000</v>
+        <v>-115.035</v>
       </c>
       <c r="O23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P23" s="1">
-        <v>46843.319790</v>
+        <v>46843.319790000001</v>
       </c>
       <c r="Q23" s="1">
-        <v>13.012033</v>
+        <v>13.012033000000001</v>
       </c>
       <c r="R23" s="1">
-        <v>948.572000</v>
+        <v>948.572</v>
       </c>
       <c r="S23" s="1">
-        <v>-101.424000</v>
+        <v>-101.42400000000001</v>
       </c>
       <c r="T23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U23" s="1">
-        <v>46853.783921</v>
+        <v>46853.783921000002</v>
       </c>
       <c r="V23" s="1">
-        <v>13.014940</v>
+        <v>13.014939999999999</v>
       </c>
       <c r="W23" s="1">
-        <v>955.995000</v>
+        <v>955.995</v>
       </c>
       <c r="X23" s="1">
-        <v>-88.977000</v>
+        <v>-88.977000000000004</v>
       </c>
       <c r="Y23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z23" s="1">
-        <v>46864.677063</v>
+        <v>46864.677063000003</v>
       </c>
       <c r="AA23" s="1">
-        <v>13.017966</v>
+        <v>13.017965999999999</v>
       </c>
       <c r="AB23" s="1">
-        <v>964.214000</v>
+        <v>964.21400000000006</v>
       </c>
       <c r="AC23" s="1">
-        <v>-80.308800</v>
+        <v>-80.308800000000005</v>
       </c>
       <c r="AD23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE23" s="1">
-        <v>46875.096023</v>
+        <v>46875.096022999998</v>
       </c>
       <c r="AF23" s="1">
-        <v>13.020860</v>
+        <v>13.020860000000001</v>
       </c>
       <c r="AG23" s="1">
-        <v>969.554000</v>
+        <v>969.55399999999997</v>
       </c>
       <c r="AH23" s="1">
-        <v>-80.243000</v>
+        <v>-80.242999999999995</v>
       </c>
       <c r="AI23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ23" s="1">
-        <v>46885.975766</v>
+        <v>46885.975766000003</v>
       </c>
       <c r="AK23" s="1">
         <v>13.023882</v>
       </c>
       <c r="AL23" s="1">
-        <v>977.839000</v>
+        <v>977.83900000000006</v>
       </c>
       <c r="AM23" s="1">
-        <v>-88.206000</v>
+        <v>-88.206000000000003</v>
       </c>
       <c r="AN23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO23" s="1">
-        <v>46896.874824</v>
+        <v>46896.874823999999</v>
       </c>
       <c r="AP23" s="1">
-        <v>13.026910</v>
+        <v>13.026910000000001</v>
       </c>
       <c r="AQ23" s="1">
-        <v>987.224000</v>
+        <v>987.22400000000005</v>
       </c>
       <c r="AR23" s="1">
-        <v>-103.293000</v>
+        <v>-103.29300000000001</v>
       </c>
       <c r="AS23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT23" s="1">
-        <v>46908.044270</v>
+        <v>46908.044269999999</v>
       </c>
       <c r="AU23" s="1">
-        <v>13.030012</v>
+        <v>13.030011999999999</v>
       </c>
       <c r="AV23" s="1">
-        <v>998.720000</v>
+        <v>998.72</v>
       </c>
       <c r="AW23" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="AX23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY23" s="1">
-        <v>46918.634812</v>
+        <v>46918.634811999997</v>
       </c>
       <c r="AZ23" s="1">
         <v>13.032954</v>
       </c>
       <c r="BA23" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB23" s="1">
-        <v>-143.974000</v>
+        <v>-143.97399999999999</v>
       </c>
       <c r="BC23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD23" s="1">
-        <v>46929.621692</v>
+        <v>46929.621692000001</v>
       </c>
       <c r="BE23" s="1">
         <v>13.036006</v>
       </c>
       <c r="BF23" s="1">
-        <v>1053.880000</v>
+        <v>1053.8800000000001</v>
       </c>
       <c r="BG23" s="1">
-        <v>-229.524000</v>
+        <v>-229.524</v>
       </c>
       <c r="BH23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI23" s="1">
-        <v>46940.721166</v>
+        <v>46940.721166000003</v>
       </c>
       <c r="BJ23" s="1">
-        <v>13.039089</v>
+        <v>13.039089000000001</v>
       </c>
       <c r="BK23" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL23" s="1">
-        <v>-367.042000</v>
+        <v>-367.04199999999997</v>
       </c>
       <c r="BM23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN23" s="1">
         <v>46951.363824</v>
       </c>
       <c r="BO23" s="1">
-        <v>13.042046</v>
+        <v>13.042045999999999</v>
       </c>
       <c r="BP23" s="1">
-        <v>1265.500000</v>
+        <v>1265.5</v>
       </c>
       <c r="BQ23" s="1">
-        <v>-580.117000</v>
+        <v>-580.11699999999996</v>
       </c>
       <c r="BR23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS23" s="1">
         <v>46962.480657</v>
       </c>
       <c r="BT23" s="1">
-        <v>13.045134</v>
+        <v>13.045133999999999</v>
       </c>
       <c r="BU23" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="BV23" s="1">
-        <v>-808.317000</v>
+        <v>-808.31700000000001</v>
       </c>
       <c r="BW23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX23" s="1">
-        <v>46973.524580</v>
+        <v>46973.524579999998</v>
       </c>
       <c r="BY23" s="1">
-        <v>13.048201</v>
+        <v>13.048201000000001</v>
       </c>
       <c r="BZ23" s="1">
-        <v>1577.080000</v>
+        <v>1577.08</v>
       </c>
       <c r="CA23" s="1">
-        <v>-1046.920000</v>
+        <v>-1046.92</v>
       </c>
       <c r="CB23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC23" s="1">
-        <v>46986.596641</v>
+        <v>46986.596640999996</v>
       </c>
       <c r="CD23" s="1">
-        <v>13.051832</v>
+        <v>13.051831999999999</v>
       </c>
       <c r="CE23" s="1">
-        <v>1991.560000</v>
+        <v>1991.56</v>
       </c>
       <c r="CF23" s="1">
-        <v>-1604.630000</v>
+        <v>-1604.63</v>
       </c>
       <c r="CG23" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="24">
+    <row r="24" spans="1:85">
       <c r="A24" s="1">
-        <v>46812.189909</v>
+        <v>46812.189909000001</v>
       </c>
       <c r="B24" s="1">
-        <v>13.003386</v>
+        <v>13.003386000000001</v>
       </c>
       <c r="C24" s="1">
-        <v>901.821000</v>
+        <v>901.82100000000003</v>
       </c>
       <c r="D24" s="1">
-        <v>-180.112000</v>
+        <v>-180.11199999999999</v>
       </c>
       <c r="E24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F24" s="1">
-        <v>46822.636645</v>
+        <v>46822.636644999999</v>
       </c>
       <c r="G24" s="1">
         <v>13.006288</v>
       </c>
       <c r="H24" s="1">
-        <v>917.942000</v>
+        <v>917.94200000000001</v>
       </c>
       <c r="I24" s="1">
-        <v>-155.204000</v>
+        <v>-155.20400000000001</v>
       </c>
       <c r="J24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K24" s="1">
-        <v>46833.118571</v>
+        <v>46833.118570999999</v>
       </c>
       <c r="L24" s="1">
-        <v>13.009200</v>
+        <v>13.0092</v>
       </c>
       <c r="M24" s="1">
-        <v>940.950000</v>
+        <v>940.95</v>
       </c>
       <c r="N24" s="1">
-        <v>-115.023000</v>
+        <v>-115.023</v>
       </c>
       <c r="O24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P24" s="1">
-        <v>46843.670494</v>
+        <v>46843.670493999998</v>
       </c>
       <c r="Q24" s="1">
         <v>13.012131</v>
       </c>
       <c r="R24" s="1">
-        <v>948.506000</v>
+        <v>948.50599999999997</v>
       </c>
       <c r="S24" s="1">
-        <v>-101.452000</v>
+        <v>-101.452</v>
       </c>
       <c r="T24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U24" s="1">
-        <v>46854.128647</v>
+        <v>46854.128646999998</v>
       </c>
       <c r="V24" s="1">
         <v>13.015036</v>
       </c>
       <c r="W24" s="1">
-        <v>956.118000</v>
+        <v>956.11800000000005</v>
       </c>
       <c r="X24" s="1">
-        <v>-89.043000</v>
+        <v>-89.043000000000006</v>
       </c>
       <c r="Y24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z24" s="1">
-        <v>46865.374402</v>
+        <v>46865.374402000001</v>
       </c>
       <c r="AA24" s="1">
-        <v>13.018160</v>
+        <v>13.01816</v>
       </c>
       <c r="AB24" s="1">
-        <v>964.227000</v>
+        <v>964.22699999999998</v>
       </c>
       <c r="AC24" s="1">
-        <v>-80.332700</v>
+        <v>-80.332700000000003</v>
       </c>
       <c r="AD24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE24" s="1">
-        <v>46875.788900</v>
+        <v>46875.7889</v>
       </c>
       <c r="AF24" s="1">
-        <v>13.021052</v>
+        <v>13.021051999999999</v>
       </c>
       <c r="AG24" s="1">
-        <v>969.577000</v>
+        <v>969.577</v>
       </c>
       <c r="AH24" s="1">
-        <v>-80.424500</v>
+        <v>-80.424499999999995</v>
       </c>
       <c r="AI24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ24" s="1">
-        <v>46886.326442</v>
+        <v>46886.326441999998</v>
       </c>
       <c r="AK24" s="1">
-        <v>13.023980</v>
+        <v>13.02398</v>
       </c>
       <c r="AL24" s="1">
-        <v>977.872000</v>
+        <v>977.87199999999996</v>
       </c>
       <c r="AM24" s="1">
-        <v>-88.203400</v>
+        <v>-88.203400000000002</v>
       </c>
       <c r="AN24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO24" s="1">
-        <v>46897.236903</v>
+        <v>46897.236902999997</v>
       </c>
       <c r="AP24" s="1">
-        <v>13.027010</v>
+        <v>13.027010000000001</v>
       </c>
       <c r="AQ24" s="1">
-        <v>987.225000</v>
+        <v>987.22500000000002</v>
       </c>
       <c r="AR24" s="1">
-        <v>-103.324000</v>
+        <v>-103.324</v>
       </c>
       <c r="AS24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT24" s="1">
-        <v>46908.420697</v>
+        <v>46908.420697000001</v>
       </c>
       <c r="AU24" s="1">
-        <v>13.030117</v>
+        <v>13.030117000000001</v>
       </c>
       <c r="AV24" s="1">
-        <v>998.715000</v>
+        <v>998.71500000000003</v>
       </c>
       <c r="AW24" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="AX24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY24" s="1">
-        <v>46919.301105</v>
+        <v>46919.301104999999</v>
       </c>
       <c r="AZ24" s="1">
         <v>13.033139</v>
       </c>
       <c r="BA24" s="1">
-        <v>1008.390000</v>
+        <v>1008.39</v>
       </c>
       <c r="BB24" s="1">
-        <v>-143.979000</v>
+        <v>-143.97900000000001</v>
       </c>
       <c r="BC24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD24" s="1">
-        <v>46930.032877</v>
+        <v>46930.032876999998</v>
       </c>
       <c r="BE24" s="1">
-        <v>13.036120</v>
+        <v>13.03612</v>
       </c>
       <c r="BF24" s="1">
-        <v>1053.870000</v>
+        <v>1053.8699999999999</v>
       </c>
       <c r="BG24" s="1">
-        <v>-229.528000</v>
+        <v>-229.52799999999999</v>
       </c>
       <c r="BH24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI24" s="1">
         <v>46941.158141</v>
@@ -6315,165 +6731,165 @@
         <v>13.039211</v>
       </c>
       <c r="BK24" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL24" s="1">
-        <v>-367.047000</v>
+        <v>-367.04700000000003</v>
       </c>
       <c r="BM24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN24" s="1">
-        <v>46951.789423</v>
+        <v>46951.789423000002</v>
       </c>
       <c r="BO24" s="1">
         <v>13.042164</v>
       </c>
       <c r="BP24" s="1">
-        <v>1265.550000</v>
+        <v>1265.55</v>
       </c>
       <c r="BQ24" s="1">
-        <v>-580.121000</v>
+        <v>-580.12099999999998</v>
       </c>
       <c r="BR24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS24" s="1">
-        <v>46962.905760</v>
+        <v>46962.905760000001</v>
       </c>
       <c r="BT24" s="1">
         <v>13.045252</v>
       </c>
       <c r="BU24" s="1">
-        <v>1413.520000</v>
+        <v>1413.52</v>
       </c>
       <c r="BV24" s="1">
-        <v>-808.322000</v>
+        <v>-808.322</v>
       </c>
       <c r="BW24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX24" s="1">
-        <v>46973.953121</v>
+        <v>46973.953120999999</v>
       </c>
       <c r="BY24" s="1">
-        <v>13.048320</v>
+        <v>13.04832</v>
       </c>
       <c r="BZ24" s="1">
-        <v>1577.160000</v>
+        <v>1577.16</v>
       </c>
       <c r="CA24" s="1">
-        <v>-1046.770000</v>
+        <v>-1046.77</v>
       </c>
       <c r="CB24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC24" s="1">
-        <v>46987.149220</v>
+        <v>46987.149219999999</v>
       </c>
       <c r="CD24" s="1">
-        <v>13.051986</v>
+        <v>13.051985999999999</v>
       </c>
       <c r="CE24" s="1">
-        <v>1990.670000</v>
+        <v>1990.67</v>
       </c>
       <c r="CF24" s="1">
-        <v>-1605.830000</v>
+        <v>-1605.83</v>
       </c>
       <c r="CG24" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="25">
+    <row r="25" spans="1:85">
       <c r="A25" s="1">
-        <v>46812.530170</v>
+        <v>46812.530169999998</v>
       </c>
       <c r="B25" s="1">
-        <v>13.003481</v>
+        <v>13.003481000000001</v>
       </c>
       <c r="C25" s="1">
-        <v>901.833000</v>
+        <v>901.83299999999997</v>
       </c>
       <c r="D25" s="1">
-        <v>-180.126000</v>
+        <v>-180.126</v>
       </c>
       <c r="E25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F25" s="1">
-        <v>46822.984313</v>
+        <v>46822.984313000001</v>
       </c>
       <c r="G25" s="1">
         <v>13.006385</v>
       </c>
       <c r="H25" s="1">
-        <v>917.436000</v>
+        <v>917.43600000000004</v>
       </c>
       <c r="I25" s="1">
-        <v>-155.267000</v>
+        <v>-155.267</v>
       </c>
       <c r="J25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K25" s="1">
-        <v>46833.465803</v>
+        <v>46833.465802999999</v>
       </c>
       <c r="L25" s="1">
-        <v>13.009296</v>
+        <v>13.009296000000001</v>
       </c>
       <c r="M25" s="1">
-        <v>940.899000</v>
+        <v>940.899</v>
       </c>
       <c r="N25" s="1">
-        <v>-114.944000</v>
+        <v>-114.944</v>
       </c>
       <c r="O25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P25" s="1">
-        <v>46844.365358</v>
+        <v>46844.365358000003</v>
       </c>
       <c r="Q25" s="1">
         <v>13.012324</v>
       </c>
       <c r="R25" s="1">
-        <v>948.480000</v>
+        <v>948.48</v>
       </c>
       <c r="S25" s="1">
-        <v>-101.416000</v>
+        <v>-101.416</v>
       </c>
       <c r="T25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U25" s="1">
-        <v>46854.824991</v>
+        <v>46854.824991000001</v>
       </c>
       <c r="V25" s="1">
         <v>13.015229</v>
       </c>
       <c r="W25" s="1">
-        <v>955.900000</v>
+        <v>955.9</v>
       </c>
       <c r="X25" s="1">
-        <v>-88.940500</v>
+        <v>-88.9405</v>
       </c>
       <c r="Y25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z25" s="1">
-        <v>46865.721612</v>
+        <v>46865.721612000001</v>
       </c>
       <c r="AA25" s="1">
-        <v>13.018256</v>
+        <v>13.018255999999999</v>
       </c>
       <c r="AB25" s="1">
-        <v>964.239000</v>
+        <v>964.23900000000003</v>
       </c>
       <c r="AC25" s="1">
-        <v>-80.356500</v>
+        <v>-80.356499999999997</v>
       </c>
       <c r="AD25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE25" s="1">
         <v>46876.127172</v>
@@ -6482,148 +6898,148 @@
         <v>13.021146</v>
       </c>
       <c r="AG25" s="1">
-        <v>969.504000</v>
+        <v>969.50400000000002</v>
       </c>
       <c r="AH25" s="1">
-        <v>-80.159900</v>
+        <v>-80.159899999999993</v>
       </c>
       <c r="AI25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ25" s="1">
         <v>46886.673144</v>
       </c>
       <c r="AK25" s="1">
-        <v>13.024076</v>
+        <v>13.024076000000001</v>
       </c>
       <c r="AL25" s="1">
-        <v>977.852000</v>
+        <v>977.85199999999998</v>
       </c>
       <c r="AM25" s="1">
-        <v>-88.199800</v>
+        <v>-88.199799999999996</v>
       </c>
       <c r="AN25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO25" s="1">
         <v>46897.909023</v>
       </c>
       <c r="AP25" s="1">
-        <v>13.027197</v>
+        <v>13.027196999999999</v>
       </c>
       <c r="AQ25" s="1">
-        <v>987.242000</v>
+        <v>987.24199999999996</v>
       </c>
       <c r="AR25" s="1">
-        <v>-103.310000</v>
+        <v>-103.31</v>
       </c>
       <c r="AS25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT25" s="1">
-        <v>46908.877520</v>
+        <v>46908.877520000002</v>
       </c>
       <c r="AU25" s="1">
         <v>13.030244</v>
       </c>
       <c r="AV25" s="1">
-        <v>998.710000</v>
+        <v>998.71</v>
       </c>
       <c r="AW25" s="1">
-        <v>-125.072000</v>
+        <v>-125.072</v>
       </c>
       <c r="AX25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY25" s="1">
-        <v>46919.719097</v>
+        <v>46919.719097000001</v>
       </c>
       <c r="AZ25" s="1">
         <v>13.033255</v>
       </c>
       <c r="BA25" s="1">
-        <v>1008.390000</v>
+        <v>1008.39</v>
       </c>
       <c r="BB25" s="1">
-        <v>-143.981000</v>
+        <v>-143.98099999999999</v>
       </c>
       <c r="BC25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD25" s="1">
-        <v>46930.421245</v>
+        <v>46930.421244999998</v>
       </c>
       <c r="BE25" s="1">
-        <v>13.036228</v>
+        <v>13.036227999999999</v>
       </c>
       <c r="BF25" s="1">
-        <v>1053.890000</v>
+        <v>1053.8900000000001</v>
       </c>
       <c r="BG25" s="1">
-        <v>-229.548000</v>
+        <v>-229.548</v>
       </c>
       <c r="BH25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI25" s="1">
-        <v>46941.539566</v>
+        <v>46941.539565999999</v>
       </c>
       <c r="BJ25" s="1">
         <v>13.039317</v>
       </c>
       <c r="BK25" s="1">
-        <v>1133.590000</v>
+        <v>1133.5899999999999</v>
       </c>
       <c r="BL25" s="1">
-        <v>-367.061000</v>
+        <v>-367.06099999999998</v>
       </c>
       <c r="BM25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN25" s="1">
-        <v>46952.187219</v>
+        <v>46952.187218999999</v>
       </c>
       <c r="BO25" s="1">
-        <v>13.042274</v>
+        <v>13.042274000000001</v>
       </c>
       <c r="BP25" s="1">
-        <v>1265.530000</v>
+        <v>1265.53</v>
       </c>
       <c r="BQ25" s="1">
-        <v>-580.111000</v>
+        <v>-580.11099999999999</v>
       </c>
       <c r="BR25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS25" s="1">
         <v>46963.331328</v>
       </c>
       <c r="BT25" s="1">
-        <v>13.045370</v>
+        <v>13.04537</v>
       </c>
       <c r="BU25" s="1">
-        <v>1413.500000</v>
+        <v>1413.5</v>
       </c>
       <c r="BV25" s="1">
-        <v>-808.426000</v>
+        <v>-808.42600000000004</v>
       </c>
       <c r="BW25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX25" s="1">
-        <v>46974.382161</v>
+        <v>46974.382161000001</v>
       </c>
       <c r="BY25" s="1">
         <v>13.048439</v>
       </c>
       <c r="BZ25" s="1">
-        <v>1577.080000</v>
+        <v>1577.08</v>
       </c>
       <c r="CA25" s="1">
-        <v>-1046.700000</v>
+        <v>-1046.7</v>
       </c>
       <c r="CB25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC25" s="1">
         <v>46987.676432</v>
@@ -6632,105 +7048,105 @@
         <v>13.052132</v>
       </c>
       <c r="CE25" s="1">
-        <v>1991.370000</v>
+        <v>1991.37</v>
       </c>
       <c r="CF25" s="1">
-        <v>-1604.220000</v>
+        <v>-1604.22</v>
       </c>
       <c r="CG25" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
-    <row r="26">
+    <row r="26" spans="1:85">
       <c r="A26" s="1">
-        <v>46812.872375</v>
+        <v>46812.872374999999</v>
       </c>
       <c r="B26" s="1">
-        <v>13.003576</v>
+        <v>13.003576000000001</v>
       </c>
       <c r="C26" s="1">
-        <v>901.910000</v>
+        <v>901.91</v>
       </c>
       <c r="D26" s="1">
-        <v>-179.993000</v>
+        <v>-179.99299999999999</v>
       </c>
       <c r="E26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="F26" s="1">
-        <v>46823.325562</v>
+        <v>46823.325561999998</v>
       </c>
       <c r="G26" s="1">
-        <v>13.006479</v>
+        <v>13.006479000000001</v>
       </c>
       <c r="H26" s="1">
-        <v>917.797000</v>
+        <v>917.79700000000003</v>
       </c>
       <c r="I26" s="1">
-        <v>-155.387000</v>
+        <v>-155.387</v>
       </c>
       <c r="J26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="K26" s="1">
-        <v>46834.153722</v>
+        <v>46834.153722000003</v>
       </c>
       <c r="L26" s="1">
         <v>13.009487</v>
       </c>
       <c r="M26" s="1">
-        <v>940.871000</v>
+        <v>940.87099999999998</v>
       </c>
       <c r="N26" s="1">
-        <v>-115.007000</v>
+        <v>-115.00700000000001</v>
       </c>
       <c r="O26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="P26" s="1">
-        <v>46844.709582</v>
+        <v>46844.709582000003</v>
       </c>
       <c r="Q26" s="1">
         <v>13.012419</v>
       </c>
       <c r="R26" s="1">
-        <v>948.488000</v>
+        <v>948.48800000000006</v>
       </c>
       <c r="S26" s="1">
-        <v>-101.417000</v>
+        <v>-101.417</v>
       </c>
       <c r="T26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="U26" s="1">
-        <v>46855.160782</v>
+        <v>46855.160781999999</v>
       </c>
       <c r="V26" s="1">
-        <v>13.015322</v>
+        <v>13.015321999999999</v>
       </c>
       <c r="W26" s="1">
-        <v>955.919000</v>
+        <v>955.91899999999998</v>
       </c>
       <c r="X26" s="1">
-        <v>-88.892700</v>
+        <v>-88.892700000000005</v>
       </c>
       <c r="Y26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="Z26" s="1">
         <v>46866.069828</v>
       </c>
       <c r="AA26" s="1">
-        <v>13.018353</v>
+        <v>13.018352999999999</v>
       </c>
       <c r="AB26" s="1">
-        <v>964.215000</v>
+        <v>964.21500000000003</v>
       </c>
       <c r="AC26" s="1">
-        <v>-80.333200</v>
+        <v>-80.333200000000005</v>
       </c>
       <c r="AD26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AE26" s="1">
         <v>46876.779939</v>
@@ -6739,43 +7155,43 @@
         <v>13.021328</v>
       </c>
       <c r="AG26" s="1">
-        <v>969.556000</v>
+        <v>969.55600000000004</v>
       </c>
       <c r="AH26" s="1">
-        <v>-80.165900</v>
+        <v>-80.165899999999993</v>
       </c>
       <c r="AI26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AJ26" s="1">
-        <v>46887.330308</v>
+        <v>46887.330307999997</v>
       </c>
       <c r="AK26" s="1">
         <v>13.024258</v>
       </c>
       <c r="AL26" s="1">
-        <v>977.823000</v>
+        <v>977.82299999999998</v>
       </c>
       <c r="AM26" s="1">
-        <v>-88.189400</v>
+        <v>-88.189400000000006</v>
       </c>
       <c r="AN26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AO26" s="1">
         <v>46898.315703</v>
       </c>
       <c r="AP26" s="1">
-        <v>13.027310</v>
+        <v>13.02731</v>
       </c>
       <c r="AQ26" s="1">
-        <v>987.231000</v>
+        <v>987.23099999999999</v>
       </c>
       <c r="AR26" s="1">
-        <v>-103.316000</v>
+        <v>-103.316</v>
       </c>
       <c r="AS26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AT26" s="1">
         <v>46909.139895</v>
@@ -6784,120 +7200,121 @@
         <v>13.030317</v>
       </c>
       <c r="AV26" s="1">
-        <v>998.726000</v>
+        <v>998.726</v>
       </c>
       <c r="AW26" s="1">
-        <v>-125.055000</v>
+        <v>-125.05500000000001</v>
       </c>
       <c r="AX26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="AY26" s="1">
-        <v>46920.095069</v>
+        <v>46920.095069000003</v>
       </c>
       <c r="AZ26" s="1">
-        <v>13.033360</v>
+        <v>13.03336</v>
       </c>
       <c r="BA26" s="1">
-        <v>1008.400000</v>
+        <v>1008.4</v>
       </c>
       <c r="BB26" s="1">
-        <v>-143.982000</v>
+        <v>-143.982</v>
       </c>
       <c r="BC26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BD26" s="1">
-        <v>46930.784317</v>
+        <v>46930.784316999998</v>
       </c>
       <c r="BE26" s="1">
         <v>13.036329</v>
       </c>
       <c r="BF26" s="1">
-        <v>1053.890000</v>
+        <v>1053.8900000000001</v>
       </c>
       <c r="BG26" s="1">
-        <v>-229.540000</v>
+        <v>-229.54</v>
       </c>
       <c r="BH26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BI26" s="1">
-        <v>46942.232260</v>
+        <v>46942.232259999997</v>
       </c>
       <c r="BJ26" s="1">
-        <v>13.039509</v>
+        <v>13.039509000000001</v>
       </c>
       <c r="BK26" s="1">
-        <v>1133.560000</v>
+        <v>1133.56</v>
       </c>
       <c r="BL26" s="1">
-        <v>-367.074000</v>
+        <v>-367.07400000000001</v>
       </c>
       <c r="BM26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BN26" s="1">
-        <v>46952.608783</v>
+        <v>46952.608783000003</v>
       </c>
       <c r="BO26" s="1">
         <v>13.042391</v>
       </c>
       <c r="BP26" s="1">
-        <v>1265.470000</v>
+        <v>1265.47</v>
       </c>
       <c r="BQ26" s="1">
-        <v>-580.077000</v>
+        <v>-580.077</v>
       </c>
       <c r="BR26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BS26" s="1">
-        <v>46963.749919</v>
+        <v>46963.749919000002</v>
       </c>
       <c r="BT26" s="1">
         <v>13.045486</v>
       </c>
       <c r="BU26" s="1">
-        <v>1413.550000</v>
+        <v>1413.55</v>
       </c>
       <c r="BV26" s="1">
-        <v>-808.501000</v>
+        <v>-808.50099999999998</v>
       </c>
       <c r="BW26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="BX26" s="1">
-        <v>46974.813186</v>
+        <v>46974.813185999999</v>
       </c>
       <c r="BY26" s="1">
-        <v>13.048559</v>
+        <v>13.048558999999999</v>
       </c>
       <c r="BZ26" s="1">
-        <v>1576.990000</v>
+        <v>1576.99</v>
       </c>
       <c r="CA26" s="1">
-        <v>-1046.860000</v>
+        <v>-1046.8599999999999</v>
       </c>
       <c r="CB26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
       <c r="CC26" s="1">
-        <v>46988.193758</v>
+        <v>46988.193758000001</v>
       </c>
       <c r="CD26" s="1">
-        <v>13.052276</v>
+        <v>13.052276000000001</v>
       </c>
       <c r="CE26" s="1">
-        <v>1989.440000</v>
+        <v>1989.44</v>
       </c>
       <c r="CF26" s="1">
-        <v>-1604.430000</v>
+        <v>-1604.43</v>
       </c>
       <c r="CG26" s="1">
-        <v>0.000000</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>